--- a/dataset/2nd_data/myeong/myeong_env_detail_data.xlsx
+++ b/dataset/2nd_data/myeong/myeong_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BR175"/>
+  <dimension ref="A1:BQ175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,30 +689,25 @@
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature_time</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
           <t>suitable_humidity_time</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>sunrise_diff</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>sunset_diff</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>suitable_temperature_diff_lowerbound</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>suitable_temperature_diff_upperbound</t>
         </is>
@@ -912,21 +907,18 @@
         <v>23.1205463182898</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.55</v>
+        <v>17.28333333333333</v>
       </c>
       <c r="BN2" t="n">
-        <v>17.28333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.6</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR2" t="n">
         <v>3.100000000000001</v>
       </c>
     </row>
@@ -1124,21 +1116,18 @@
         <v>20.56736342042758</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.75</v>
+        <v>12.75</v>
       </c>
       <c r="BN3" t="n">
-        <v>12.75</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.6099999999999994</v>
+        <v>2.290000000000001</v>
       </c>
       <c r="BP3" t="n">
-        <v>2.290000000000001</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BQ3" t="n">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="BR3" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -1336,21 +1325,18 @@
         <v>15.19408551068887</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.6</v>
+        <v>24</v>
       </c>
       <c r="BN4" t="n">
-        <v>24</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.3100000000000005</v>
+        <v>0.7000000000000011</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.7000000000000011</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR4" t="n">
         <v>-7.109999999999999</v>
       </c>
     </row>
@@ -1548,21 +1534,18 @@
         <v>20.83399049881238</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.6</v>
+        <v>17.7</v>
       </c>
       <c r="BN5" t="n">
-        <v>17.7</v>
+        <v>0.5</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="BP5" t="n">
-        <v>2</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ5" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR5" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -1760,21 +1743,18 @@
         <v>17.53375296912115</v>
       </c>
       <c r="BM6" t="n">
-        <v>2.1</v>
+        <v>20.96666666666667</v>
       </c>
       <c r="BN6" t="n">
-        <v>20.96666666666667</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.7999999999999989</v>
+        <v>-3.31</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="BR6" t="n">
         <v>-3.210000000000001</v>
       </c>
     </row>
@@ -1972,21 +1952,18 @@
         <v>20.81805225653211</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.7666666666666667</v>
+        <v>18.53333333333333</v>
       </c>
       <c r="BN7" t="n">
-        <v>18.53333333333333</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.1899999999999995</v>
+        <v>1.59</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.59</v>
+        <v>-4</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BR7" t="n">
         <v>3.199999999999999</v>
       </c>
     </row>
@@ -2184,21 +2161,18 @@
         <v>21.96491686460811</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.5333333333333333</v>
+        <v>11.01666666666667</v>
       </c>
       <c r="BN8" t="n">
-        <v>11.01666666666667</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.2900000000000009</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BP8" t="n">
-        <v>2.109999999999999</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR8" t="n">
         <v>2.789999999999999</v>
       </c>
     </row>
@@ -2396,21 +2370,18 @@
         <v>14.49700712589077</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>23.18333333333333</v>
       </c>
       <c r="BN9" t="n">
-        <v>23.18333333333333</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.1999999999999993</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-3.609999999999999</v>
-      </c>
-      <c r="BR9" t="n">
         <v>-9.300000000000001</v>
       </c>
     </row>
@@ -2608,21 +2579,18 @@
         <v>16.63491686460807</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.8</v>
+        <v>24</v>
       </c>
       <c r="BN10" t="n">
-        <v>24</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.2000000000000011</v>
+        <v>1.09</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.09</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="BR10" t="n">
         <v>-7.210000000000001</v>
       </c>
     </row>
@@ -2820,21 +2788,18 @@
         <v>17.95327790973877</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.333333333333333</v>
+        <v>21.53333333333333</v>
       </c>
       <c r="BN11" t="n">
-        <v>21.53333333333333</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.2900000000000009</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.390000000000001</v>
+        <v>-3.109999999999999</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-3.109999999999999</v>
-      </c>
-      <c r="BR11" t="n">
         <v>-1.899999999999999</v>
       </c>
     </row>
@@ -3032,21 +2997,18 @@
         <v>14.53809976247037</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.733333333333333</v>
+        <v>22.9</v>
       </c>
       <c r="BN12" t="n">
-        <v>22.9</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.2999999999999989</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR12" t="n">
         <v>-4.710000000000001</v>
       </c>
     </row>
@@ -3244,21 +3206,18 @@
         <v>17.67589073634207</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.55</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="BN13" t="n">
-        <v>19.66666666666667</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.2999999999999989</v>
+        <v>1</v>
       </c>
       <c r="BP13" t="n">
-        <v>1</v>
+        <v>-4.9</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="BR13" t="n">
         <v>-0.6099999999999994</v>
       </c>
     </row>
@@ -3456,21 +3415,18 @@
         <v>21.2686460807602</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.7666666666666667</v>
+        <v>9.716666666666667</v>
       </c>
       <c r="BN14" t="n">
-        <v>9.716666666666667</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.5899999999999999</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.3899999999999988</v>
+        <v>-3.9</v>
       </c>
       <c r="BQ14" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="BR14" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -3668,21 +3624,18 @@
         <v>22.27912114014253</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.7166666666666667</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="BN15" t="n">
-        <v>18.33333333333333</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.3000000000000007</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="BP15" t="n">
-        <v>2.609999999999999</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BQ15" t="n">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="BR15" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -3880,21 +3833,18 @@
         <v>21.54016627078391</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.416666666666667</v>
+        <v>20.9</v>
       </c>
       <c r="BN16" t="n">
-        <v>20.9</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.3100000000000005</v>
+        <v>2.5</v>
       </c>
       <c r="BP16" t="n">
-        <v>2.5</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ16" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR16" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -4092,21 +4042,18 @@
         <v>25.79729216152029</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.85</v>
+        <v>18.26666666666667</v>
       </c>
       <c r="BN17" t="n">
-        <v>18.26666666666667</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.3000000000000007</v>
+        <v>3.59</v>
       </c>
       <c r="BP17" t="n">
-        <v>3.59</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ17" t="n">
-        <v>-3.609999999999999</v>
-      </c>
-      <c r="BR17" t="n">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -4304,21 +4251,18 @@
         <v>15.140380952381</v>
       </c>
       <c r="BM18" t="n">
-        <v>0</v>
+        <v>23.98333333333333</v>
       </c>
       <c r="BN18" t="n">
-        <v>23.98333333333333</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.2999999999999989</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.4100000000000001</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ18" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR18" t="n">
         <v>-9</v>
       </c>
     </row>
@@ -4516,21 +4460,18 @@
         <v>22.046270783848</v>
       </c>
       <c r="BM19" t="n">
-        <v>1.9</v>
+        <v>23.38333333333333</v>
       </c>
       <c r="BN19" t="n">
-        <v>23.38333333333333</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.2099999999999991</v>
+        <v>3</v>
       </c>
       <c r="BP19" t="n">
-        <v>3</v>
+        <v>-3.31</v>
       </c>
       <c r="BQ19" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="BR19" t="n">
         <v>1.789999999999999</v>
       </c>
     </row>
@@ -4728,21 +4669,18 @@
         <v>21.00517814726844</v>
       </c>
       <c r="BM20" t="n">
-        <v>1.016666666666667</v>
+        <v>23.8</v>
       </c>
       <c r="BN20" t="n">
-        <v>23.8</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.3100000000000005</v>
+        <v>2.59</v>
       </c>
       <c r="BP20" t="n">
-        <v>2.59</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ20" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR20" t="n">
         <v>1.600000000000001</v>
       </c>
     </row>
@@ -4940,21 +4878,18 @@
         <v>18.6645605700713</v>
       </c>
       <c r="BM21" t="n">
-        <v>1.866666666666667</v>
+        <v>18.48333333333333</v>
       </c>
       <c r="BN21" t="n">
-        <v>18.48333333333333</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.3900000000000006</v>
+        <v>2</v>
       </c>
       <c r="BP21" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="BQ21" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BR21" t="n">
         <v>-2.899999999999999</v>
       </c>
     </row>
@@ -5152,21 +5087,18 @@
         <v>19.7196437054632</v>
       </c>
       <c r="BM22" t="n">
-        <v>1.383333333333333</v>
+        <v>18.53333333333333</v>
       </c>
       <c r="BN22" t="n">
-        <v>18.53333333333333</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BO22" t="n">
-        <v>0.3100000000000005</v>
+        <v>2.889999999999999</v>
       </c>
       <c r="BP22" t="n">
-        <v>2.889999999999999</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ22" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR22" t="n">
         <v>-2.109999999999999</v>
       </c>
     </row>
@@ -5364,21 +5296,18 @@
         <v>18.22441805225657</v>
       </c>
       <c r="BM23" t="n">
-        <v>3.2</v>
+        <v>19.43333333333333</v>
       </c>
       <c r="BN23" t="n">
-        <v>19.43333333333333</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO23" t="n">
-        <v>0.3000000000000007</v>
+        <v>2</v>
       </c>
       <c r="BP23" t="n">
-        <v>2</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ23" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR23" t="n">
         <v>-3.800000000000001</v>
       </c>
     </row>
@@ -5576,21 +5505,18 @@
         <v>17.39242280285038</v>
       </c>
       <c r="BM24" t="n">
-        <v>1.9</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="BN24" t="n">
-        <v>20.33333333333333</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO24" t="n">
-        <v>0.3000000000000007</v>
+        <v>1.41</v>
       </c>
       <c r="BP24" t="n">
-        <v>1.41</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ24" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR24" t="n">
         <v>-3.899999999999999</v>
       </c>
     </row>
@@ -5788,21 +5714,18 @@
         <v>19.20427553444185</v>
       </c>
       <c r="BM25" t="n">
-        <v>1.05</v>
+        <v>17</v>
       </c>
       <c r="BN25" t="n">
-        <v>17</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO25" t="n">
-        <v>0.2999999999999989</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="BP25" t="n">
-        <v>0.9000000000000004</v>
+        <v>-3.9</v>
       </c>
       <c r="BQ25" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="BR25" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -6000,21 +5923,18 @@
         <v>19.08026128266037</v>
       </c>
       <c r="BM26" t="n">
-        <v>0.6833333333333333</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="BN26" t="n">
-        <v>12.33333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BO26" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="BP26" t="n">
-        <v>1.5</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ26" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR26" t="n">
         <v>-1.800000000000001</v>
       </c>
     </row>
@@ -6212,21 +6132,18 @@
         <v>17.78817102137771</v>
       </c>
       <c r="BM27" t="n">
-        <v>1.733333333333333</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="BN27" t="n">
-        <v>10.83333333333333</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="BO27" t="n">
-        <v>0.09999999999999964</v>
+        <v>1.19</v>
       </c>
       <c r="BP27" t="n">
-        <v>1.19</v>
+        <v>-4</v>
       </c>
       <c r="BQ27" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BR27" t="n">
         <v>-1.5</v>
       </c>
     </row>
@@ -6424,21 +6341,18 @@
         <v>19.62042755344422</v>
       </c>
       <c r="BM28" t="n">
-        <v>1.033333333333333</v>
+        <v>6.2</v>
       </c>
       <c r="BN28" t="n">
-        <v>6.2</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="BO28" t="n">
-        <v>0.1899999999999995</v>
+        <v>1.610000000000001</v>
       </c>
       <c r="BP28" t="n">
-        <v>1.610000000000001</v>
+        <v>-4</v>
       </c>
       <c r="BQ28" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BR28" t="n">
         <v>-1.399999999999999</v>
       </c>
     </row>
@@ -6636,21 +6550,18 @@
         <v>17.6442280285036</v>
       </c>
       <c r="BM29" t="n">
-        <v>3.266666666666667</v>
+        <v>7.633333333333334</v>
       </c>
       <c r="BN29" t="n">
-        <v>7.633333333333334</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="BO29" t="n">
-        <v>0.5999999999999996</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BP29" t="n">
-        <v>1.390000000000001</v>
+        <v>-4</v>
       </c>
       <c r="BQ29" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BR29" t="n">
         <v>-3.5</v>
       </c>
     </row>
@@ -6848,21 +6759,18 @@
         <v>18.72467933491689</v>
       </c>
       <c r="BM30" t="n">
-        <v>2.166666666666667</v>
+        <v>17.28333333333333</v>
       </c>
       <c r="BN30" t="n">
-        <v>17.28333333333333</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO30" t="n">
-        <v>0.2999999999999989</v>
+        <v>2.5</v>
       </c>
       <c r="BP30" t="n">
-        <v>2.5</v>
+        <v>-4.4</v>
       </c>
       <c r="BQ30" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="BR30" t="n">
         <v>-2.609999999999999</v>
       </c>
     </row>
@@ -7060,21 +6968,18 @@
         <v>18.12332541567699</v>
       </c>
       <c r="BM31" t="n">
-        <v>2.6</v>
+        <v>17.5</v>
       </c>
       <c r="BN31" t="n">
-        <v>17.5</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO31" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BP31" t="n">
-        <v>0.9100000000000001</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ31" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR31" t="n">
         <v>-3</v>
       </c>
     </row>
@@ -7272,21 +7177,18 @@
         <v>19.60242280285038</v>
       </c>
       <c r="BM32" t="n">
-        <v>1.266666666666667</v>
+        <v>4.533333333333333</v>
       </c>
       <c r="BN32" t="n">
-        <v>4.533333333333333</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BO32" t="n">
-        <v>0.5899999999999999</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BP32" t="n">
-        <v>2.300000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ32" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR32" t="n">
         <v>-1.800000000000001</v>
       </c>
     </row>
@@ -7484,21 +7386,18 @@
         <v>22.64211401425181</v>
       </c>
       <c r="BM33" t="n">
-        <v>1.4</v>
+        <v>6.55</v>
       </c>
       <c r="BN33" t="n">
-        <v>6.55</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BO33" t="n">
-        <v>0.5899999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="BP33" t="n">
-        <v>3.5</v>
+        <v>-4.31</v>
       </c>
       <c r="BQ33" t="n">
-        <v>-4.31</v>
-      </c>
-      <c r="BR33" t="n">
         <v>2.390000000000001</v>
       </c>
     </row>
@@ -7696,21 +7595,18 @@
         <v>21.02256532066513</v>
       </c>
       <c r="BM34" t="n">
-        <v>0.8333333333333334</v>
+        <v>3.933333333333333</v>
       </c>
       <c r="BN34" t="n">
-        <v>3.933333333333333</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="BO34" t="n">
-        <v>0.7099999999999991</v>
+        <v>2.889999999999999</v>
       </c>
       <c r="BP34" t="n">
-        <v>2.889999999999999</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BQ34" t="n">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="BR34" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -7908,21 +7804,18 @@
         <v>21.98256532066507</v>
       </c>
       <c r="BM35" t="n">
-        <v>0.9666666666666667</v>
+        <v>1.983333333333333</v>
       </c>
       <c r="BN35" t="n">
-        <v>1.983333333333333</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BO35" t="n">
-        <v>0.4000000000000004</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BP35" t="n">
-        <v>1.890000000000001</v>
+        <v>-3.9</v>
       </c>
       <c r="BQ35" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="BR35" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8120,21 +8013,18 @@
         <v>22.85847980997626</v>
       </c>
       <c r="BM36" t="n">
-        <v>0.7333333333333333</v>
+        <v>2.65</v>
       </c>
       <c r="BN36" t="n">
-        <v>2.65</v>
+        <v>0.5</v>
       </c>
       <c r="BO36" t="n">
-        <v>0.5</v>
+        <v>3.210000000000001</v>
       </c>
       <c r="BP36" t="n">
-        <v>3.210000000000001</v>
+        <v>-4.31</v>
       </c>
       <c r="BQ36" t="n">
-        <v>-4.31</v>
-      </c>
-      <c r="BR36" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -8332,21 +8222,18 @@
         <v>22.98448931116395</v>
       </c>
       <c r="BM37" t="n">
-        <v>0.9166666666666666</v>
+        <v>3.783333333333333</v>
       </c>
       <c r="BN37" t="n">
-        <v>3.783333333333333</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO37" t="n">
-        <v>0.4100000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="BP37" t="n">
-        <v>4.5</v>
+        <v>-3.9</v>
       </c>
       <c r="BQ37" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="BR37" t="n">
         <v>2.289999999999999</v>
       </c>
     </row>
@@ -8544,21 +8431,18 @@
         <v>23.91109263657965</v>
       </c>
       <c r="BM38" t="n">
-        <v>0.95</v>
+        <v>14.9</v>
       </c>
       <c r="BN38" t="n">
-        <v>14.9</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BO38" t="n">
-        <v>0.6999999999999993</v>
+        <v>4.01</v>
       </c>
       <c r="BP38" t="n">
-        <v>4.01</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ38" t="n">
-        <v>-3.609999999999999</v>
-      </c>
-      <c r="BR38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8756,21 +8640,18 @@
         <v>22.45299287410929</v>
       </c>
       <c r="BM39" t="n">
-        <v>0.7666666666666667</v>
+        <v>16.81666666666667</v>
       </c>
       <c r="BN39" t="n">
-        <v>16.81666666666667</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO39" t="n">
-        <v>0.4100000000000001</v>
+        <v>3</v>
       </c>
       <c r="BP39" t="n">
-        <v>3</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BQ39" t="n">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="BR39" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8968,21 +8849,18 @@
         <v>21.30249406175775</v>
       </c>
       <c r="BM40" t="n">
-        <v>0.65</v>
+        <v>12.46666666666667</v>
       </c>
       <c r="BN40" t="n">
-        <v>12.46666666666667</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="BO40" t="n">
-        <v>0.3899999999999988</v>
+        <v>2.5</v>
       </c>
       <c r="BP40" t="n">
-        <v>2.5</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ40" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR40" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -9180,21 +9058,18 @@
         <v>18.26256532066512</v>
       </c>
       <c r="BM41" t="n">
-        <v>2.65</v>
+        <v>19.01666666666667</v>
       </c>
       <c r="BN41" t="n">
-        <v>19.01666666666667</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO41" t="n">
-        <v>0.3000000000000007</v>
+        <v>2</v>
       </c>
       <c r="BP41" t="n">
-        <v>2</v>
+        <v>-3.9</v>
       </c>
       <c r="BQ41" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="BR41" t="n">
         <v>-3.109999999999999</v>
       </c>
     </row>
@@ -9392,21 +9267,18 @@
         <v>25.29817102137778</v>
       </c>
       <c r="BM42" t="n">
-        <v>1.266666666666667</v>
+        <v>16.93333333333333</v>
       </c>
       <c r="BN42" t="n">
-        <v>16.93333333333333</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BO42" t="n">
-        <v>0.3100000000000005</v>
+        <v>4</v>
       </c>
       <c r="BP42" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="BQ42" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BR42" t="n">
         <v>4.289999999999999</v>
       </c>
     </row>
@@ -9604,21 +9476,18 @@
         <v>22.4433729216153</v>
       </c>
       <c r="BM43" t="n">
-        <v>1.333333333333333</v>
+        <v>19.53333333333333</v>
       </c>
       <c r="BN43" t="n">
-        <v>19.53333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BO43" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="BP43" t="n">
-        <v>2.9</v>
+        <v>-3.81</v>
       </c>
       <c r="BQ43" t="n">
-        <v>-3.81</v>
-      </c>
-      <c r="BR43" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -9816,21 +9685,18 @@
         <v>25.27543942992884</v>
       </c>
       <c r="BM44" t="n">
-        <v>0.6333333333333333</v>
+        <v>16.08333333333333</v>
       </c>
       <c r="BN44" t="n">
-        <v>16.08333333333333</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BO44" t="n">
-        <v>0.4000000000000004</v>
+        <v>3.109999999999999</v>
       </c>
       <c r="BP44" t="n">
-        <v>3.109999999999999</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ44" t="n">
-        <v>-3.609999999999999</v>
-      </c>
-      <c r="BR44" t="n">
         <v>4.890000000000001</v>
       </c>
     </row>
@@ -10028,21 +9894,18 @@
         <v>24.9895486935868</v>
       </c>
       <c r="BM45" t="n">
-        <v>1.166666666666667</v>
+        <v>8.683333333333334</v>
       </c>
       <c r="BN45" t="n">
-        <v>8.683333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="BO45" t="n">
-        <v>0.5</v>
+        <v>4.700000000000001</v>
       </c>
       <c r="BP45" t="n">
-        <v>4.700000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ45" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR45" t="n">
         <v>4.789999999999999</v>
       </c>
     </row>
@@ -10240,21 +10103,18 @@
         <v>25.5982897862234</v>
       </c>
       <c r="BM46" t="n">
-        <v>0.8166666666666667</v>
+        <v>14</v>
       </c>
       <c r="BN46" t="n">
-        <v>14</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO46" t="n">
-        <v>0.2999999999999989</v>
+        <v>2.489999999999998</v>
       </c>
       <c r="BP46" t="n">
-        <v>2.489999999999998</v>
+        <v>-3.9</v>
       </c>
       <c r="BQ46" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="BR46" t="n">
         <v>5.390000000000001</v>
       </c>
     </row>
@@ -10452,21 +10312,18 @@
         <v>21.93494061757724</v>
       </c>
       <c r="BM47" t="n">
-        <v>1.166666666666667</v>
+        <v>18.68333333333333</v>
       </c>
       <c r="BN47" t="n">
-        <v>18.68333333333333</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BO47" t="n">
-        <v>0.3900000000000006</v>
+        <v>3.489999999999998</v>
       </c>
       <c r="BP47" t="n">
-        <v>3.489999999999998</v>
+        <v>-4.109999999999999</v>
       </c>
       <c r="BQ47" t="n">
-        <v>-4.109999999999999</v>
-      </c>
-      <c r="BR47" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -10664,21 +10521,18 @@
         <v>24.11859857482195</v>
       </c>
       <c r="BM48" t="n">
-        <v>1.15</v>
+        <v>16.63333333333333</v>
       </c>
       <c r="BN48" t="n">
-        <v>16.63333333333333</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO48" t="n">
-        <v>0.2999999999999989</v>
+        <v>3.5</v>
       </c>
       <c r="BP48" t="n">
-        <v>3.5</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ48" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR48" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -10876,21 +10730,18 @@
         <v>22.31432304038013</v>
       </c>
       <c r="BM49" t="n">
-        <v>1.316666666666667</v>
+        <v>11.3</v>
       </c>
       <c r="BN49" t="n">
-        <v>11.3</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BO49" t="n">
-        <v>0.2900000000000009</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BP49" t="n">
-        <v>3.300000000000001</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ49" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR49" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -11088,21 +10939,18 @@
         <v>22.13114014251786</v>
       </c>
       <c r="BM50" t="n">
-        <v>1.233333333333333</v>
+        <v>14.63333333333333</v>
       </c>
       <c r="BN50" t="n">
-        <v>14.63333333333333</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO50" t="n">
-        <v>0.1999999999999993</v>
+        <v>3.5</v>
       </c>
       <c r="BP50" t="n">
-        <v>3.5</v>
+        <v>-4</v>
       </c>
       <c r="BQ50" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BR50" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -11300,21 +11148,18 @@
         <v>24.46567695962006</v>
       </c>
       <c r="BM51" t="n">
-        <v>0.85</v>
+        <v>6.95</v>
       </c>
       <c r="BN51" t="n">
-        <v>6.95</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO51" t="n">
-        <v>0.3000000000000007</v>
+        <v>4.210000000000001</v>
       </c>
       <c r="BP51" t="n">
-        <v>4.210000000000001</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ51" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR51" t="n">
         <v>2.890000000000001</v>
       </c>
     </row>
@@ -11512,21 +11357,18 @@
         <v>22.43035629453689</v>
       </c>
       <c r="BM52" t="n">
-        <v>1.666666666666667</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="BN52" t="n">
-        <v>20.33333333333333</v>
+        <v>1.290000000000001</v>
       </c>
       <c r="BO52" t="n">
-        <v>1.290000000000001</v>
+        <v>3.289999999999999</v>
       </c>
       <c r="BP52" t="n">
-        <v>3.289999999999999</v>
+        <v>-3.9</v>
       </c>
       <c r="BQ52" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="BR52" t="n">
         <v>0.6999999999999993</v>
       </c>
     </row>
@@ -11724,21 +11566,18 @@
         <v>22.79693586698345</v>
       </c>
       <c r="BM53" t="n">
-        <v>1.283333333333333</v>
+        <v>17.71666666666667</v>
       </c>
       <c r="BN53" t="n">
-        <v>17.71666666666667</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO53" t="n">
-        <v>0.2999999999999989</v>
+        <v>3.710000000000001</v>
       </c>
       <c r="BP53" t="n">
-        <v>3.710000000000001</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BQ53" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="BR53" t="n">
         <v>0.6000000000000014</v>
       </c>
     </row>
@@ -11936,21 +11775,18 @@
         <v>23.37363420427559</v>
       </c>
       <c r="BM54" t="n">
-        <v>0.6666666666666666</v>
+        <v>18.2</v>
       </c>
       <c r="BN54" t="n">
-        <v>18.2</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BO54" t="n">
-        <v>0.7999999999999989</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="BP54" t="n">
-        <v>5.199999999999999</v>
+        <v>-4</v>
       </c>
       <c r="BQ54" t="n">
-        <v>-4</v>
-      </c>
-      <c r="BR54" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -12148,21 +11984,18 @@
         <v>25.9292161520191</v>
       </c>
       <c r="BM55" t="n">
-        <v>1.3</v>
+        <v>14.65</v>
       </c>
       <c r="BN55" t="n">
-        <v>14.65</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO55" t="n">
-        <v>0.2999999999999989</v>
+        <v>5.1</v>
       </c>
       <c r="BP55" t="n">
-        <v>5.1</v>
+        <v>-3.9</v>
       </c>
       <c r="BQ55" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="BR55" t="n">
         <v>4.199999999999999</v>
       </c>
     </row>
@@ -12360,21 +12193,18 @@
         <v>23.54957244655591</v>
       </c>
       <c r="BM56" t="n">
-        <v>1.183333333333333</v>
+        <v>17.06666666666667</v>
       </c>
       <c r="BN56" t="n">
-        <v>17.06666666666667</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BO56" t="n">
-        <v>0.2000000000000011</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BP56" t="n">
-        <v>3.890000000000001</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ56" t="n">
-        <v>-3.609999999999999</v>
-      </c>
-      <c r="BR56" t="n">
         <v>4.789999999999999</v>
       </c>
     </row>
@@ -12572,21 +12402,18 @@
         <v>13.562602739726</v>
       </c>
       <c r="BM57" t="n">
-        <v>0</v>
+        <v>12.23333333333333</v>
       </c>
       <c r="BN57" t="n">
-        <v>12.23333333333333</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BO57" t="n">
-        <v>0.2000000000000011</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BP57" t="n">
-        <v>0.1999999999999993</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ57" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR57" t="n">
         <v>-9.300000000000001</v>
       </c>
     </row>
@@ -12784,21 +12611,18 @@
         <v>21.67686460807604</v>
       </c>
       <c r="BM58" t="n">
-        <v>0.8666666666666667</v>
+        <v>6.85</v>
       </c>
       <c r="BN58" t="n">
-        <v>6.85</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BO58" t="n">
-        <v>0.2099999999999991</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="BP58" t="n">
-        <v>2.899999999999999</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ58" t="n">
-        <v>-3.609999999999999</v>
-      </c>
-      <c r="BR58" t="n">
         <v>2.289999999999999</v>
       </c>
     </row>
@@ -12996,21 +12820,18 @@
         <v>24.74959619952504</v>
       </c>
       <c r="BM59" t="n">
-        <v>1.083333333333333</v>
+        <v>15.73333333333333</v>
       </c>
       <c r="BN59" t="n">
-        <v>15.73333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BO59" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="BP59" t="n">
-        <v>4.5</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ59" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR59" t="n">
         <v>2.789999999999999</v>
       </c>
     </row>
@@ -13208,21 +13029,18 @@
         <v>24.99820823244565</v>
       </c>
       <c r="BM60" t="n">
-        <v>1.3</v>
+        <v>13.15</v>
       </c>
       <c r="BN60" t="n">
-        <v>13.15</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BO60" t="n">
-        <v>0.2099999999999991</v>
+        <v>3.690000000000001</v>
       </c>
       <c r="BP60" t="n">
-        <v>3.690000000000001</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ60" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR60" t="n">
         <v>2.289999999999999</v>
       </c>
     </row>
@@ -13420,21 +13238,18 @@
         <v>23.86014251781479</v>
       </c>
       <c r="BM61" t="n">
-        <v>3.866666666666667</v>
+        <v>3.35</v>
       </c>
       <c r="BN61" t="n">
-        <v>3.35</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BO61" t="n">
-        <v>0.3100000000000005</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BP61" t="n">
-        <v>1.600000000000001</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="BQ61" t="n">
-        <v>-0.9000000000000004</v>
-      </c>
-      <c r="BR61" t="n">
         <v>1.600000000000001</v>
       </c>
     </row>
@@ -13632,21 +13447,18 @@
         <v>21.85895486935873</v>
       </c>
       <c r="BM62" t="n">
-        <v>4.416666666666667</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="BN62" t="n">
-        <v>7.816666666666666</v>
+        <v>1.1</v>
       </c>
       <c r="BO62" t="n">
-        <v>1.1</v>
+        <v>3.51</v>
       </c>
       <c r="BP62" t="n">
-        <v>3.51</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BQ62" t="n">
-        <v>-3.699999999999999</v>
-      </c>
-      <c r="BR62" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -13844,21 +13656,18 @@
         <v>24.74935866983381</v>
       </c>
       <c r="BM63" t="n">
-        <v>1.166666666666667</v>
+        <v>14.03333333333333</v>
       </c>
       <c r="BN63" t="n">
-        <v>14.03333333333333</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BO63" t="n">
-        <v>0.5899999999999999</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="BP63" t="n">
-        <v>4.109999999999999</v>
+        <v>-6.9</v>
       </c>
       <c r="BQ63" t="n">
-        <v>-6.9</v>
-      </c>
-      <c r="BR63" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -14056,21 +13865,18 @@
         <v>22.34866983372932</v>
       </c>
       <c r="BM64" t="n">
-        <v>1.5</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="BN64" t="n">
-        <v>8.833333333333334</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BO64" t="n">
-        <v>0.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="BP64" t="n">
-        <v>2.5</v>
+        <v>-4.4</v>
       </c>
       <c r="BQ64" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="BR64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14268,21 +14074,18 @@
         <v>20.67942992874113</v>
       </c>
       <c r="BM65" t="n">
-        <v>3.8</v>
+        <v>7.633333333333334</v>
       </c>
       <c r="BN65" t="n">
-        <v>7.633333333333334</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BO65" t="n">
-        <v>0.4000000000000004</v>
+        <v>4.01</v>
       </c>
       <c r="BP65" t="n">
-        <v>4.01</v>
+        <v>-4.9</v>
       </c>
       <c r="BQ65" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="BR65" t="n">
         <v>-1.300000000000001</v>
       </c>
     </row>
@@ -14480,21 +14283,18 @@
         <v>22.10187648456064</v>
       </c>
       <c r="BM66" t="n">
-        <v>1.133333333333333</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="BN66" t="n">
-        <v>9.699999999999999</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="BO66" t="n">
-        <v>0.08999999999999986</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="BP66" t="n">
-        <v>4.399999999999999</v>
+        <v>-5.199999999999999</v>
       </c>
       <c r="BQ66" t="n">
-        <v>-5.199999999999999</v>
-      </c>
-      <c r="BR66" t="n">
         <v>-0.3999999999999986</v>
       </c>
     </row>
@@ -14692,21 +14492,18 @@
         <v>23.38178147268419</v>
       </c>
       <c r="BM67" t="n">
-        <v>1.2</v>
+        <v>10.53333333333333</v>
       </c>
       <c r="BN67" t="n">
-        <v>10.53333333333333</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO67" t="n">
-        <v>0.2999999999999989</v>
+        <v>4.09</v>
       </c>
       <c r="BP67" t="n">
-        <v>4.09</v>
+        <v>-6.609999999999999</v>
       </c>
       <c r="BQ67" t="n">
-        <v>-6.609999999999999</v>
-      </c>
-      <c r="BR67" t="n">
         <v>1.789999999999999</v>
       </c>
     </row>
@@ -14904,21 +14701,18 @@
         <v>24.7471971496438</v>
       </c>
       <c r="BM68" t="n">
-        <v>1.45</v>
+        <v>8.133333333333333</v>
       </c>
       <c r="BN68" t="n">
-        <v>8.133333333333333</v>
+        <v>1.41</v>
       </c>
       <c r="BO68" t="n">
-        <v>1.41</v>
+        <v>4</v>
       </c>
       <c r="BP68" t="n">
-        <v>4</v>
+        <v>-5.609999999999999</v>
       </c>
       <c r="BQ68" t="n">
-        <v>-5.609999999999999</v>
-      </c>
-      <c r="BR68" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -15116,21 +14910,18 @@
         <v>24.26161520190031</v>
       </c>
       <c r="BM69" t="n">
-        <v>0.85</v>
+        <v>11.5</v>
       </c>
       <c r="BN69" t="n">
-        <v>11.5</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO69" t="n">
-        <v>0.4100000000000001</v>
+        <v>5.190000000000001</v>
       </c>
       <c r="BP69" t="n">
-        <v>5.190000000000001</v>
+        <v>-6.609999999999999</v>
       </c>
       <c r="BQ69" t="n">
-        <v>-6.609999999999999</v>
-      </c>
-      <c r="BR69" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -15328,21 +15119,18 @@
         <v>23.96384798099768</v>
       </c>
       <c r="BM70" t="n">
-        <v>2.533333333333333</v>
+        <v>3.65</v>
       </c>
       <c r="BN70" t="n">
-        <v>3.65</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="BO70" t="n">
-        <v>0.5999999999999996</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BP70" t="n">
-        <v>3.600000000000001</v>
+        <v>-5.5</v>
       </c>
       <c r="BQ70" t="n">
-        <v>-5.5</v>
-      </c>
-      <c r="BR70" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -15540,21 +15328,18 @@
         <v>24.83002439024395</v>
       </c>
       <c r="BM71" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="BN71" t="n">
-        <v>3.25</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BO71" t="n">
-        <v>0.8000000000000007</v>
+        <v>2.190000000000001</v>
       </c>
       <c r="BP71" t="n">
-        <v>2.190000000000001</v>
+        <v>-4.9</v>
       </c>
       <c r="BQ71" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="BR71" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -15752,21 +15537,18 @@
         <v>20.37199524940621</v>
       </c>
       <c r="BM72" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="BN72" t="n">
-        <v>0.6</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="BO72" t="n">
-        <v>0.2100000000000009</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BP72" t="n">
-        <v>1.789999999999999</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ72" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="BR72" t="n">
         <v>-1.710000000000001</v>
       </c>
     </row>
@@ -15964,21 +15746,18 @@
         <v>22.42066508313549</v>
       </c>
       <c r="BM73" t="n">
-        <v>1.35</v>
+        <v>1.483333333333333</v>
       </c>
       <c r="BN73" t="n">
-        <v>1.483333333333333</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="BO73" t="n">
-        <v>0.5999999999999996</v>
+        <v>3.309999999999999</v>
       </c>
       <c r="BP73" t="n">
-        <v>3.309999999999999</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BQ73" t="n">
-        <v>-3.609999999999999</v>
-      </c>
-      <c r="BR73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16176,21 +15955,18 @@
         <v>24.41092636579582</v>
       </c>
       <c r="BM74" t="n">
-        <v>1.1</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="BN74" t="n">
-        <v>5.733333333333333</v>
+        <v>0.8100000000000005</v>
       </c>
       <c r="BO74" t="n">
-        <v>0.8100000000000005</v>
+        <v>4.599999999999998</v>
       </c>
       <c r="BP74" t="n">
-        <v>4.599999999999998</v>
+        <v>-6.81</v>
       </c>
       <c r="BQ74" t="n">
-        <v>-6.81</v>
-      </c>
-      <c r="BR74" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -16388,21 +16164,18 @@
         <v>17.82952380952386</v>
       </c>
       <c r="BM75" t="n">
-        <v>2.533333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="BN75" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BO75" t="n">
-        <v>0.7999999999999989</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BP75" t="n">
-        <v>1.100000000000001</v>
+        <v>-5.609999999999999</v>
       </c>
       <c r="BQ75" t="n">
-        <v>-5.609999999999999</v>
-      </c>
-      <c r="BR75" t="n">
         <v>-5.399999999999999</v>
       </c>
     </row>
@@ -16600,21 +16373,18 @@
         <v>17.21356294536819</v>
       </c>
       <c r="BM76" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BN76" t="n">
-        <v>0</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="BO76" t="n">
-        <v>0.3899999999999988</v>
+        <v>1.389999999999999</v>
       </c>
       <c r="BP76" t="n">
-        <v>1.389999999999999</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BQ76" t="n">
-        <v>-2.609999999999999</v>
-      </c>
-      <c r="BR76" t="n">
         <v>-5.710000000000001</v>
       </c>
     </row>
@@ -16812,21 +16582,18 @@
         <v>20.37852731591455</v>
       </c>
       <c r="BM77" t="n">
-        <v>1.516666666666667</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="BN77" t="n">
-        <v>2.133333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BO77" t="n">
-        <v>0.5</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BP77" t="n">
-        <v>2.109999999999999</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ77" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR77" t="n">
         <v>-1</v>
       </c>
     </row>
@@ -17024,21 +16791,18 @@
         <v>16.24938242280286</v>
       </c>
       <c r="BM78" t="n">
-        <v>1.05</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="BN78" t="n">
-        <v>1.733333333333333</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BO78" t="n">
-        <v>0.5899999999999999</v>
+        <v>1.609999999999999</v>
       </c>
       <c r="BP78" t="n">
-        <v>1.609999999999999</v>
+        <v>-5.31</v>
       </c>
       <c r="BQ78" t="n">
-        <v>-5.31</v>
-      </c>
-      <c r="BR78" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -17236,21 +17000,18 @@
         <v>24.27185273159155</v>
       </c>
       <c r="BM79" t="n">
-        <v>1.05</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="BN79" t="n">
-        <v>6.583333333333333</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BO79" t="n">
-        <v>0.9100000000000001</v>
+        <v>4.910000000000002</v>
       </c>
       <c r="BP79" t="n">
-        <v>4.910000000000002</v>
+        <v>-6.31</v>
       </c>
       <c r="BQ79" t="n">
-        <v>-6.31</v>
-      </c>
-      <c r="BR79" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -17448,21 +17209,18 @@
         <v>21.1592874109264</v>
       </c>
       <c r="BM80" t="n">
-        <v>1.35</v>
+        <v>7.066666666666666</v>
       </c>
       <c r="BN80" t="n">
-        <v>7.066666666666666</v>
+        <v>1</v>
       </c>
       <c r="BO80" t="n">
-        <v>1</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="BP80" t="n">
-        <v>4.390000000000001</v>
+        <v>-7.609999999999999</v>
       </c>
       <c r="BQ80" t="n">
-        <v>-7.609999999999999</v>
-      </c>
-      <c r="BR80" t="n">
         <v>-0.8000000000000007</v>
       </c>
     </row>
@@ -17660,21 +17418,18 @@
         <v>23.26432304038012</v>
       </c>
       <c r="BM81" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="BN81" t="n">
-        <v>3.1</v>
+        <v>0.8100000000000005</v>
       </c>
       <c r="BO81" t="n">
-        <v>0.8100000000000005</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="BP81" t="n">
-        <v>4.899999999999999</v>
+        <v>-6.31</v>
       </c>
       <c r="BQ81" t="n">
-        <v>-6.31</v>
-      </c>
-      <c r="BR81" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -17872,21 +17627,18 @@
         <v>22.85802850356303</v>
       </c>
       <c r="BM82" t="n">
-        <v>1.283333333333333</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="BN82" t="n">
-        <v>1.066666666666667</v>
+        <v>0.6100000000000012</v>
       </c>
       <c r="BO82" t="n">
-        <v>0.6100000000000012</v>
+        <v>4.710000000000001</v>
       </c>
       <c r="BP82" t="n">
-        <v>4.710000000000001</v>
+        <v>-3.31</v>
       </c>
       <c r="BQ82" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="BR82" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -18084,21 +17836,18 @@
         <v>24.06704326923084</v>
       </c>
       <c r="BM83" t="n">
-        <v>1.983333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="BN83" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="BO83" t="n">
-        <v>0.5</v>
+        <v>5.09</v>
       </c>
       <c r="BP83" t="n">
-        <v>5.09</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BQ83" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="BR83" t="n">
         <v>0.7899999999999991</v>
       </c>
     </row>
@@ -18296,21 +18045,18 @@
         <v>24.87546318289795</v>
       </c>
       <c r="BM84" t="n">
-        <v>2</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="BN84" t="n">
-        <v>2.666666666666667</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BO84" t="n">
-        <v>0.6999999999999993</v>
+        <v>4.289999999999999</v>
       </c>
       <c r="BP84" t="n">
-        <v>4.289999999999999</v>
+        <v>-4.699999999999999</v>
       </c>
       <c r="BQ84" t="n">
-        <v>-4.699999999999999</v>
-      </c>
-      <c r="BR84" t="n">
         <v>2.390000000000001</v>
       </c>
     </row>
@@ -18508,21 +18254,18 @@
         <v>26.04232779097399</v>
       </c>
       <c r="BM85" t="n">
-        <v>2.316666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="BN85" t="n">
-        <v>1.833333333333333</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BO85" t="n">
-        <v>0.8000000000000007</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="BP85" t="n">
-        <v>4.390000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ85" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR85" t="n">
         <v>2.890000000000001</v>
       </c>
     </row>
@@ -18720,21 +18463,18 @@
         <v>25.54672209026139</v>
       </c>
       <c r="BM86" t="n">
-        <v>3.283333333333333</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="BN86" t="n">
-        <v>3.216666666666667</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO86" t="n">
-        <v>0.3999999999999986</v>
+        <v>3.210000000000001</v>
       </c>
       <c r="BP86" t="n">
-        <v>3.210000000000001</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ86" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="BR86" t="n">
         <v>1.789999999999999</v>
       </c>
     </row>
@@ -18932,21 +18672,18 @@
         <v>26.49028503562956</v>
       </c>
       <c r="BM87" t="n">
-        <v>2.65</v>
+        <v>1.516666666666667</v>
       </c>
       <c r="BN87" t="n">
-        <v>1.516666666666667</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BO87" t="n">
-        <v>1.199999999999999</v>
+        <v>3.809999999999999</v>
       </c>
       <c r="BP87" t="n">
-        <v>3.809999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ87" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR87" t="n">
         <v>3.390000000000001</v>
       </c>
     </row>
@@ -19144,21 +18881,18 @@
         <v>25.39874109263666</v>
       </c>
       <c r="BM88" t="n">
-        <v>3.383333333333333</v>
+        <v>1.783333333333333</v>
       </c>
       <c r="BN88" t="n">
-        <v>1.783333333333333</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BO88" t="n">
-        <v>0.9100000000000001</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="BP88" t="n">
-        <v>3.800000000000001</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BQ88" t="n">
-        <v>-1.609999999999999</v>
-      </c>
-      <c r="BR88" t="n">
         <v>1.199999999999999</v>
       </c>
     </row>
@@ -19356,21 +19090,18 @@
         <v>25.41465558194783</v>
       </c>
       <c r="BM89" t="n">
-        <v>4.366666666666666</v>
+        <v>2.1</v>
       </c>
       <c r="BN89" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="BO89" t="n">
-        <v>1.01</v>
+        <v>2.900000000000002</v>
       </c>
       <c r="BP89" t="n">
-        <v>2.900000000000002</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BQ89" t="n">
-        <v>-0.8100000000000005</v>
-      </c>
-      <c r="BR89" t="n">
         <v>2.699999999999999</v>
       </c>
     </row>
@@ -19568,21 +19299,18 @@
         <v>26.64353919239916</v>
       </c>
       <c r="BM90" t="n">
-        <v>2.966666666666667</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="BN90" t="n">
-        <v>2.633333333333333</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="BO90" t="n">
-        <v>0.5999999999999979</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="BP90" t="n">
-        <v>4.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="BQ90" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR90" t="n">
         <v>2.890000000000001</v>
       </c>
     </row>
@@ -19780,21 +19508,18 @@
         <v>26.22133016627088</v>
       </c>
       <c r="BM91" t="n">
-        <v>1.933333333333333</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="BN91" t="n">
-        <v>2.583333333333333</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="BO91" t="n">
-        <v>0.3100000000000023</v>
+        <v>3.189999999999998</v>
       </c>
       <c r="BP91" t="n">
-        <v>3.189999999999998</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BQ91" t="n">
-        <v>1.289999999999999</v>
-      </c>
-      <c r="BR91" t="n">
         <v>2.890000000000001</v>
       </c>
     </row>
@@ -19992,21 +19717,18 @@
         <v>23.83142517814739</v>
       </c>
       <c r="BM92" t="n">
-        <v>13.43333333333333</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="BN92" t="n">
-        <v>2.433333333333333</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="BO92" t="n">
-        <v>0.6899999999999977</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BP92" t="n">
-        <v>1.399999999999999</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BQ92" t="n">
-        <v>1.289999999999999</v>
-      </c>
-      <c r="BR92" t="n">
         <v>1.699999999999999</v>
       </c>
     </row>
@@ -20207,18 +19929,15 @@
         <v>0</v>
       </c>
       <c r="BN93" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO93" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="BP93" t="n">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="BQ93" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BR93" t="n">
         <v>-8.399999999999999</v>
       </c>
     </row>
@@ -20416,21 +20135,18 @@
         <v>23.61484560570079</v>
       </c>
       <c r="BM94" t="n">
-        <v>1.383333333333333</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="BN94" t="n">
-        <v>2.966666666666667</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BO94" t="n">
-        <v>0.2900000000000009</v>
+        <v>1.309999999999999</v>
       </c>
       <c r="BP94" t="n">
-        <v>1.309999999999999</v>
+        <v>-1.4</v>
       </c>
       <c r="BQ94" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="BR94" t="n">
         <v>3.5</v>
       </c>
     </row>
@@ -20628,21 +20344,18 @@
         <v>26.83731591448939</v>
       </c>
       <c r="BM95" t="n">
-        <v>1.933333333333333</v>
+        <v>2.55</v>
       </c>
       <c r="BN95" t="n">
-        <v>2.55</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BO95" t="n">
-        <v>0.5899999999999999</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BP95" t="n">
-        <v>5.100000000000001</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BQ95" t="n">
-        <v>-3.199999999999999</v>
-      </c>
-      <c r="BR95" t="n">
         <v>7.200000000000003</v>
       </c>
     </row>
@@ -20840,21 +20553,18 @@
         <v>25.73323040380057</v>
       </c>
       <c r="BM96" t="n">
-        <v>4.033333333333333</v>
+        <v>4.5</v>
       </c>
       <c r="BN96" t="n">
-        <v>4.5</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BO96" t="n">
-        <v>0.9100000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="BP96" t="n">
-        <v>2.5</v>
+        <v>-5.31</v>
       </c>
       <c r="BQ96" t="n">
-        <v>-5.31</v>
-      </c>
-      <c r="BR96" t="n">
         <v>3.100000000000001</v>
       </c>
     </row>
@@ -21052,21 +20762,18 @@
         <v>27.35900237529706</v>
       </c>
       <c r="BM97" t="n">
-        <v>2.7</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="BN97" t="n">
-        <v>1.616666666666667</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="BO97" t="n">
-        <v>0.9000000000000004</v>
+        <v>4.310000000000002</v>
       </c>
       <c r="BP97" t="n">
-        <v>4.310000000000002</v>
+        <v>-3.4</v>
       </c>
       <c r="BQ97" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="BR97" t="n">
         <v>5.289999999999999</v>
       </c>
     </row>
@@ -21264,21 +20971,18 @@
         <v>26.77114014251791</v>
       </c>
       <c r="BM98" t="n">
-        <v>0.7666666666666667</v>
+        <v>1.4</v>
       </c>
       <c r="BN98" t="n">
-        <v>1.4</v>
+        <v>0.7000000000000011</v>
       </c>
       <c r="BO98" t="n">
-        <v>0.7000000000000011</v>
+        <v>2</v>
       </c>
       <c r="BP98" t="n">
-        <v>2</v>
+        <v>-3.31</v>
       </c>
       <c r="BQ98" t="n">
-        <v>-3.31</v>
-      </c>
-      <c r="BR98" t="n">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -21476,21 +21180,18 @@
         <v>26.73745843230411</v>
       </c>
       <c r="BM99" t="n">
-        <v>6.9</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="BN99" t="n">
-        <v>2.433333333333333</v>
+        <v>1.400000000000002</v>
       </c>
       <c r="BO99" t="n">
-        <v>1.400000000000002</v>
+        <v>4.609999999999999</v>
       </c>
       <c r="BP99" t="n">
-        <v>4.609999999999999</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BQ99" t="n">
-        <v>0.8900000000000006</v>
-      </c>
-      <c r="BR99" t="n">
         <v>4.600000000000001</v>
       </c>
     </row>
@@ -21688,21 +21389,18 @@
         <v>26.63135391924001</v>
       </c>
       <c r="BM100" t="n">
-        <v>1.866666666666667</v>
+        <v>1.816666666666667</v>
       </c>
       <c r="BN100" t="n">
-        <v>1.816666666666667</v>
+        <v>1</v>
       </c>
       <c r="BO100" t="n">
-        <v>1</v>
+        <v>5.210000000000001</v>
       </c>
       <c r="BP100" t="n">
-        <v>5.210000000000001</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BQ100" t="n">
-        <v>-2.609999999999999</v>
-      </c>
-      <c r="BR100" t="n">
         <v>3.390000000000001</v>
       </c>
     </row>
@@ -21900,21 +21598,18 @@
         <v>23.50463182897872</v>
       </c>
       <c r="BM101" t="n">
-        <v>4.283333333333333</v>
+        <v>4.216666666666667</v>
       </c>
       <c r="BN101" t="n">
-        <v>4.216666666666667</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BO101" t="n">
-        <v>0.7999999999999989</v>
+        <v>1.809999999999999</v>
       </c>
       <c r="BP101" t="n">
-        <v>1.809999999999999</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="BQ101" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="BR101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -22112,21 +21807,18 @@
         <v>17.86629453681712</v>
       </c>
       <c r="BM102" t="n">
-        <v>3.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN102" t="n">
-        <v>0</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="BO102" t="n">
-        <v>0.6099999999999994</v>
+        <v>0.4000000000000021</v>
       </c>
       <c r="BP102" t="n">
-        <v>0.4000000000000021</v>
+        <v>-1.81</v>
       </c>
       <c r="BQ102" t="n">
-        <v>-1.81</v>
-      </c>
-      <c r="BR102" t="n">
         <v>-6.109999999999999</v>
       </c>
     </row>
@@ -22324,21 +22016,18 @@
         <v>23.2098095238096</v>
       </c>
       <c r="BM103" t="n">
-        <v>2.25</v>
+        <v>2.816666666666667</v>
       </c>
       <c r="BN103" t="n">
-        <v>2.816666666666667</v>
+        <v>0.6899999999999995</v>
       </c>
       <c r="BO103" t="n">
-        <v>0.6899999999999995</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="BP103" t="n">
-        <v>3.699999999999999</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ103" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR103" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -22536,21 +22225,18 @@
         <v>24.35090261282666</v>
       </c>
       <c r="BM104" t="n">
-        <v>3.216666666666667</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="BN104" t="n">
-        <v>1.416666666666667</v>
+        <v>1.1</v>
       </c>
       <c r="BO104" t="n">
-        <v>1.1</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="BP104" t="n">
-        <v>4.100000000000001</v>
+        <v>-4.109999999999999</v>
       </c>
       <c r="BQ104" t="n">
-        <v>-4.109999999999999</v>
-      </c>
-      <c r="BR104" t="n">
         <v>3</v>
       </c>
     </row>
@@ -22748,21 +22434,18 @@
         <v>23.73171428571441</v>
       </c>
       <c r="BM105" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="BN105" t="n">
-        <v>2.05</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BO105" t="n">
-        <v>0.8000000000000007</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="BP105" t="n">
-        <v>2.800000000000001</v>
+        <v>-2</v>
       </c>
       <c r="BQ105" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BR105" t="n">
         <v>1.600000000000001</v>
       </c>
     </row>
@@ -22960,21 +22643,18 @@
         <v>23.02916864608082</v>
       </c>
       <c r="BM106" t="n">
-        <v>3.066666666666667</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="BN106" t="n">
-        <v>1.583333333333333</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BO106" t="n">
-        <v>0.8000000000000007</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="BP106" t="n">
-        <v>4.100000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ106" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="BR106" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -23172,21 +22852,18 @@
         <v>24.27308788598585</v>
       </c>
       <c r="BM107" t="n">
-        <v>2.566666666666667</v>
+        <v>1.383333333333333</v>
       </c>
       <c r="BN107" t="n">
-        <v>1.383333333333333</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BO107" t="n">
-        <v>0.7999999999999989</v>
+        <v>3</v>
       </c>
       <c r="BP107" t="n">
-        <v>3</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BQ107" t="n">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="BR107" t="n">
         <v>0.1999999999999993</v>
       </c>
     </row>
@@ -23384,21 +23061,18 @@
         <v>28.57546318289799</v>
       </c>
       <c r="BM108" t="n">
-        <v>3.383333333333333</v>
+        <v>1.483333333333333</v>
       </c>
       <c r="BN108" t="n">
-        <v>1.483333333333333</v>
+        <v>1.1</v>
       </c>
       <c r="BO108" t="n">
-        <v>1.1</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BP108" t="n">
-        <v>3.300000000000001</v>
+        <v>-2</v>
       </c>
       <c r="BQ108" t="n">
-        <v>-2</v>
-      </c>
-      <c r="BR108" t="n">
         <v>6.590000000000003</v>
       </c>
     </row>
@@ -23596,21 +23270,18 @@
         <v>26.97296912114025</v>
       </c>
       <c r="BM109" t="n">
-        <v>2.766666666666667</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="BN109" t="n">
-        <v>1.666666666666667</v>
+        <v>1.31</v>
       </c>
       <c r="BO109" t="n">
-        <v>1.31</v>
+        <v>0.8099999999999987</v>
       </c>
       <c r="BP109" t="n">
-        <v>0.8099999999999987</v>
+        <v>-1.31</v>
       </c>
       <c r="BQ109" t="n">
-        <v>-1.31</v>
-      </c>
-      <c r="BR109" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -23808,21 +23479,18 @@
         <v>23.23923990498816</v>
       </c>
       <c r="BM110" t="n">
-        <v>10.85</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="BN110" t="n">
-        <v>2.866666666666667</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BO110" t="n">
-        <v>0.2899999999999991</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="BP110" t="n">
-        <v>0.8999999999999986</v>
+        <v>2</v>
       </c>
       <c r="BQ110" t="n">
-        <v>2</v>
-      </c>
-      <c r="BR110" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -24020,21 +23688,18 @@
         <v>17.05397619047621</v>
       </c>
       <c r="BM111" t="n">
-        <v>6.55</v>
+        <v>0</v>
       </c>
       <c r="BN111" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO111" t="n">
-        <v>0.5</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BP111" t="n">
-        <v>1.199999999999999</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BQ111" t="n">
-        <v>-0.4000000000000004</v>
-      </c>
-      <c r="BR111" t="n">
         <v>-6.109999999999999</v>
       </c>
     </row>
@@ -24232,21 +23897,18 @@
         <v>22.50878859857489</v>
       </c>
       <c r="BM112" t="n">
-        <v>4.483333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN112" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BO112" t="n">
-        <v>0.5</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BP112" t="n">
-        <v>1.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="BQ112" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR112" t="n">
         <v>-2.300000000000001</v>
       </c>
     </row>
@@ -24444,21 +24106,18 @@
         <v>24.72206650831358</v>
       </c>
       <c r="BM113" t="n">
-        <v>2.816666666666667</v>
+        <v>1.216666666666667</v>
       </c>
       <c r="BN113" t="n">
-        <v>1.216666666666667</v>
+        <v>2</v>
       </c>
       <c r="BO113" t="n">
-        <v>2</v>
+        <v>3.810000000000002</v>
       </c>
       <c r="BP113" t="n">
-        <v>3.810000000000002</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BQ113" t="n">
-        <v>-4.199999999999999</v>
-      </c>
-      <c r="BR113" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -24656,21 +24315,18 @@
         <v>24.71456057007134</v>
       </c>
       <c r="BM114" t="n">
-        <v>2.733333333333333</v>
+        <v>1.883333333333333</v>
       </c>
       <c r="BN114" t="n">
-        <v>1.883333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="BO114" t="n">
-        <v>1.4</v>
+        <v>4.099999999999998</v>
       </c>
       <c r="BP114" t="n">
-        <v>4.099999999999998</v>
+        <v>-2.4</v>
       </c>
       <c r="BQ114" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="BR114" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -24868,21 +24524,18 @@
         <v>24.53779097387179</v>
       </c>
       <c r="BM115" t="n">
-        <v>2.65</v>
+        <v>1.483333333333333</v>
       </c>
       <c r="BN115" t="n">
-        <v>1.483333333333333</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BO115" t="n">
-        <v>1.199999999999999</v>
+        <v>3.210000000000001</v>
       </c>
       <c r="BP115" t="n">
-        <v>3.210000000000001</v>
+        <v>-2.199999999999999</v>
       </c>
       <c r="BQ115" t="n">
-        <v>-2.199999999999999</v>
-      </c>
-      <c r="BR115" t="n">
         <v>1.199999999999999</v>
       </c>
     </row>
@@ -25080,21 +24733,18 @@
         <v>24.42517814726847</v>
       </c>
       <c r="BM116" t="n">
-        <v>2.583333333333333</v>
+        <v>1.716666666666667</v>
       </c>
       <c r="BN116" t="n">
-        <v>1.716666666666667</v>
+        <v>1</v>
       </c>
       <c r="BO116" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="BP116" t="n">
-        <v>3.5</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BQ116" t="n">
-        <v>-1.609999999999999</v>
-      </c>
-      <c r="BR116" t="n">
         <v>0.8900000000000006</v>
       </c>
     </row>
@@ -25292,21 +24942,18 @@
         <v>26.56057007125901</v>
       </c>
       <c r="BM117" t="n">
-        <v>2.283333333333333</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="BN117" t="n">
-        <v>0.9833333333333333</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="BO117" t="n">
-        <v>2.200000000000001</v>
+        <v>2</v>
       </c>
       <c r="BP117" t="n">
-        <v>2</v>
+        <v>-4.31</v>
       </c>
       <c r="BQ117" t="n">
-        <v>-4.31</v>
-      </c>
-      <c r="BR117" t="n">
         <v>3.890000000000001</v>
       </c>
     </row>
@@ -25504,21 +25151,18 @@
         <v>26.32826603325424</v>
       </c>
       <c r="BM118" t="n">
-        <v>0.75</v>
+        <v>7.716666666666667</v>
       </c>
       <c r="BN118" t="n">
-        <v>7.716666666666667</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BO118" t="n">
-        <v>0.6000000000000014</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="BP118" t="n">
-        <v>3.199999999999999</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BQ118" t="n">
-        <v>1.100000000000001</v>
-      </c>
-      <c r="BR118" t="n">
         <v>2.789999999999999</v>
       </c>
     </row>
@@ -25716,21 +25360,18 @@
         <v>26.09878859857488</v>
       </c>
       <c r="BM119" t="n">
-        <v>3.583333333333333</v>
+        <v>8.983333333333333</v>
       </c>
       <c r="BN119" t="n">
-        <v>8.983333333333333</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO119" t="n">
-        <v>1.390000000000001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BP119" t="n">
-        <v>2.600000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="BQ119" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BR119" t="n">
         <v>2.100000000000001</v>
       </c>
     </row>
@@ -25928,21 +25569,18 @@
         <v>23.71752969121147</v>
       </c>
       <c r="BM120" t="n">
-        <v>9.183333333333334</v>
+        <v>3.716666666666667</v>
       </c>
       <c r="BN120" t="n">
-        <v>3.716666666666667</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="BO120" t="n">
-        <v>0.2100000000000009</v>
+        <v>4</v>
       </c>
       <c r="BP120" t="n">
-        <v>4</v>
+        <v>-1.4</v>
       </c>
       <c r="BQ120" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="BR120" t="n">
         <v>0.3900000000000006</v>
       </c>
     </row>
@@ -26140,21 +25778,18 @@
         <v>22.22235154394305</v>
       </c>
       <c r="BM121" t="n">
-        <v>4.166666666666667</v>
+        <v>1.216666666666667</v>
       </c>
       <c r="BN121" t="n">
-        <v>1.216666666666667</v>
+        <v>3.299999999999999</v>
       </c>
       <c r="BO121" t="n">
-        <v>3.299999999999999</v>
+        <v>4.41</v>
       </c>
       <c r="BP121" t="n">
-        <v>4.41</v>
+        <v>-4.609999999999999</v>
       </c>
       <c r="BQ121" t="n">
-        <v>-4.609999999999999</v>
-      </c>
-      <c r="BR121" t="n">
         <v>-0.3999999999999986</v>
       </c>
     </row>
@@ -26352,21 +25987,18 @@
         <v>24.08902612826611</v>
       </c>
       <c r="BM122" t="n">
-        <v>2.616666666666667</v>
+        <v>1.05</v>
       </c>
       <c r="BN122" t="n">
-        <v>1.05</v>
+        <v>1.489999999999998</v>
       </c>
       <c r="BO122" t="n">
-        <v>1.489999999999998</v>
+        <v>4.190000000000001</v>
       </c>
       <c r="BP122" t="n">
-        <v>4.190000000000001</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="BQ122" t="n">
-        <v>-0.1999999999999993</v>
-      </c>
-      <c r="BR122" t="n">
         <v>2</v>
       </c>
     </row>
@@ -26564,21 +26196,18 @@
         <v>24.67033412887835</v>
       </c>
       <c r="BM123" t="n">
-        <v>3.6</v>
+        <v>5.55</v>
       </c>
       <c r="BN123" t="n">
-        <v>5.55</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO123" t="n">
-        <v>2.109999999999999</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="BP123" t="n">
-        <v>2.599999999999998</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BQ123" t="n">
-        <v>-2.609999999999999</v>
-      </c>
-      <c r="BR123" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -26776,21 +26405,18 @@
         <v>21.09101204819284</v>
       </c>
       <c r="BM124" t="n">
-        <v>15.21666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN124" t="n">
-        <v>0</v>
+        <v>0.4000000000000021</v>
       </c>
       <c r="BO124" t="n">
-        <v>0.4000000000000021</v>
+        <v>1.210000000000001</v>
       </c>
       <c r="BP124" t="n">
-        <v>1.210000000000001</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BQ124" t="n">
-        <v>1.600000000000001</v>
-      </c>
-      <c r="BR124" t="n">
         <v>-3.899999999999999</v>
       </c>
     </row>
@@ -26988,21 +26614,18 @@
         <v>23.42313397129191</v>
       </c>
       <c r="BM125" t="n">
-        <v>8.433333333333334</v>
+        <v>6.316666666666666</v>
       </c>
       <c r="BN125" t="n">
-        <v>6.316666666666666</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO125" t="n">
-        <v>0.1999999999999993</v>
+        <v>3.91</v>
       </c>
       <c r="BP125" t="n">
-        <v>3.91</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BQ125" t="n">
-        <v>0.7899999999999991</v>
-      </c>
-      <c r="BR125" t="n">
         <v>-1.210000000000001</v>
       </c>
     </row>
@@ -27200,21 +26823,18 @@
         <v>25.31299516908222</v>
       </c>
       <c r="BM126" t="n">
-        <v>3.166666666666667</v>
+        <v>2.95</v>
       </c>
       <c r="BN126" t="n">
-        <v>2.95</v>
+        <v>1.189999999999998</v>
       </c>
       <c r="BO126" t="n">
-        <v>1.189999999999998</v>
+        <v>3.599999999999998</v>
       </c>
       <c r="BP126" t="n">
-        <v>3.599999999999998</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BQ126" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="BR126" t="n">
         <v>3</v>
       </c>
     </row>
@@ -27412,21 +27032,18 @@
         <v>24.89394230769245</v>
       </c>
       <c r="BM127" t="n">
-        <v>4.366666666666666</v>
+        <v>2.383333333333333</v>
       </c>
       <c r="BN127" t="n">
-        <v>2.383333333333333</v>
+        <v>1.609999999999999</v>
       </c>
       <c r="BO127" t="n">
-        <v>1.609999999999999</v>
+        <v>3.400000000000002</v>
       </c>
       <c r="BP127" t="n">
-        <v>3.400000000000002</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ127" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR127" t="n">
         <v>2.199999999999999</v>
       </c>
     </row>
@@ -27624,21 +27241,18 @@
         <v>24.55325415676967</v>
       </c>
       <c r="BM128" t="n">
-        <v>3.433333333333333</v>
+        <v>3.6</v>
       </c>
       <c r="BN128" t="n">
-        <v>3.6</v>
+        <v>0.8100000000000023</v>
       </c>
       <c r="BO128" t="n">
-        <v>0.8100000000000023</v>
+        <v>3</v>
       </c>
       <c r="BP128" t="n">
-        <v>3</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BQ128" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="BR128" t="n">
         <v>1.199999999999999</v>
       </c>
     </row>
@@ -27836,21 +27450,18 @@
         <v>25.11846889952161</v>
       </c>
       <c r="BM129" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BN129" t="n">
-        <v>2.55</v>
+        <v>0.4000000000000021</v>
       </c>
       <c r="BO129" t="n">
-        <v>0.4000000000000021</v>
+        <v>3</v>
       </c>
       <c r="BP129" t="n">
-        <v>3</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BQ129" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="BR129" t="n">
         <v>1.890000000000001</v>
       </c>
     </row>
@@ -28048,21 +27659,18 @@
         <v>20.2004285714286</v>
       </c>
       <c r="BM130" t="n">
-        <v>7.933333333333334</v>
+        <v>0</v>
       </c>
       <c r="BN130" t="n">
-        <v>0</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BO130" t="n">
-        <v>1.399999999999999</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BP130" t="n">
-        <v>0.8000000000000007</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ130" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR130" t="n">
         <v>-2.800000000000001</v>
       </c>
     </row>
@@ -28260,21 +27868,18 @@
         <v>23.76332541567703</v>
       </c>
       <c r="BM131" t="n">
-        <v>4.633333333333334</v>
+        <v>7.866666666666666</v>
       </c>
       <c r="BN131" t="n">
-        <v>7.866666666666666</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO131" t="n">
-        <v>1.390000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="BP131" t="n">
-        <v>3.5</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BQ131" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="BR131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28472,21 +28077,18 @@
         <v>27.78869047619061</v>
       </c>
       <c r="BM132" t="n">
-        <v>3.733333333333333</v>
+        <v>4.233333333333333</v>
       </c>
       <c r="BN132" t="n">
-        <v>4.233333333333333</v>
+        <v>1.609999999999999</v>
       </c>
       <c r="BO132" t="n">
-        <v>1.609999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="BP132" t="n">
-        <v>4.5</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BQ132" t="n">
-        <v>-0.6999999999999993</v>
-      </c>
-      <c r="BR132" t="n">
         <v>4.789999999999999</v>
       </c>
     </row>
@@ -28684,21 +28286,18 @@
         <v>28.33212871287135</v>
       </c>
       <c r="BM133" t="n">
-        <v>0.7666666666666667</v>
+        <v>4.3</v>
       </c>
       <c r="BN133" t="n">
-        <v>4.3</v>
+        <v>2.210000000000001</v>
       </c>
       <c r="BO133" t="n">
-        <v>2.210000000000001</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BP133" t="n">
-        <v>2.300000000000001</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ133" t="n">
-        <v>-0.6099999999999994</v>
-      </c>
-      <c r="BR133" t="n">
         <v>5.100000000000001</v>
       </c>
     </row>
@@ -28899,18 +28498,15 @@
         <v>0</v>
       </c>
       <c r="BN134" t="n">
-        <v>0</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="BO134" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BP134" t="n">
-        <v>0.3900000000000006</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="BQ134" t="n">
-        <v>6.890000000000001</v>
-      </c>
-      <c r="BR134" t="n">
         <v>0.6000000000000014</v>
       </c>
     </row>
@@ -29111,18 +28707,15 @@
         <v>0</v>
       </c>
       <c r="BN135" t="n">
-        <v>0</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BO135" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="BP135" t="n">
-        <v>0.5</v>
+        <v>6.289999999999999</v>
       </c>
       <c r="BQ135" t="n">
-        <v>6.289999999999999</v>
-      </c>
-      <c r="BR135" t="n">
         <v>2</v>
       </c>
     </row>
@@ -29320,21 +28913,18 @@
         <v>22.99007177033504</v>
       </c>
       <c r="BM136" t="n">
-        <v>5.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="BN136" t="n">
-        <v>0</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="BO136" t="n">
-        <v>0.6899999999999977</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BP136" t="n">
-        <v>1.289999999999999</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BQ136" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="BR136" t="n">
         <v>0.1000000000000014</v>
       </c>
     </row>
@@ -29532,21 +29122,18 @@
         <v>26.40758706467674</v>
       </c>
       <c r="BM137" t="n">
-        <v>2.866666666666667</v>
+        <v>4.283333333333333</v>
       </c>
       <c r="BN137" t="n">
-        <v>4.283333333333333</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BO137" t="n">
-        <v>0.8000000000000007</v>
+        <v>3.5</v>
       </c>
       <c r="BP137" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="BQ137" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR137" t="n">
         <v>3.699999999999999</v>
       </c>
     </row>
@@ -29744,21 +29331,18 @@
         <v>23.68453681710221</v>
       </c>
       <c r="BM138" t="n">
-        <v>2.1</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="BN138" t="n">
-        <v>1.916666666666667</v>
+        <v>4.01</v>
       </c>
       <c r="BO138" t="n">
-        <v>4.01</v>
+        <v>3.900000000000002</v>
       </c>
       <c r="BP138" t="n">
-        <v>3.900000000000002</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ138" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR138" t="n">
         <v>1.100000000000001</v>
       </c>
     </row>
@@ -29956,21 +29540,18 @@
         <v>26.56893111638967</v>
       </c>
       <c r="BM139" t="n">
-        <v>3.016666666666667</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="BN139" t="n">
-        <v>3.516666666666667</v>
+        <v>3.410000000000002</v>
       </c>
       <c r="BO139" t="n">
-        <v>3.410000000000002</v>
+        <v>3</v>
       </c>
       <c r="BP139" t="n">
-        <v>3</v>
+        <v>-2.31</v>
       </c>
       <c r="BQ139" t="n">
-        <v>-2.31</v>
-      </c>
-      <c r="BR139" t="n">
         <v>3.199999999999999</v>
       </c>
     </row>
@@ -30168,21 +29749,18 @@
         <v>23.73800000000011</v>
       </c>
       <c r="BM140" t="n">
-        <v>4.25</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="BN140" t="n">
-        <v>6.833333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BO140" t="n">
-        <v>1.5</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="BP140" t="n">
-        <v>1.899999999999999</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BQ140" t="n">
-        <v>0.7899999999999991</v>
-      </c>
-      <c r="BR140" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -30380,21 +29958,18 @@
         <v>27.56610705596117</v>
       </c>
       <c r="BM141" t="n">
-        <v>7.116666666666666</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="BN141" t="n">
-        <v>2.616666666666667</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO141" t="n">
-        <v>0.3999999999999986</v>
+        <v>3.5</v>
       </c>
       <c r="BP141" t="n">
-        <v>3.5</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BQ141" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="BR141" t="n">
         <v>5.199999999999999</v>
       </c>
     </row>
@@ -30592,21 +30167,18 @@
         <v>26.88665853658547</v>
       </c>
       <c r="BM142" t="n">
-        <v>2.883333333333333</v>
+        <v>2.516666666666667</v>
       </c>
       <c r="BN142" t="n">
-        <v>2.516666666666667</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="BO142" t="n">
-        <v>3.399999999999999</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="BP142" t="n">
-        <v>3.199999999999999</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="BQ142" t="n">
-        <v>-2.699999999999999</v>
-      </c>
-      <c r="BR142" t="n">
         <v>4.5</v>
       </c>
     </row>
@@ -30804,21 +30376,18 @@
         <v>26.86940476190488</v>
       </c>
       <c r="BM143" t="n">
-        <v>2.233333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="BN143" t="n">
-        <v>2.333333333333333</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BO143" t="n">
-        <v>3.300000000000001</v>
+        <v>3.289999999999999</v>
       </c>
       <c r="BP143" t="n">
-        <v>3.289999999999999</v>
+        <v>-1.699999999999999</v>
       </c>
       <c r="BQ143" t="n">
-        <v>-1.699999999999999</v>
-      </c>
-      <c r="BR143" t="n">
         <v>3.289999999999999</v>
       </c>
     </row>
@@ -31016,21 +30585,18 @@
         <v>30.06137767220914</v>
       </c>
       <c r="BM144" t="n">
-        <v>3.516666666666667</v>
+        <v>1.9</v>
       </c>
       <c r="BN144" t="n">
-        <v>1.9</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BO144" t="n">
-        <v>2.789999999999999</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="BP144" t="n">
-        <v>5.289999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BQ144" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BR144" t="n">
         <v>6.700000000000003</v>
       </c>
     </row>
@@ -31228,21 +30794,18 @@
         <v>24.31409090909103</v>
       </c>
       <c r="BM145" t="n">
-        <v>3.75</v>
+        <v>7.483333333333333</v>
       </c>
       <c r="BN145" t="n">
-        <v>7.483333333333333</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="BO145" t="n">
-        <v>0.6099999999999994</v>
+        <v>1.5</v>
       </c>
       <c r="BP145" t="n">
-        <v>1.5</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BQ145" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="BR145" t="n">
         <v>-0.1099999999999994</v>
       </c>
     </row>
@@ -31440,21 +31003,18 @@
         <v>29.27971153846166</v>
       </c>
       <c r="BM146" t="n">
-        <v>2.583333333333333</v>
+        <v>6.516666666666667</v>
       </c>
       <c r="BN146" t="n">
-        <v>6.516666666666667</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO146" t="n">
-        <v>1.390000000000001</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BP146" t="n">
-        <v>3.600000000000001</v>
+        <v>1</v>
       </c>
       <c r="BQ146" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR146" t="n">
         <v>6.090000000000003</v>
       </c>
     </row>
@@ -31652,21 +31212,18 @@
         <v>28.51819047619061</v>
       </c>
       <c r="BM147" t="n">
-        <v>4.8</v>
+        <v>7.716666666666667</v>
       </c>
       <c r="BN147" t="n">
-        <v>7.716666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BO147" t="n">
+        <v>2.099999999999998</v>
+      </c>
+      <c r="BP147" t="n">
         <v>1.5</v>
       </c>
-      <c r="BP147" t="n">
-        <v>2.099999999999998</v>
-      </c>
       <c r="BQ147" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BR147" t="n">
         <v>6</v>
       </c>
     </row>
@@ -31864,21 +31421,18 @@
         <v>26.17886746987959</v>
       </c>
       <c r="BM148" t="n">
-        <v>1.6</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="BN148" t="n">
-        <v>3.633333333333333</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BO148" t="n">
-        <v>0.6999999999999993</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BP148" t="n">
-        <v>3.100000000000001</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BQ148" t="n">
-        <v>0.6000000000000014</v>
-      </c>
-      <c r="BR148" t="n">
         <v>3.100000000000001</v>
       </c>
     </row>
@@ -32076,21 +31630,18 @@
         <v>29.11359523809536</v>
       </c>
       <c r="BM149" t="n">
-        <v>3.466666666666667</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="BN149" t="n">
-        <v>5.083333333333333</v>
+        <v>2.910000000000002</v>
       </c>
       <c r="BO149" t="n">
-        <v>2.910000000000002</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="BP149" t="n">
-        <v>3.899999999999999</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BQ149" t="n">
-        <v>-0.8100000000000005</v>
-      </c>
-      <c r="BR149" t="n">
         <v>5.390000000000001</v>
       </c>
     </row>
@@ -32288,21 +31839,18 @@
         <v>32.07603325415688</v>
       </c>
       <c r="BM150" t="n">
-        <v>3.516666666666667</v>
+        <v>3.1</v>
       </c>
       <c r="BN150" t="n">
-        <v>3.1</v>
+        <v>2.31</v>
       </c>
       <c r="BO150" t="n">
-        <v>2.31</v>
+        <v>5.59</v>
       </c>
       <c r="BP150" t="n">
-        <v>5.59</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BQ150" t="n">
-        <v>-0.3100000000000005</v>
-      </c>
-      <c r="BR150" t="n">
         <v>8.289999999999999</v>
       </c>
     </row>
@@ -32500,21 +32048,18 @@
         <v>32.81235714285728</v>
       </c>
       <c r="BM151" t="n">
-        <v>2.466666666666667</v>
+        <v>3.1</v>
       </c>
       <c r="BN151" t="n">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="BO151" t="n">
-        <v>3.01</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="BP151" t="n">
-        <v>5.399999999999999</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BQ151" t="n">
-        <v>-0.8100000000000005</v>
-      </c>
-      <c r="BR151" t="n">
         <v>10.79</v>
       </c>
     </row>
@@ -32712,21 +32257,18 @@
         <v>31.65363420427561</v>
       </c>
       <c r="BM152" t="n">
-        <v>2.683333333333333</v>
+        <v>6.266666666666667</v>
       </c>
       <c r="BN152" t="n">
-        <v>6.266666666666667</v>
+        <v>3.01</v>
       </c>
       <c r="BO152" t="n">
-        <v>3.01</v>
+        <v>8</v>
       </c>
       <c r="BP152" t="n">
-        <v>8</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BQ152" t="n">
-        <v>-0.3100000000000005</v>
-      </c>
-      <c r="BR152" t="n">
         <v>7.5</v>
       </c>
     </row>
@@ -32924,21 +32466,18 @@
         <v>28.35969121140152</v>
       </c>
       <c r="BM153" t="n">
-        <v>1.85</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="BN153" t="n">
-        <v>5.333333333333333</v>
+        <v>1.689999999999998</v>
       </c>
       <c r="BO153" t="n">
-        <v>1.689999999999998</v>
+        <v>2.710000000000001</v>
       </c>
       <c r="BP153" t="n">
-        <v>2.710000000000001</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ153" t="n">
-        <v>0.1000000000000014</v>
-      </c>
-      <c r="BR153" t="n">
         <v>10.4</v>
       </c>
     </row>
@@ -33136,21 +32675,18 @@
         <v>28.60038004750607</v>
       </c>
       <c r="BM154" t="n">
-        <v>5.75</v>
+        <v>7.466666666666667</v>
       </c>
       <c r="BN154" t="n">
-        <v>7.466666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BO154" t="n">
-        <v>1.5</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BP154" t="n">
-        <v>2.890000000000001</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BQ154" t="n">
-        <v>2.789999999999999</v>
-      </c>
-      <c r="BR154" t="n">
         <v>5.100000000000001</v>
       </c>
     </row>
@@ -33348,21 +32884,18 @@
         <v>30.03033333333342</v>
       </c>
       <c r="BM155" t="n">
-        <v>7.366666666666666</v>
+        <v>7.55</v>
       </c>
       <c r="BN155" t="n">
-        <v>7.55</v>
+        <v>1.5</v>
       </c>
       <c r="BO155" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="BP155" t="n">
-        <v>4</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ155" t="n">
-        <v>1.890000000000001</v>
-      </c>
-      <c r="BR155" t="n">
         <v>6.590000000000003</v>
       </c>
     </row>
@@ -33560,21 +33093,18 @@
         <v>30.27605700712603</v>
       </c>
       <c r="BM156" t="n">
-        <v>5.65</v>
+        <v>6.516666666666667</v>
       </c>
       <c r="BN156" t="n">
-        <v>6.516666666666667</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="BO156" t="n">
-        <v>0.5999999999999979</v>
+        <v>4.710000000000001</v>
       </c>
       <c r="BP156" t="n">
-        <v>4.710000000000001</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BQ156" t="n">
-        <v>3.100000000000001</v>
-      </c>
-      <c r="BR156" t="n">
         <v>5.699999999999999</v>
       </c>
     </row>
@@ -33772,21 +33302,18 @@
         <v>27.35760095011889</v>
       </c>
       <c r="BM157" t="n">
-        <v>7.25</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="BN157" t="n">
-        <v>5.066666666666666</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO157" t="n">
-        <v>0.3999999999999986</v>
+        <v>3.710000000000001</v>
       </c>
       <c r="BP157" t="n">
-        <v>3.710000000000001</v>
+        <v>3</v>
       </c>
       <c r="BQ157" t="n">
-        <v>3</v>
-      </c>
-      <c r="BR157" t="n">
         <v>3.699999999999999</v>
       </c>
     </row>
@@ -33984,21 +33511,18 @@
         <v>28.98742857142874</v>
       </c>
       <c r="BM158" t="n">
-        <v>4.616666666666666</v>
+        <v>5.4</v>
       </c>
       <c r="BN158" t="n">
-        <v>5.4</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BO158" t="n">
-        <v>1.890000000000001</v>
+        <v>2.689999999999998</v>
       </c>
       <c r="BP158" t="n">
-        <v>2.689999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="BQ158" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BR158" t="n">
         <v>7.590000000000003</v>
       </c>
     </row>
@@ -34196,21 +33720,18 @@
         <v>26.39755344418063</v>
       </c>
       <c r="BM159" t="n">
-        <v>6.7</v>
+        <v>9.066666666666666</v>
       </c>
       <c r="BN159" t="n">
-        <v>9.066666666666666</v>
+        <v>2.400000000000002</v>
       </c>
       <c r="BO159" t="n">
-        <v>2.400000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="BP159" t="n">
-        <v>1.5</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ159" t="n">
-        <v>2.199999999999999</v>
-      </c>
-      <c r="BR159" t="n">
         <v>3.289999999999999</v>
       </c>
     </row>
@@ -34408,21 +33929,18 @@
         <v>25.75641330166282</v>
       </c>
       <c r="BM160" t="n">
-        <v>6.566666666666666</v>
+        <v>4.183333333333334</v>
       </c>
       <c r="BN160" t="n">
-        <v>4.183333333333334</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO160" t="n">
-        <v>0.3999999999999986</v>
+        <v>2.41</v>
       </c>
       <c r="BP160" t="n">
-        <v>2.41</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BQ160" t="n">
-        <v>2.890000000000001</v>
-      </c>
-      <c r="BR160" t="n">
         <v>3.289999999999999</v>
       </c>
     </row>
@@ -34620,21 +34138,18 @@
         <v>25.58068883610459</v>
       </c>
       <c r="BM161" t="n">
-        <v>9.616666666666667</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="BN161" t="n">
-        <v>3.233333333333333</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BO161" t="n">
-        <v>0.8000000000000007</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="BP161" t="n">
-        <v>2.599999999999998</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ161" t="n">
-        <v>2.199999999999999</v>
-      </c>
-      <c r="BR161" t="n">
         <v>1.789999999999999</v>
       </c>
     </row>
@@ -34832,21 +34347,18 @@
         <v>27.88532066508326</v>
       </c>
       <c r="BM162" t="n">
-        <v>1.95</v>
+        <v>5.1</v>
       </c>
       <c r="BN162" t="n">
-        <v>5.1</v>
+        <v>0.8100000000000023</v>
       </c>
       <c r="BO162" t="n">
-        <v>0.8100000000000023</v>
+        <v>2.689999999999998</v>
       </c>
       <c r="BP162" t="n">
-        <v>2.689999999999998</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BQ162" t="n">
-        <v>1.199999999999999</v>
-      </c>
-      <c r="BR162" t="n">
         <v>4.289999999999999</v>
       </c>
     </row>
@@ -35044,21 +34556,18 @@
         <v>29.90045130641342</v>
       </c>
       <c r="BM163" t="n">
-        <v>3.35</v>
+        <v>6.4</v>
       </c>
       <c r="BN163" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="BO163" t="n">
-        <v>0.5</v>
+        <v>3.310000000000002</v>
       </c>
       <c r="BP163" t="n">
-        <v>3.310000000000002</v>
+        <v>3.789999999999999</v>
       </c>
       <c r="BQ163" t="n">
-        <v>3.789999999999999</v>
-      </c>
-      <c r="BR163" t="n">
         <v>6.5</v>
       </c>
     </row>
@@ -35256,21 +34765,18 @@
         <v>29.10655581947754</v>
       </c>
       <c r="BM164" t="n">
-        <v>6.4</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="BN164" t="n">
-        <v>10.33333333333333</v>
+        <v>1.310000000000002</v>
       </c>
       <c r="BO164" t="n">
-        <v>1.310000000000002</v>
+        <v>3.400000000000002</v>
       </c>
       <c r="BP164" t="n">
-        <v>3.400000000000002</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BQ164" t="n">
-        <v>2.289999999999999</v>
-      </c>
-      <c r="BR164" t="n">
         <v>5.199999999999999</v>
       </c>
     </row>
@@ -35468,21 +34974,18 @@
         <v>29.24106888361057</v>
       </c>
       <c r="BM165" t="n">
-        <v>4.033333333333333</v>
+        <v>6.2</v>
       </c>
       <c r="BN165" t="n">
-        <v>6.2</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BO165" t="n">
-        <v>2.100000000000001</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="BP165" t="n">
-        <v>3.399999999999999</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BQ165" t="n">
-        <v>0.2899999999999991</v>
-      </c>
-      <c r="BR165" t="n">
         <v>5.100000000000001</v>
       </c>
     </row>
@@ -35680,21 +35183,18 @@
         <v>27.70561904761915</v>
       </c>
       <c r="BM166" t="n">
-        <v>5.016666666666667</v>
+        <v>1.183333333333333</v>
       </c>
       <c r="BN166" t="n">
-        <v>1.183333333333333</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BO166" t="n">
-        <v>1.300000000000001</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP166" t="n">
-        <v>2.289999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="BQ166" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BR166" t="n">
         <v>4.100000000000001</v>
       </c>
     </row>
@@ -35892,21 +35392,18 @@
         <v>29.36738717339674</v>
       </c>
       <c r="BM167" t="n">
-        <v>3.583333333333333</v>
+        <v>5.55</v>
       </c>
       <c r="BN167" t="n">
-        <v>5.55</v>
+        <v>1.5</v>
       </c>
       <c r="BO167" t="n">
-        <v>1.5</v>
+        <v>3.189999999999998</v>
       </c>
       <c r="BP167" t="n">
-        <v>3.189999999999998</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BQ167" t="n">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="BR167" t="n">
         <v>5.289999999999999</v>
       </c>
     </row>
@@ -36104,21 +35601,18 @@
         <v>24.47434679334919</v>
       </c>
       <c r="BM168" t="n">
-        <v>8.466666666666667</v>
+        <v>0</v>
       </c>
       <c r="BN168" t="n">
-        <v>0</v>
+        <v>1.109999999999999</v>
       </c>
       <c r="BO168" t="n">
-        <v>1.109999999999999</v>
+        <v>2.690000000000001</v>
       </c>
       <c r="BP168" t="n">
-        <v>2.690000000000001</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ168" t="n">
-        <v>1.890000000000001</v>
-      </c>
-      <c r="BR168" t="n">
         <v>-0.7100000000000009</v>
       </c>
     </row>
@@ -36316,21 +35810,18 @@
         <v>27.86954869358679</v>
       </c>
       <c r="BM169" t="n">
-        <v>7.85</v>
+        <v>0</v>
       </c>
       <c r="BN169" t="n">
-        <v>0</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="BO169" t="n">
-        <v>0.9000000000000021</v>
+        <v>3.190000000000001</v>
       </c>
       <c r="BP169" t="n">
-        <v>3.190000000000001</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BQ169" t="n">
-        <v>2.789999999999999</v>
-      </c>
-      <c r="BR169" t="n">
         <v>3.699999999999999</v>
       </c>
     </row>
@@ -36528,21 +36019,18 @@
         <v>29.4778859857483</v>
       </c>
       <c r="BM170" t="n">
-        <v>5.566666666666666</v>
+        <v>3.5</v>
       </c>
       <c r="BN170" t="n">
-        <v>3.5</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BO170" t="n">
-        <v>1.789999999999999</v>
+        <v>4.400000000000002</v>
       </c>
       <c r="BP170" t="n">
-        <v>4.400000000000002</v>
+        <v>1</v>
       </c>
       <c r="BQ170" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR170" t="n">
         <v>4.789999999999999</v>
       </c>
     </row>
@@ -36740,21 +36228,18 @@
         <v>27.97223277909754</v>
       </c>
       <c r="BM171" t="n">
-        <v>2.8</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="BN171" t="n">
-        <v>3.183333333333333</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BO171" t="n">
-        <v>1.710000000000001</v>
+        <v>2.710000000000001</v>
       </c>
       <c r="BP171" t="n">
-        <v>2.710000000000001</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BQ171" t="n">
-        <v>0.2899999999999991</v>
-      </c>
-      <c r="BR171" t="n">
         <v>5.100000000000001</v>
       </c>
     </row>
@@ -36952,21 +36437,18 @@
         <v>29.31916864608086</v>
       </c>
       <c r="BM172" t="n">
-        <v>7.483333333333333</v>
+        <v>6.3</v>
       </c>
       <c r="BN172" t="n">
-        <v>6.3</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="BO172" t="n">
-        <v>0.9000000000000021</v>
+        <v>3.91</v>
       </c>
       <c r="BP172" t="n">
-        <v>3.91</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ172" t="n">
-        <v>2.199999999999999</v>
-      </c>
-      <c r="BR172" t="n">
         <v>5.5</v>
       </c>
     </row>
@@ -37164,21 +36646,18 @@
         <v>33.63375296912122</v>
       </c>
       <c r="BM173" t="n">
-        <v>4.466666666666667</v>
+        <v>9.183333333333334</v>
       </c>
       <c r="BN173" t="n">
-        <v>9.183333333333334</v>
+        <v>1.599999999999998</v>
       </c>
       <c r="BO173" t="n">
-        <v>1.599999999999998</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="BP173" t="n">
-        <v>6.100000000000001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BQ173" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="BR173" t="n">
         <v>10.59</v>
       </c>
     </row>
@@ -37376,21 +36855,18 @@
         <v>39.88004750593834</v>
       </c>
       <c r="BM174" t="n">
-        <v>5.283333333333333</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="BN174" t="n">
-        <v>2.266666666666667</v>
+        <v>2.09</v>
       </c>
       <c r="BO174" t="n">
-        <v>2.09</v>
+        <v>9</v>
       </c>
       <c r="BP174" t="n">
-        <v>9</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BQ174" t="n">
-        <v>1.699999999999999</v>
-      </c>
-      <c r="BR174" t="n">
         <v>19.7</v>
       </c>
     </row>
@@ -37591,18 +37067,15 @@
         <v>0</v>
       </c>
       <c r="BN175" t="n">
-        <v>0</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BO175" t="n">
-        <v>0.3999999999999986</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BP175" t="n">
-        <v>1.710000000000001</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="BQ175" t="n">
-        <v>6.100000000000001</v>
-      </c>
-      <c r="BR175" t="n">
         <v>4</v>
       </c>
     </row>

--- a/dataset/2nd_data/myeong/myeong_env_detail_data.xlsx
+++ b/dataset/2nd_data/myeong/myeong_env_detail_data.xlsx
@@ -384,332 +384,332 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)</t>
+          <t>이슬점(Td)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>증산(HD)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure</t>
+          <t>대기압</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pws</t>
+          <t>PWS(?)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)</t>
+          <t>수분량</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)</t>
+          <t>엔탈피</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)</t>
+          <t>비부피</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)</t>
+          <t>밀도</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor</t>
+          <t>PW(?)수증기</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)</t>
+          <t>절대습도</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH</t>
+          <t>절대AH(?)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_std</t>
+          <t>실내온도표준편차</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_std</t>
+          <t>실내습도표준편차</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_std</t>
+          <t>이슬점(Td)표준편차</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>HD_std</t>
+          <t>증산(HD)표준편차</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_std</t>
+          <t>대기압표준편차</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>pws_std</t>
+          <t>PWS(?)표준편차</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_std</t>
+          <t>수분량표준편차</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_std</t>
+          <t>엔탈피표준편차</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_std</t>
+          <t>비부피표준편차</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_std</t>
+          <t>밀도표준편차</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_std</t>
+          <t>PW(?)수증기표준편차</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_std</t>
+          <t>절대습도표준편차</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_std</t>
+          <t>절대AH(?)표준편차</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_min</t>
+          <t>최소실내온도</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_min</t>
+          <t>최소실내습도</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_min</t>
+          <t>최소이슬점(Td)</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>HD_min</t>
+          <t>최소증산(HD)</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_min</t>
+          <t>최소대기압</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>pws_min</t>
+          <t>최소PWS(?)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_min</t>
+          <t>최소수분량</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_min</t>
+          <t>최소엔탈피</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_min</t>
+          <t>최소비부피</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_min</t>
+          <t>최소밀도</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_min</t>
+          <t>최소PW(?)수증기</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_min</t>
+          <t>최소절대습도</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_min</t>
+          <t>최소절대AH(?)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>실내온도_max</t>
+          <t>최대실내온도</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>실내습도_max</t>
+          <t>최대실내습도</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>dew point (Td)_max</t>
+          <t>최대이슬점(Td)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>HD_max</t>
+          <t>최대증산(HD)</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>atmospheric pressure_max</t>
+          <t>최대대기압</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>pws_max</t>
+          <t>최대PWS(?)</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>W (moisture content)_max</t>
+          <t>최대수분량</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>h (enthalpy)_max</t>
+          <t>최대엔탈피</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>v (specific volume)_max</t>
+          <t>최대비부피</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>rho (density)_max</t>
+          <t>최대밀도</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>pw (Partial pressure) water vapor_max</t>
+          <t>최대PW(?)수증기</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Absolute Humidity (AH)_max</t>
+          <t>최대절대습도</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>absoluteAH_max</t>
+          <t>최대절대AH(?)</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>am_suitable_HD</t>
+          <t>오전적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>sun_suitable_HD</t>
+          <t>일출일몰적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>day_suitable_HD</t>
+          <t>하루적정증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>pm_unsuitable_HD</t>
+          <t>오후심각증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>am_unsuitable_HD</t>
+          <t>오전심각증산(HD)누적시간</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>low_temperature</t>
+          <t>12도이하온도누적시간</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>high_temperature</t>
+          <t>30도이상온도누적시간</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature</t>
+          <t>적정온도누적시간</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>daytime_temperature</t>
+          <t>주간평균온도</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>nighttime_temperature</t>
+          <t>야간평균온도</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>afternoon_temperature</t>
+          <t>오후부터일몰까지평균온도</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>suitable_humidity_time</t>
+          <t>적정습도누적시간</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>sunrise_diff</t>
+          <t>일출전후한시간평균온도</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>sunset_diff</t>
+          <t>일몰전후한시간평균온도</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature_diff_lowerbound</t>
+          <t>적정온도변화폭(하위)</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>suitable_temperature_diff_upperbound</t>
+          <t>적정온도변화폭(상위)</t>
         </is>
       </c>
     </row>

--- a/dataset/2nd_data/myeong/myeong_env_detail_data.xlsx
+++ b/dataset/2nd_data/myeong/myeong_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ175"/>
+  <dimension ref="A1:BS174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,37 +679,47 @@
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>야간평균온도</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
           <t>오후부터일몰까지평균온도</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>적정습도누적시간</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>일출전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>일몰전후한시간평균온도</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>적정온도변화폭(하위)</t>
         </is>
       </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>적정온도변화폭(상위)</t>
+        </is>
+      </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>적정온도변화폭(상위)</t>
+          <t>야간평균온도</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>일몰일출적합증산(HD)누적시간</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>주야간온도차이</t>
         </is>
       </c>
     </row>
@@ -901,25 +911,31 @@
         <v>20.24128040973119</v>
       </c>
       <c r="BK2" t="n">
-        <v>12.83436170212772</v>
+        <v>23.1205463182898</v>
       </c>
       <c r="BL2" t="n">
-        <v>23.1205463182898</v>
+        <v>17.28333333333333</v>
       </c>
       <c r="BM2" t="n">
-        <v>17.28333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.6</v>
+        <v>-3.81</v>
       </c>
       <c r="BP2" t="n">
-        <v>-3.81</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BQ2" t="n">
-        <v>3.100000000000001</v>
+        <v>13.14845220030356</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>7.092828209427628</v>
       </c>
     </row>
     <row r="3">
@@ -1110,25 +1126,31 @@
         <v>18.99321382842517</v>
       </c>
       <c r="BK3" t="n">
-        <v>12.90654021244315</v>
+        <v>20.56736342042758</v>
       </c>
       <c r="BL3" t="n">
-        <v>20.56736342042758</v>
+        <v>12.75</v>
       </c>
       <c r="BM3" t="n">
-        <v>12.75</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.6099999999999994</v>
+        <v>2.290000000000001</v>
       </c>
       <c r="BO3" t="n">
-        <v>2.290000000000001</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BP3" t="n">
-        <v>-4.199999999999999</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2.100000000000001</v>
+        <v>12.5283915022762</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>6.464822326148976</v>
       </c>
     </row>
     <row r="4">
@@ -1319,25 +1341,31 @@
         <v>14.89642765685022</v>
       </c>
       <c r="BK4" t="n">
-        <v>12.6657663125949</v>
+        <v>15.19408551068887</v>
       </c>
       <c r="BL4" t="n">
-        <v>15.19408551068887</v>
+        <v>24</v>
       </c>
       <c r="BM4" t="n">
-        <v>24</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.3100000000000005</v>
+        <v>0.7000000000000011</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.7000000000000011</v>
+        <v>-3.81</v>
       </c>
       <c r="BP4" t="n">
-        <v>-3.81</v>
+        <v>-7.109999999999999</v>
       </c>
       <c r="BQ4" t="n">
-        <v>-7.109999999999999</v>
+        <v>12.88321699544771</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>10.43333333333333</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>2.013210661402509</v>
       </c>
     </row>
     <row r="5">
@@ -1528,25 +1556,31 @@
         <v>19.10125480153658</v>
       </c>
       <c r="BK5" t="n">
-        <v>12.97382397572084</v>
+        <v>20.83399049881238</v>
       </c>
       <c r="BL5" t="n">
-        <v>20.83399049881238</v>
+        <v>17.7</v>
       </c>
       <c r="BM5" t="n">
-        <v>17.7</v>
+        <v>0.5</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="BO5" t="n">
-        <v>2</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP5" t="n">
-        <v>-3.699999999999999</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.890000000000001</v>
+        <v>13.05722306525047</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>6.04403173628611</v>
       </c>
     </row>
     <row r="6">
@@ -1737,25 +1771,31 @@
         <v>16.3584122919335</v>
       </c>
       <c r="BK6" t="n">
-        <v>13.11409711684372</v>
+        <v>17.53375296912115</v>
       </c>
       <c r="BL6" t="n">
-        <v>17.53375296912115</v>
+        <v>20.96666666666667</v>
       </c>
       <c r="BM6" t="n">
-        <v>20.96666666666667</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.7999999999999989</v>
+        <v>-3.31</v>
       </c>
       <c r="BP6" t="n">
-        <v>-3.31</v>
+        <v>-3.210000000000001</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-3.210000000000001</v>
+        <v>12.94783004552353</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>3.410582246409964</v>
       </c>
     </row>
     <row r="7">
@@ -1946,25 +1986,31 @@
         <v>18.78233034571069</v>
       </c>
       <c r="BK7" t="n">
-        <v>12.79399089529594</v>
+        <v>20.81805225653211</v>
       </c>
       <c r="BL7" t="n">
-        <v>20.81805225653211</v>
+        <v>18.53333333333333</v>
       </c>
       <c r="BM7" t="n">
-        <v>18.53333333333333</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.1899999999999995</v>
+        <v>1.59</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.59</v>
+        <v>-4</v>
       </c>
       <c r="BP7" t="n">
-        <v>-4</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="BQ7" t="n">
-        <v>3.199999999999999</v>
+        <v>12.51253289473686</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>5.066666666666666</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>6.269797450973826</v>
       </c>
     </row>
     <row r="8">
@@ -2155,25 +2201,31 @@
         <v>20.08769841269849</v>
       </c>
       <c r="BK8" t="n">
-        <v>13.32526315789473</v>
+        <v>21.96491686460811</v>
       </c>
       <c r="BL8" t="n">
-        <v>21.96491686460811</v>
+        <v>11.01666666666667</v>
       </c>
       <c r="BM8" t="n">
-        <v>11.01666666666667</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.2900000000000009</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO8" t="n">
-        <v>2.109999999999999</v>
+        <v>-3.5</v>
       </c>
       <c r="BP8" t="n">
-        <v>-3.5</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BQ8" t="n">
-        <v>2.789999999999999</v>
+        <v>13.85385432473447</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>6.233844087964012</v>
       </c>
     </row>
     <row r="9">
@@ -2364,25 +2416,31 @@
         <v>14.93665813060179</v>
       </c>
       <c r="BK9" t="n">
-        <v>13.87101669195754</v>
+        <v>14.49700712589077</v>
       </c>
       <c r="BL9" t="n">
-        <v>14.49700712589077</v>
+        <v>23.18333333333333</v>
       </c>
       <c r="BM9" t="n">
-        <v>23.18333333333333</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.1999999999999993</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BP9" t="n">
-        <v>-3.609999999999999</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-9.300000000000001</v>
+        <v>13.35641881638852</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0.2833333333333333</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1.580239314213275</v>
       </c>
     </row>
     <row r="10">
@@ -2573,25 +2631,31 @@
         <v>15.42574903969276</v>
       </c>
       <c r="BK10" t="n">
-        <v>13.14270106221555</v>
+        <v>16.63491686460807</v>
       </c>
       <c r="BL10" t="n">
-        <v>16.63491686460807</v>
+        <v>24</v>
       </c>
       <c r="BM10" t="n">
-        <v>24</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.2000000000000011</v>
+        <v>1.09</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.09</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BP10" t="n">
-        <v>-3.199999999999999</v>
+        <v>-7.210000000000001</v>
       </c>
       <c r="BQ10" t="n">
-        <v>-7.210000000000001</v>
+        <v>13.05336874051596</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>4.466666666666667</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>2.372380299176806</v>
       </c>
     </row>
     <row r="11">
@@ -2782,25 +2846,31 @@
         <v>16.26193341869399</v>
       </c>
       <c r="BK11" t="n">
-        <v>13.33221547799704</v>
+        <v>17.95327790973877</v>
       </c>
       <c r="BL11" t="n">
-        <v>17.95327790973877</v>
+        <v>21.53333333333333</v>
       </c>
       <c r="BM11" t="n">
-        <v>21.53333333333333</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.2900000000000009</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO11" t="n">
-        <v>1.390000000000001</v>
+        <v>-3.109999999999999</v>
       </c>
       <c r="BP11" t="n">
-        <v>-3.109999999999999</v>
+        <v>-1.899999999999999</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-1.899999999999999</v>
+        <v>13.23429438543251</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>3.027639033261474</v>
       </c>
     </row>
     <row r="12">
@@ -2991,25 +3061,31 @@
         <v>14.8350832266325</v>
       </c>
       <c r="BK12" t="n">
-        <v>12.96866464339918</v>
+        <v>14.53809976247037</v>
       </c>
       <c r="BL12" t="n">
-        <v>14.53809976247037</v>
+        <v>22.9</v>
       </c>
       <c r="BM12" t="n">
-        <v>22.9</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.4000000000000004</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.2999999999999989</v>
+        <v>-3.81</v>
       </c>
       <c r="BP12" t="n">
-        <v>-3.81</v>
+        <v>-4.710000000000001</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-4.710000000000001</v>
+        <v>12.78376327769354</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>2.051319948938957</v>
       </c>
     </row>
     <row r="13">
@@ -3200,25 +3276,31 @@
         <v>16.10823303457114</v>
       </c>
       <c r="BK13" t="n">
-        <v>12.41845220030354</v>
+        <v>17.67589073634207</v>
       </c>
       <c r="BL13" t="n">
-        <v>17.67589073634207</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="BM13" t="n">
-        <v>19.66666666666667</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.2999999999999989</v>
+        <v>1</v>
       </c>
       <c r="BO13" t="n">
-        <v>1</v>
+        <v>-4.9</v>
       </c>
       <c r="BP13" t="n">
-        <v>-4.9</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BQ13" t="n">
-        <v>-0.6099999999999994</v>
+        <v>12.34531107739005</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>3.762921957181089</v>
       </c>
     </row>
     <row r="14">
@@ -3409,25 +3491,31 @@
         <v>19.12731113956479</v>
       </c>
       <c r="BK14" t="n">
-        <v>12.72294385432478</v>
+        <v>21.2686460807602</v>
       </c>
       <c r="BL14" t="n">
-        <v>21.2686460807602</v>
+        <v>9.716666666666667</v>
       </c>
       <c r="BM14" t="n">
-        <v>9.716666666666667</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.5899999999999999</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.3899999999999988</v>
+        <v>-3.9</v>
       </c>
       <c r="BP14" t="n">
-        <v>-3.9</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.890000000000001</v>
+        <v>13.02990895295902</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>6.097402186605775</v>
       </c>
     </row>
     <row r="15">
@@ -3618,25 +3706,31 @@
         <v>19.43878361075555</v>
       </c>
       <c r="BK15" t="n">
-        <v>12.76678300455238</v>
+        <v>22.27912114014253</v>
       </c>
       <c r="BL15" t="n">
-        <v>22.27912114014253</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="BM15" t="n">
-        <v>18.33333333333333</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.3000000000000007</v>
+        <v>2.609999999999999</v>
       </c>
       <c r="BO15" t="n">
-        <v>2.609999999999999</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BP15" t="n">
-        <v>-4.199999999999999</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ15" t="n">
-        <v>2.100000000000001</v>
+        <v>12.57713201820949</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>6.861651592546053</v>
       </c>
     </row>
     <row r="16">
@@ -3827,25 +3921,31 @@
         <v>18.70053777208718</v>
       </c>
       <c r="BK16" t="n">
-        <v>13.07660091047045</v>
+        <v>21.54016627078391</v>
       </c>
       <c r="BL16" t="n">
-        <v>21.54016627078391</v>
+        <v>20.9</v>
       </c>
       <c r="BM16" t="n">
-        <v>20.9</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.3100000000000005</v>
+        <v>2.5</v>
       </c>
       <c r="BO16" t="n">
-        <v>2.5</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP16" t="n">
-        <v>-3.699999999999999</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ16" t="n">
-        <v>1.890000000000001</v>
+        <v>13.36603945371782</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>5.334498318369365</v>
       </c>
     </row>
     <row r="17">
@@ -4036,25 +4136,31 @@
         <v>22.3062868117799</v>
       </c>
       <c r="BK17" t="n">
-        <v>13.42990895295908</v>
+        <v>25.79729216152029</v>
       </c>
       <c r="BL17" t="n">
-        <v>25.79729216152029</v>
+        <v>18.26666666666667</v>
       </c>
       <c r="BM17" t="n">
-        <v>18.26666666666667</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.3000000000000007</v>
+        <v>3.59</v>
       </c>
       <c r="BO17" t="n">
-        <v>3.59</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BP17" t="n">
-        <v>-3.609999999999999</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="BQ17" t="n">
-        <v>4.600000000000001</v>
+        <v>13.26350531107749</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>6.583333333333333</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>9.042781500702413</v>
       </c>
     </row>
     <row r="18">
@@ -4245,25 +4351,31 @@
         <v>14.69578205128206</v>
       </c>
       <c r="BK18" t="n">
-        <v>13.03289833080422</v>
+        <v>15.140380952381</v>
       </c>
       <c r="BL18" t="n">
-        <v>15.140380952381</v>
+        <v>23.98333333333333</v>
       </c>
       <c r="BM18" t="n">
-        <v>23.98333333333333</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.2999999999999989</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.4100000000000001</v>
+        <v>-3.81</v>
       </c>
       <c r="BP18" t="n">
-        <v>-3.81</v>
+        <v>-9</v>
       </c>
       <c r="BQ18" t="n">
-        <v>-9</v>
+        <v>13.2559484066769</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>1.439833644605162</v>
       </c>
     </row>
     <row r="19">
@@ -4454,25 +4566,31 @@
         <v>19.10259923175429</v>
       </c>
       <c r="BK19" t="n">
-        <v>13.41097116843703</v>
+        <v>22.046270783848</v>
       </c>
       <c r="BL19" t="n">
-        <v>22.046270783848</v>
+        <v>23.38333333333333</v>
       </c>
       <c r="BM19" t="n">
-        <v>23.38333333333333</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.2099999999999991</v>
+        <v>3</v>
       </c>
       <c r="BO19" t="n">
-        <v>3</v>
+        <v>-3.31</v>
       </c>
       <c r="BP19" t="n">
-        <v>-3.31</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BQ19" t="n">
-        <v>1.789999999999999</v>
+        <v>13.50634294385438</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>5.596256287899907</v>
       </c>
     </row>
     <row r="20">
@@ -4663,25 +4781,31 @@
         <v>18.67503201024334</v>
       </c>
       <c r="BK20" t="n">
-        <v>13.27342943854328</v>
+        <v>21.00517814726844</v>
       </c>
       <c r="BL20" t="n">
-        <v>21.00517814726844</v>
+        <v>23.8</v>
       </c>
       <c r="BM20" t="n">
-        <v>23.8</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.3100000000000005</v>
+        <v>2.59</v>
       </c>
       <c r="BO20" t="n">
-        <v>2.59</v>
+        <v>-3.5</v>
       </c>
       <c r="BP20" t="n">
-        <v>-3.5</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BQ20" t="n">
-        <v>1.600000000000001</v>
+        <v>13.24931714719274</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>7.483333333333333</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>5.425714863050596</v>
       </c>
     </row>
     <row r="21">
@@ -4872,25 +4996,31 @@
         <v>17.46308578745208</v>
       </c>
       <c r="BK21" t="n">
-        <v>12.95195751138094</v>
+        <v>18.6645605700713</v>
       </c>
       <c r="BL21" t="n">
-        <v>18.6645605700713</v>
+        <v>18.48333333333333</v>
       </c>
       <c r="BM21" t="n">
-        <v>18.48333333333333</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.3900000000000006</v>
+        <v>2</v>
       </c>
       <c r="BO21" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="BP21" t="n">
-        <v>-4</v>
+        <v>-2.899999999999999</v>
       </c>
       <c r="BQ21" t="n">
-        <v>-2.899999999999999</v>
+        <v>12.5431259484067</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>4.919959839045374</v>
       </c>
     </row>
     <row r="22">
@@ -5081,25 +5211,31 @@
         <v>17.89882202304745</v>
       </c>
       <c r="BK22" t="n">
-        <v>12.6894688922611</v>
+        <v>19.7196437054632</v>
       </c>
       <c r="BL22" t="n">
-        <v>19.7196437054632</v>
+        <v>18.53333333333333</v>
       </c>
       <c r="BM22" t="n">
-        <v>18.53333333333333</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.3100000000000005</v>
+        <v>2.889999999999999</v>
       </c>
       <c r="BO22" t="n">
-        <v>2.889999999999999</v>
+        <v>-3.81</v>
       </c>
       <c r="BP22" t="n">
-        <v>-3.81</v>
+        <v>-2.109999999999999</v>
       </c>
       <c r="BQ22" t="n">
-        <v>-2.109999999999999</v>
+        <v>12.83186646433993</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>9.316666666666666</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>5.066955558707518</v>
       </c>
     </row>
     <row r="23">
@@ -5290,25 +5426,31 @@
         <v>16.64715749039699</v>
       </c>
       <c r="BK23" t="n">
-        <v>13.06122913505317</v>
+        <v>18.22441805225657</v>
       </c>
       <c r="BL23" t="n">
-        <v>18.22441805225657</v>
+        <v>19.43333333333333</v>
       </c>
       <c r="BM23" t="n">
-        <v>19.43333333333333</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN23" t="n">
-        <v>0.3000000000000007</v>
+        <v>2</v>
       </c>
       <c r="BO23" t="n">
-        <v>2</v>
+        <v>-3.5</v>
       </c>
       <c r="BP23" t="n">
-        <v>-3.5</v>
+        <v>-3.800000000000001</v>
       </c>
       <c r="BQ23" t="n">
-        <v>-3.800000000000001</v>
+        <v>13.1239605462822</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>3.523196944114792</v>
       </c>
     </row>
     <row r="24">
@@ -5499,25 +5641,31 @@
         <v>16.47002560819465</v>
       </c>
       <c r="BK24" t="n">
-        <v>12.91154779969657</v>
+        <v>17.39242280285038</v>
       </c>
       <c r="BL24" t="n">
-        <v>17.39242280285038</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="BM24" t="n">
-        <v>20.33333333333333</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN24" t="n">
-        <v>0.3000000000000007</v>
+        <v>1.41</v>
       </c>
       <c r="BO24" t="n">
-        <v>1.41</v>
+        <v>-3.81</v>
       </c>
       <c r="BP24" t="n">
-        <v>-3.81</v>
+        <v>-3.899999999999999</v>
       </c>
       <c r="BQ24" t="n">
-        <v>-3.899999999999999</v>
+        <v>12.61811836115334</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>5.716666666666667</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>3.851907247041314</v>
       </c>
     </row>
     <row r="25">
@@ -5708,25 +5856,31 @@
         <v>17.34034571062746</v>
       </c>
       <c r="BK25" t="n">
-        <v>12.4908345978756</v>
+        <v>19.20427553444185</v>
       </c>
       <c r="BL25" t="n">
-        <v>19.20427553444185</v>
+        <v>17</v>
       </c>
       <c r="BM25" t="n">
-        <v>17</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BN25" t="n">
-        <v>0.2999999999999989</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="BO25" t="n">
-        <v>0.9000000000000004</v>
+        <v>-3.9</v>
       </c>
       <c r="BP25" t="n">
-        <v>-3.9</v>
+        <v>-1.5</v>
       </c>
       <c r="BQ25" t="n">
-        <v>-1.5</v>
+        <v>12.54738998482554</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>4.792955725801914</v>
       </c>
     </row>
     <row r="26">
@@ -5917,25 +6071,31 @@
         <v>17.54481434058903</v>
       </c>
       <c r="BK26" t="n">
-        <v>12.55352048558427</v>
+        <v>19.08026128266037</v>
       </c>
       <c r="BL26" t="n">
-        <v>19.08026128266037</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="BM26" t="n">
-        <v>12.33333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BN26" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="BO26" t="n">
-        <v>1.5</v>
+        <v>-3.81</v>
       </c>
       <c r="BP26" t="n">
-        <v>-3.81</v>
+        <v>-1.800000000000001</v>
       </c>
       <c r="BQ26" t="n">
-        <v>-1.800000000000001</v>
+        <v>12.51846737481039</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>5.026346965778645</v>
       </c>
     </row>
     <row r="27">
@@ -6126,25 +6286,31 @@
         <v>17.06778489116517</v>
       </c>
       <c r="BK27" t="n">
-        <v>12.50758725341433</v>
+        <v>17.78817102137771</v>
       </c>
       <c r="BL27" t="n">
-        <v>17.78817102137771</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="BM27" t="n">
-        <v>10.83333333333333</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="BN27" t="n">
-        <v>0.09999999999999964</v>
+        <v>1.19</v>
       </c>
       <c r="BO27" t="n">
-        <v>1.19</v>
+        <v>-4</v>
       </c>
       <c r="BP27" t="n">
-        <v>-4</v>
+        <v>-1.5</v>
       </c>
       <c r="BQ27" t="n">
-        <v>-1.5</v>
+        <v>12.48213960546288</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>4.585645285702292</v>
       </c>
     </row>
     <row r="28">
@@ -6335,25 +6501,31 @@
         <v>17.97951344430227</v>
       </c>
       <c r="BK28" t="n">
-        <v>12.42132018209409</v>
+        <v>19.62042755344422</v>
       </c>
       <c r="BL28" t="n">
-        <v>19.62042755344422</v>
+        <v>6.2</v>
       </c>
       <c r="BM28" t="n">
-        <v>6.2</v>
+        <v>0.1899999999999995</v>
       </c>
       <c r="BN28" t="n">
-        <v>0.1899999999999995</v>
+        <v>1.610000000000001</v>
       </c>
       <c r="BO28" t="n">
-        <v>1.610000000000001</v>
+        <v>-4</v>
       </c>
       <c r="BP28" t="n">
-        <v>-4</v>
+        <v>-1.399999999999999</v>
       </c>
       <c r="BQ28" t="n">
-        <v>-1.399999999999999</v>
+        <v>12.31318664643406</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>5.666326797868209</v>
       </c>
     </row>
     <row r="29">
@@ -6544,25 +6716,31 @@
         <v>16.65877080665816</v>
       </c>
       <c r="BK29" t="n">
-        <v>12.66807283763285</v>
+        <v>17.6442280285036</v>
       </c>
       <c r="BL29" t="n">
-        <v>17.6442280285036</v>
+        <v>7.633333333333334</v>
       </c>
       <c r="BM29" t="n">
-        <v>7.633333333333334</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="BN29" t="n">
-        <v>0.5999999999999996</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BO29" t="n">
-        <v>1.390000000000001</v>
+        <v>-4</v>
       </c>
       <c r="BP29" t="n">
-        <v>-4</v>
+        <v>-3.5</v>
       </c>
       <c r="BQ29" t="n">
-        <v>-3.5</v>
+        <v>12.98716236722313</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>3.671608439435028</v>
       </c>
     </row>
     <row r="30">
@@ -6753,25 +6931,31 @@
         <v>17.50230473751608</v>
       </c>
       <c r="BK30" t="n">
-        <v>12.60491654021249</v>
+        <v>18.72467933491689</v>
       </c>
       <c r="BL30" t="n">
-        <v>18.72467933491689</v>
+        <v>17.28333333333333</v>
       </c>
       <c r="BM30" t="n">
-        <v>17.28333333333333</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BN30" t="n">
-        <v>0.2999999999999989</v>
+        <v>2.5</v>
       </c>
       <c r="BO30" t="n">
-        <v>2.5</v>
+        <v>-4.4</v>
       </c>
       <c r="BP30" t="n">
-        <v>-4.4</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BQ30" t="n">
-        <v>-2.609999999999999</v>
+        <v>12.54426403641886</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>10.96666666666667</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>4.958040701097215</v>
       </c>
     </row>
     <row r="31">
@@ -6962,25 +7146,31 @@
         <v>16.7538412291934</v>
       </c>
       <c r="BK31" t="n">
-        <v>12.74804248861921</v>
+        <v>18.12332541567699</v>
       </c>
       <c r="BL31" t="n">
-        <v>18.12332541567699</v>
+        <v>17.5</v>
       </c>
       <c r="BM31" t="n">
-        <v>17.5</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN31" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BO31" t="n">
-        <v>0.9100000000000001</v>
+        <v>-3.81</v>
       </c>
       <c r="BP31" t="n">
-        <v>-3.81</v>
+        <v>-3</v>
       </c>
       <c r="BQ31" t="n">
-        <v>-3</v>
+        <v>12.68881638846739</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS31" t="n">
+        <v>4.065024840726009</v>
       </c>
     </row>
     <row r="32">
@@ -7171,25 +7361,31 @@
         <v>18.33403329065312</v>
       </c>
       <c r="BK32" t="n">
-        <v>12.79420911528151</v>
+        <v>19.60242280285038</v>
       </c>
       <c r="BL32" t="n">
-        <v>19.60242280285038</v>
+        <v>4.533333333333333</v>
       </c>
       <c r="BM32" t="n">
-        <v>4.533333333333333</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BN32" t="n">
-        <v>0.5899999999999999</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BO32" t="n">
-        <v>2.300000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="BP32" t="n">
-        <v>-3.5</v>
+        <v>-1.800000000000001</v>
       </c>
       <c r="BQ32" t="n">
-        <v>-1.800000000000001</v>
+        <v>12.89753351206437</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>6.216666666666667</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>5.436499778588749</v>
       </c>
     </row>
     <row r="33">
@@ -7380,25 +7576,31 @@
         <v>20.17334186939832</v>
       </c>
       <c r="BK33" t="n">
-        <v>12.60101669195756</v>
+        <v>22.64211401425181</v>
       </c>
       <c r="BL33" t="n">
-        <v>22.64211401425181</v>
+        <v>6.55</v>
       </c>
       <c r="BM33" t="n">
-        <v>6.55</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BN33" t="n">
-        <v>0.5899999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="BO33" t="n">
-        <v>3.5</v>
+        <v>-4.31</v>
       </c>
       <c r="BP33" t="n">
-        <v>-4.31</v>
+        <v>2.390000000000001</v>
       </c>
       <c r="BQ33" t="n">
-        <v>2.390000000000001</v>
+        <v>12.49705614567532</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>9.516666666666667</v>
+      </c>
+      <c r="BS33" t="n">
+        <v>7.676285723722996</v>
       </c>
     </row>
     <row r="34">
@@ -7589,25 +7791,31 @@
         <v>18.71574903969278</v>
       </c>
       <c r="BK34" t="n">
-        <v>12.41861491628623</v>
+        <v>21.02256532066513</v>
       </c>
       <c r="BL34" t="n">
-        <v>21.02256532066513</v>
+        <v>3.933333333333333</v>
       </c>
       <c r="BM34" t="n">
-        <v>3.933333333333333</v>
+        <v>0.7099999999999991</v>
       </c>
       <c r="BN34" t="n">
-        <v>0.7099999999999991</v>
+        <v>2.889999999999999</v>
       </c>
       <c r="BO34" t="n">
-        <v>2.889999999999999</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BP34" t="n">
-        <v>-4.199999999999999</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ34" t="n">
-        <v>0.1000000000000014</v>
+        <v>12.2754185692542</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>6.440330470438587</v>
       </c>
     </row>
     <row r="35">
@@ -7798,25 +8006,31 @@
         <v>19.61307298335476</v>
       </c>
       <c r="BK35" t="n">
-        <v>12.49872534142642</v>
+        <v>21.98256532066507</v>
       </c>
       <c r="BL35" t="n">
-        <v>21.98256532066507</v>
+        <v>1.983333333333333</v>
       </c>
       <c r="BM35" t="n">
-        <v>1.983333333333333</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BN35" t="n">
-        <v>0.4000000000000004</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BO35" t="n">
-        <v>1.890000000000001</v>
+        <v>-3.9</v>
       </c>
       <c r="BP35" t="n">
-        <v>-3.9</v>
+        <v>2</v>
       </c>
       <c r="BQ35" t="n">
-        <v>2</v>
+        <v>12.4057207890744</v>
+      </c>
+      <c r="BR35" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS35" t="n">
+        <v>7.207352194280361</v>
       </c>
     </row>
     <row r="36">
@@ -8007,25 +8221,31 @@
         <v>20.25663252240725</v>
       </c>
       <c r="BK36" t="n">
-        <v>12.30996965098639</v>
+        <v>22.85847980997626</v>
       </c>
       <c r="BL36" t="n">
-        <v>22.85847980997626</v>
+        <v>2.65</v>
       </c>
       <c r="BM36" t="n">
-        <v>2.65</v>
+        <v>0.5</v>
       </c>
       <c r="BN36" t="n">
-        <v>0.5</v>
+        <v>3.210000000000001</v>
       </c>
       <c r="BO36" t="n">
-        <v>3.210000000000001</v>
+        <v>-4.31</v>
       </c>
       <c r="BP36" t="n">
-        <v>-4.31</v>
+        <v>3.5</v>
       </c>
       <c r="BQ36" t="n">
-        <v>3.5</v>
+        <v>12.44339908952963</v>
+      </c>
+      <c r="BR36" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS36" t="n">
+        <v>7.813233432877622</v>
       </c>
     </row>
     <row r="37">
@@ -8216,25 +8436,31 @@
         <v>20.10047375160064</v>
       </c>
       <c r="BK37" t="n">
-        <v>12.6921547799697</v>
+        <v>22.98448931116395</v>
       </c>
       <c r="BL37" t="n">
-        <v>22.98448931116395</v>
+        <v>3.783333333333333</v>
       </c>
       <c r="BM37" t="n">
-        <v>3.783333333333333</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BN37" t="n">
-        <v>0.4100000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="BO37" t="n">
-        <v>4.5</v>
+        <v>-3.9</v>
       </c>
       <c r="BP37" t="n">
-        <v>-3.9</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BQ37" t="n">
-        <v>2.289999999999999</v>
+        <v>13.40276176024278</v>
+      </c>
+      <c r="BR37" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS37" t="n">
+        <v>6.697711991357863</v>
       </c>
     </row>
     <row r="38">
@@ -8425,25 +8651,31 @@
         <v>19.98710627400779</v>
       </c>
       <c r="BK38" t="n">
-        <v>13.56654021244316</v>
+        <v>23.91109263657965</v>
       </c>
       <c r="BL38" t="n">
-        <v>23.91109263657965</v>
+        <v>14.9</v>
       </c>
       <c r="BM38" t="n">
-        <v>14.9</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BN38" t="n">
-        <v>0.6999999999999993</v>
+        <v>4.01</v>
       </c>
       <c r="BO38" t="n">
-        <v>4.01</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BP38" t="n">
-        <v>-3.609999999999999</v>
+        <v>4</v>
       </c>
       <c r="BQ38" t="n">
-        <v>4</v>
+        <v>13.29783004552358</v>
+      </c>
+      <c r="BR38" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS38" t="n">
+        <v>6.689276228484209</v>
       </c>
     </row>
     <row r="39">
@@ -8634,25 +8866,31 @@
         <v>19.30622279129335</v>
       </c>
       <c r="BK39" t="n">
-        <v>12.89037936267072</v>
+        <v>22.45299287410929</v>
       </c>
       <c r="BL39" t="n">
-        <v>22.45299287410929</v>
+        <v>16.81666666666667</v>
       </c>
       <c r="BM39" t="n">
-        <v>16.81666666666667</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BN39" t="n">
-        <v>0.4100000000000001</v>
+        <v>3</v>
       </c>
       <c r="BO39" t="n">
-        <v>3</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BP39" t="n">
-        <v>-4.199999999999999</v>
+        <v>2</v>
       </c>
       <c r="BQ39" t="n">
-        <v>2</v>
+        <v>12.72827010622159</v>
+      </c>
+      <c r="BR39" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS39" t="n">
+        <v>6.577952685071757</v>
       </c>
     </row>
     <row r="40">
@@ -8843,25 +9081,31 @@
         <v>18.86649167733685</v>
       </c>
       <c r="BK40" t="n">
-        <v>12.90455235204863</v>
+        <v>21.30249406175775</v>
       </c>
       <c r="BL40" t="n">
-        <v>21.30249406175775</v>
+        <v>12.46666666666667</v>
       </c>
       <c r="BM40" t="n">
-        <v>12.46666666666667</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="BN40" t="n">
-        <v>0.3899999999999988</v>
+        <v>2.5</v>
       </c>
       <c r="BO40" t="n">
-        <v>2.5</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP40" t="n">
-        <v>-3.699999999999999</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ40" t="n">
-        <v>2.199999999999999</v>
+        <v>12.76816388467374</v>
+      </c>
+      <c r="BR40" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS40" t="n">
+        <v>6.09832779266311</v>
       </c>
     </row>
     <row r="41">
@@ -9052,25 +9296,31 @@
         <v>17.11462227912941</v>
       </c>
       <c r="BK41" t="n">
-        <v>12.69013657056153</v>
+        <v>18.26256532066512</v>
       </c>
       <c r="BL41" t="n">
-        <v>18.26256532066512</v>
+        <v>19.01666666666667</v>
       </c>
       <c r="BM41" t="n">
-        <v>19.01666666666667</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN41" t="n">
-        <v>0.3000000000000007</v>
+        <v>2</v>
       </c>
       <c r="BO41" t="n">
-        <v>2</v>
+        <v>-3.9</v>
       </c>
       <c r="BP41" t="n">
-        <v>-3.9</v>
+        <v>-3.109999999999999</v>
       </c>
       <c r="BQ41" t="n">
-        <v>-3.109999999999999</v>
+        <v>12.6481638846738</v>
+      </c>
+      <c r="BR41" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BS41" t="n">
+        <v>4.466458394455602</v>
       </c>
     </row>
     <row r="42">
@@ -9261,25 +9511,31 @@
         <v>21.64829705505775</v>
       </c>
       <c r="BK42" t="n">
-        <v>12.94030349013665</v>
+        <v>25.29817102137778</v>
       </c>
       <c r="BL42" t="n">
-        <v>25.29817102137778</v>
+        <v>16.93333333333333</v>
       </c>
       <c r="BM42" t="n">
-        <v>16.93333333333333</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BN42" t="n">
-        <v>0.3100000000000005</v>
+        <v>4</v>
       </c>
       <c r="BO42" t="n">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="BP42" t="n">
-        <v>-4</v>
+        <v>4.289999999999999</v>
       </c>
       <c r="BQ42" t="n">
-        <v>4.289999999999999</v>
+        <v>12.92887708649469</v>
+      </c>
+      <c r="BR42" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS42" t="n">
+        <v>8.719419968563059</v>
       </c>
     </row>
     <row r="43">
@@ -9470,25 +9726,31 @@
         <v>20.2596927016647</v>
       </c>
       <c r="BK43" t="n">
-        <v>13.08922610015177</v>
+        <v>22.4433729216153</v>
       </c>
       <c r="BL43" t="n">
-        <v>22.4433729216153</v>
+        <v>19.53333333333333</v>
       </c>
       <c r="BM43" t="n">
-        <v>19.53333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BN43" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="BO43" t="n">
-        <v>2.9</v>
+        <v>-3.81</v>
       </c>
       <c r="BP43" t="n">
-        <v>-3.81</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ43" t="n">
-        <v>1.890000000000001</v>
+        <v>13.21869499241279</v>
+      </c>
+      <c r="BR43" t="n">
+        <v>7.466666666666667</v>
+      </c>
+      <c r="BS43" t="n">
+        <v>7.040997709251911</v>
       </c>
     </row>
     <row r="44">
@@ -9679,25 +9941,31 @@
         <v>22.03921895006416</v>
       </c>
       <c r="BK44" t="n">
-        <v>13.15874051593327</v>
+        <v>25.27543942992884</v>
       </c>
       <c r="BL44" t="n">
-        <v>25.27543942992884</v>
+        <v>16.08333333333333</v>
       </c>
       <c r="BM44" t="n">
-        <v>16.08333333333333</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BN44" t="n">
-        <v>0.4000000000000004</v>
+        <v>3.109999999999999</v>
       </c>
       <c r="BO44" t="n">
-        <v>3.109999999999999</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BP44" t="n">
-        <v>-3.609999999999999</v>
+        <v>4.890000000000001</v>
       </c>
       <c r="BQ44" t="n">
-        <v>4.890000000000001</v>
+        <v>13.27830045523515</v>
+      </c>
+      <c r="BR44" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS44" t="n">
+        <v>8.760918494829008</v>
       </c>
     </row>
     <row r="45">
@@ -9888,25 +10156,31 @@
         <v>21.72996158770817</v>
       </c>
       <c r="BK45" t="n">
-        <v>13.33670713201828</v>
+        <v>24.9895486935868</v>
       </c>
       <c r="BL45" t="n">
-        <v>24.9895486935868</v>
+        <v>8.683333333333334</v>
       </c>
       <c r="BM45" t="n">
-        <v>8.683333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="BN45" t="n">
-        <v>0.5</v>
+        <v>4.700000000000001</v>
       </c>
       <c r="BO45" t="n">
-        <v>4.700000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="BP45" t="n">
-        <v>-3.5</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="BQ45" t="n">
-        <v>4.789999999999999</v>
+        <v>12.9387405159333</v>
+      </c>
+      <c r="BR45" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS45" t="n">
+        <v>8.791221071774878</v>
       </c>
     </row>
     <row r="46">
@@ -10097,25 +10371,31 @@
         <v>22.2275800256083</v>
       </c>
       <c r="BK46" t="n">
-        <v>13.20638846737484</v>
+        <v>25.5982897862234</v>
       </c>
       <c r="BL46" t="n">
-        <v>25.5982897862234</v>
+        <v>14</v>
       </c>
       <c r="BM46" t="n">
-        <v>14</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BN46" t="n">
-        <v>0.2999999999999989</v>
+        <v>2.489999999999998</v>
       </c>
       <c r="BO46" t="n">
-        <v>2.489999999999998</v>
+        <v>-3.9</v>
       </c>
       <c r="BP46" t="n">
-        <v>-3.9</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="BQ46" t="n">
-        <v>5.390000000000001</v>
+        <v>13.61189681335362</v>
+      </c>
+      <c r="BR46" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS46" t="n">
+        <v>8.61568321225468</v>
       </c>
     </row>
     <row r="47">
@@ -10306,25 +10586,31 @@
         <v>18.95548015364929</v>
       </c>
       <c r="BK47" t="n">
-        <v>12.92579666160856</v>
+        <v>21.93494061757724</v>
       </c>
       <c r="BL47" t="n">
-        <v>21.93494061757724</v>
+        <v>18.68333333333333</v>
       </c>
       <c r="BM47" t="n">
-        <v>18.68333333333333</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BN47" t="n">
-        <v>0.3900000000000006</v>
+        <v>3.489999999999998</v>
       </c>
       <c r="BO47" t="n">
-        <v>3.489999999999998</v>
+        <v>-4.109999999999999</v>
       </c>
       <c r="BP47" t="n">
-        <v>-4.109999999999999</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ47" t="n">
-        <v>0.1000000000000014</v>
+        <v>12.79405159332329</v>
+      </c>
+      <c r="BR47" t="n">
+        <v>10.73333333333333</v>
+      </c>
+      <c r="BS47" t="n">
+        <v>6.161428560325994</v>
       </c>
     </row>
     <row r="48">
@@ -10515,25 +10801,31 @@
         <v>21.32679897567235</v>
       </c>
       <c r="BK48" t="n">
-        <v>13.35062215477997</v>
+        <v>24.11859857482195</v>
       </c>
       <c r="BL48" t="n">
-        <v>24.11859857482195</v>
+        <v>16.63333333333333</v>
       </c>
       <c r="BM48" t="n">
-        <v>16.63333333333333</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BN48" t="n">
-        <v>0.2999999999999989</v>
+        <v>3.5</v>
       </c>
       <c r="BO48" t="n">
-        <v>3.5</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP48" t="n">
-        <v>-3.699999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="BQ48" t="n">
-        <v>2.5</v>
+        <v>13.41640364188164</v>
+      </c>
+      <c r="BR48" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS48" t="n">
+        <v>7.910395333790712</v>
       </c>
     </row>
     <row r="49">
@@ -10724,25 +11016,31 @@
         <v>20.24532650448156</v>
       </c>
       <c r="BK49" t="n">
-        <v>13.38186646433998</v>
+        <v>22.31432304038013</v>
       </c>
       <c r="BL49" t="n">
-        <v>22.31432304038013</v>
+        <v>11.3</v>
       </c>
       <c r="BM49" t="n">
-        <v>11.3</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BN49" t="n">
-        <v>0.2900000000000009</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BO49" t="n">
-        <v>3.300000000000001</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP49" t="n">
-        <v>-3.699999999999999</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ49" t="n">
-        <v>2.199999999999999</v>
+        <v>13.42685887708653</v>
+      </c>
+      <c r="BR49" t="n">
+        <v>10.83333333333333</v>
+      </c>
+      <c r="BS49" t="n">
+        <v>6.818467627395037</v>
       </c>
     </row>
     <row r="50">
@@ -10933,25 +11231,31 @@
         <v>19.63857874519858</v>
       </c>
       <c r="BK50" t="n">
-        <v>12.90054628224586</v>
+        <v>22.13114014251786</v>
       </c>
       <c r="BL50" t="n">
-        <v>22.13114014251786</v>
+        <v>14.63333333333333</v>
       </c>
       <c r="BM50" t="n">
-        <v>14.63333333333333</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BN50" t="n">
-        <v>0.1999999999999993</v>
+        <v>3.5</v>
       </c>
       <c r="BO50" t="n">
-        <v>3.5</v>
+        <v>-4</v>
       </c>
       <c r="BP50" t="n">
-        <v>-4</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BQ50" t="n">
-        <v>1.699999999999999</v>
+        <v>12.92817905918062</v>
+      </c>
+      <c r="BR50" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS50" t="n">
+        <v>6.710399686017967</v>
       </c>
     </row>
     <row r="51">
@@ -11142,25 +11446,31 @@
         <v>21.7522663252242</v>
       </c>
       <c r="BK51" t="n">
-        <v>13.27276176024282</v>
+        <v>24.46567695962006</v>
       </c>
       <c r="BL51" t="n">
-        <v>24.46567695962006</v>
+        <v>6.95</v>
       </c>
       <c r="BM51" t="n">
-        <v>6.95</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN51" t="n">
-        <v>0.3000000000000007</v>
+        <v>4.210000000000001</v>
       </c>
       <c r="BO51" t="n">
-        <v>4.210000000000001</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP51" t="n">
-        <v>-3.699999999999999</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BQ51" t="n">
-        <v>2.890000000000001</v>
+        <v>13.4491502276177</v>
+      </c>
+      <c r="BR51" t="n">
+        <v>9.716666666666667</v>
+      </c>
+      <c r="BS51" t="n">
+        <v>8.303116097606503</v>
       </c>
     </row>
     <row r="52">
@@ -11351,25 +11661,31 @@
         <v>19.32101152368771</v>
       </c>
       <c r="BK52" t="n">
-        <v>13.61740515933237</v>
+        <v>22.43035629453689</v>
       </c>
       <c r="BL52" t="n">
-        <v>22.43035629453689</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="BM52" t="n">
-        <v>20.33333333333333</v>
+        <v>1.290000000000001</v>
       </c>
       <c r="BN52" t="n">
-        <v>1.290000000000001</v>
+        <v>3.289999999999999</v>
       </c>
       <c r="BO52" t="n">
-        <v>3.289999999999999</v>
+        <v>-3.9</v>
       </c>
       <c r="BP52" t="n">
-        <v>-3.9</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BQ52" t="n">
-        <v>0.6999999999999993</v>
+        <v>13.69103186646443</v>
+      </c>
+      <c r="BR52" t="n">
+        <v>1.683333333333333</v>
+      </c>
+      <c r="BS52" t="n">
+        <v>5.629979657223275</v>
       </c>
     </row>
     <row r="53">
@@ -11560,25 +11876,31 @@
         <v>20.23701664532664</v>
       </c>
       <c r="BK53" t="n">
-        <v>13.74590288315633</v>
+        <v>22.79693586698345</v>
       </c>
       <c r="BL53" t="n">
-        <v>22.79693586698345</v>
+        <v>17.71666666666667</v>
       </c>
       <c r="BM53" t="n">
-        <v>17.71666666666667</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BN53" t="n">
-        <v>0.2999999999999989</v>
+        <v>3.710000000000001</v>
       </c>
       <c r="BO53" t="n">
-        <v>3.710000000000001</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BP53" t="n">
-        <v>-3.199999999999999</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BQ53" t="n">
-        <v>0.6000000000000014</v>
+        <v>13.45594840667676</v>
+      </c>
+      <c r="BR53" t="n">
+        <v>6.533333333333333</v>
+      </c>
+      <c r="BS53" t="n">
+        <v>6.781068238649878</v>
       </c>
     </row>
     <row r="54">
@@ -11769,25 +12091,31 @@
         <v>19.80697823303468</v>
       </c>
       <c r="BK54" t="n">
-        <v>12.98176024279218</v>
+        <v>23.37363420427559</v>
       </c>
       <c r="BL54" t="n">
-        <v>23.37363420427559</v>
+        <v>18.2</v>
       </c>
       <c r="BM54" t="n">
-        <v>18.2</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BN54" t="n">
-        <v>0.7999999999999989</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="BO54" t="n">
-        <v>5.199999999999999</v>
+        <v>-4</v>
       </c>
       <c r="BP54" t="n">
-        <v>-4</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BQ54" t="n">
-        <v>0.7899999999999991</v>
+        <v>12.85133535660098</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS54" t="n">
+        <v>6.9556428764337</v>
       </c>
     </row>
     <row r="55">
@@ -11978,25 +12306,31 @@
         <v>22.75122919334198</v>
       </c>
       <c r="BK55" t="n">
-        <v>13.3671320182094</v>
+        <v>25.9292161520191</v>
       </c>
       <c r="BL55" t="n">
-        <v>25.9292161520191</v>
+        <v>14.65</v>
       </c>
       <c r="BM55" t="n">
-        <v>14.65</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BN55" t="n">
-        <v>0.2999999999999989</v>
+        <v>5.1</v>
       </c>
       <c r="BO55" t="n">
-        <v>5.1</v>
+        <v>-3.9</v>
       </c>
       <c r="BP55" t="n">
-        <v>-3.9</v>
+        <v>4.199999999999999</v>
       </c>
       <c r="BQ55" t="n">
-        <v>4.199999999999999</v>
+        <v>13.42749620637333</v>
+      </c>
+      <c r="BR55" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BS55" t="n">
+        <v>9.323732986968659</v>
       </c>
     </row>
     <row r="56">
@@ -12187,25 +12521,31 @@
         <v>21.36222791293228</v>
       </c>
       <c r="BK56" t="n">
-        <v>13.88620637329288</v>
+        <v>23.54957244655591</v>
       </c>
       <c r="BL56" t="n">
-        <v>23.54957244655591</v>
+        <v>17.06666666666667</v>
       </c>
       <c r="BM56" t="n">
-        <v>17.06666666666667</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BN56" t="n">
-        <v>0.2000000000000011</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BO56" t="n">
-        <v>3.890000000000001</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BP56" t="n">
-        <v>-3.609999999999999</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="BQ56" t="n">
-        <v>4.789999999999999</v>
+        <v>13.98148710166931</v>
+      </c>
+      <c r="BR56" t="n">
+        <v>3.533333333333333</v>
+      </c>
+      <c r="BS56" t="n">
+        <v>7.380740811262967</v>
       </c>
     </row>
     <row r="57">
@@ -12396,25 +12736,31 @@
         <v>13.86961656441721</v>
       </c>
       <c r="BK57" t="n">
-        <v>12.91845220030355</v>
+        <v>13.562602739726</v>
       </c>
       <c r="BL57" t="n">
-        <v>13.562602739726</v>
+        <v>12.23333333333333</v>
       </c>
       <c r="BM57" t="n">
-        <v>12.23333333333333</v>
+        <v>0.2000000000000011</v>
       </c>
       <c r="BN57" t="n">
-        <v>0.2000000000000011</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BO57" t="n">
-        <v>0.1999999999999993</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP57" t="n">
-        <v>-3.699999999999999</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="BQ57" t="n">
-        <v>-9.300000000000001</v>
+        <v>12.92818950930632</v>
+      </c>
+      <c r="BR57" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS57" t="n">
+        <v>0.9414270551108892</v>
       </c>
     </row>
     <row r="58">
@@ -12605,25 +12951,31 @@
         <v>19.83131882202318</v>
       </c>
       <c r="BK58" t="n">
-        <v>13.04972927241969</v>
+        <v>21.67686460807604</v>
       </c>
       <c r="BL58" t="n">
-        <v>21.67686460807604</v>
+        <v>6.85</v>
       </c>
       <c r="BM58" t="n">
-        <v>6.85</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BN58" t="n">
-        <v>0.2099999999999991</v>
+        <v>2.899999999999999</v>
       </c>
       <c r="BO58" t="n">
-        <v>2.899999999999999</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BP58" t="n">
-        <v>-3.609999999999999</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BQ58" t="n">
-        <v>2.289999999999999</v>
+        <v>12.78579666160858</v>
+      </c>
+      <c r="BR58" t="n">
+        <v>10.71666666666667</v>
+      </c>
+      <c r="BS58" t="n">
+        <v>7.045522160414606</v>
       </c>
     </row>
     <row r="59">
@@ -12814,25 +13166,31 @@
         <v>22.19254801536503</v>
       </c>
       <c r="BK59" t="n">
-        <v>13.22775417298935</v>
+        <v>24.74959619952504</v>
       </c>
       <c r="BL59" t="n">
-        <v>24.74959619952504</v>
+        <v>15.73333333333333</v>
       </c>
       <c r="BM59" t="n">
-        <v>15.73333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BN59" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="BO59" t="n">
-        <v>4.5</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP59" t="n">
-        <v>-3.699999999999999</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BQ59" t="n">
-        <v>2.789999999999999</v>
+        <v>13.36866464339919</v>
+      </c>
+      <c r="BR59" t="n">
+        <v>10.98333333333333</v>
+      </c>
+      <c r="BS59" t="n">
+        <v>8.823883371965838</v>
       </c>
     </row>
     <row r="60">
@@ -13023,25 +13381,31 @@
         <v>22.25719275549818</v>
       </c>
       <c r="BK60" t="n">
-        <v>14.29098231827115</v>
+        <v>24.99820823244565</v>
       </c>
       <c r="BL60" t="n">
-        <v>24.99820823244565</v>
+        <v>13.15</v>
       </c>
       <c r="BM60" t="n">
-        <v>13.15</v>
+        <v>0.2099999999999991</v>
       </c>
       <c r="BN60" t="n">
-        <v>0.2099999999999991</v>
+        <v>3.690000000000001</v>
       </c>
       <c r="BO60" t="n">
-        <v>3.690000000000001</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP60" t="n">
-        <v>-3.699999999999999</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BQ60" t="n">
-        <v>2.289999999999999</v>
+        <v>16.35571709233795</v>
+      </c>
+      <c r="BR60" t="n">
+        <v>2.483333333333333</v>
+      </c>
+      <c r="BS60" t="n">
+        <v>5.901475663160227</v>
       </c>
     </row>
     <row r="61">
@@ -13232,25 +13596,31 @@
         <v>21.90093469910384</v>
       </c>
       <c r="BK61" t="n">
-        <v>17.49183611532641</v>
+        <v>23.86014251781479</v>
       </c>
       <c r="BL61" t="n">
-        <v>23.86014251781479</v>
+        <v>3.35</v>
       </c>
       <c r="BM61" t="n">
-        <v>3.35</v>
+        <v>0.3100000000000005</v>
       </c>
       <c r="BN61" t="n">
-        <v>0.3100000000000005</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BO61" t="n">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="BP61" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="BP61" t="n">
-        <v>-0.9000000000000004</v>
-      </c>
       <c r="BQ61" t="n">
-        <v>1.600000000000001</v>
+        <v>18.42000000000011</v>
+      </c>
+      <c r="BR61" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BS61" t="n">
+        <v>3.480934699103727</v>
       </c>
     </row>
     <row r="62">
@@ -13441,25 +13811,31 @@
         <v>19.30829705505775</v>
       </c>
       <c r="BK62" t="n">
-        <v>16.1016691957511</v>
+        <v>21.85895486935873</v>
       </c>
       <c r="BL62" t="n">
-        <v>21.85895486935873</v>
+        <v>7.816666666666666</v>
       </c>
       <c r="BM62" t="n">
-        <v>7.816666666666666</v>
+        <v>1.1</v>
       </c>
       <c r="BN62" t="n">
-        <v>1.1</v>
+        <v>3.51</v>
       </c>
       <c r="BO62" t="n">
-        <v>3.51</v>
+        <v>-3.699999999999999</v>
       </c>
       <c r="BP62" t="n">
-        <v>-3.699999999999999</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ62" t="n">
-        <v>0.1000000000000014</v>
+        <v>12.35792109256455</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS62" t="n">
+        <v>6.950375962493199</v>
       </c>
     </row>
     <row r="63">
@@ -13650,25 +14026,31 @@
         <v>21.30670934699118</v>
       </c>
       <c r="BK63" t="n">
-        <v>12.59916540212447</v>
+        <v>24.74935866983381</v>
       </c>
       <c r="BL63" t="n">
-        <v>24.74935866983381</v>
+        <v>14.03333333333333</v>
       </c>
       <c r="BM63" t="n">
-        <v>14.03333333333333</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BN63" t="n">
-        <v>0.5899999999999999</v>
+        <v>4.109999999999999</v>
       </c>
       <c r="BO63" t="n">
-        <v>4.109999999999999</v>
+        <v>-6.9</v>
       </c>
       <c r="BP63" t="n">
-        <v>-6.9</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ63" t="n">
-        <v>2.199999999999999</v>
+        <v>13.45552352048566</v>
+      </c>
+      <c r="BR63" t="n">
+        <v>1.966666666666667</v>
+      </c>
+      <c r="BS63" t="n">
+        <v>7.851185826505525</v>
       </c>
     </row>
     <row r="64">
@@ -13859,25 +14241,31 @@
         <v>19.84774647887338</v>
       </c>
       <c r="BK64" t="n">
-        <v>13.75681335356603</v>
+        <v>22.34866983372932</v>
       </c>
       <c r="BL64" t="n">
-        <v>22.34866983372932</v>
+        <v>8.833333333333334</v>
       </c>
       <c r="BM64" t="n">
-        <v>8.833333333333334</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BN64" t="n">
-        <v>0.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="BO64" t="n">
-        <v>2.5</v>
+        <v>-4.4</v>
       </c>
       <c r="BP64" t="n">
-        <v>-4.4</v>
+        <v>0</v>
       </c>
       <c r="BQ64" t="n">
-        <v>0</v>
+        <v>14.18588770864947</v>
+      </c>
+      <c r="BR64" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS64" t="n">
+        <v>5.661858770223905</v>
       </c>
     </row>
     <row r="65">
@@ -14068,25 +14456,31 @@
         <v>17.62934699103724</v>
       </c>
       <c r="BK65" t="n">
-        <v>13.08834597875574</v>
+        <v>20.67942992874113</v>
       </c>
       <c r="BL65" t="n">
-        <v>20.67942992874113</v>
+        <v>7.633333333333334</v>
       </c>
       <c r="BM65" t="n">
-        <v>7.633333333333334</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="BN65" t="n">
-        <v>0.4000000000000004</v>
+        <v>4.01</v>
       </c>
       <c r="BO65" t="n">
-        <v>4.01</v>
+        <v>-4.9</v>
       </c>
       <c r="BP65" t="n">
-        <v>-4.9</v>
+        <v>-1.300000000000001</v>
       </c>
       <c r="BQ65" t="n">
-        <v>-1.300000000000001</v>
+        <v>12.00579666160861</v>
+      </c>
+      <c r="BR65" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS65" t="n">
+        <v>5.623550329428625</v>
       </c>
     </row>
     <row r="66">
@@ -14277,25 +14671,31 @@
         <v>18.06892445582597</v>
       </c>
       <c r="BK66" t="n">
-        <v>12.0870106221548</v>
+        <v>22.10187648456064</v>
       </c>
       <c r="BL66" t="n">
-        <v>22.10187648456064</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="BM66" t="n">
-        <v>9.699999999999999</v>
+        <v>0.08999999999999986</v>
       </c>
       <c r="BN66" t="n">
-        <v>0.08999999999999986</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="BO66" t="n">
-        <v>4.399999999999999</v>
+        <v>-5.199999999999999</v>
       </c>
       <c r="BP66" t="n">
-        <v>-5.199999999999999</v>
+        <v>-0.3999999999999986</v>
       </c>
       <c r="BQ66" t="n">
-        <v>-0.3999999999999986</v>
+        <v>11.50644916540218</v>
+      </c>
+      <c r="BR66" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS66" t="n">
+        <v>6.562475290423791</v>
       </c>
     </row>
     <row r="67">
@@ -14486,25 +14886,31 @@
         <v>19.08902688860445</v>
       </c>
       <c r="BK67" t="n">
-        <v>11.63954476479518</v>
+        <v>23.38178147268419</v>
       </c>
       <c r="BL67" t="n">
-        <v>23.38178147268419</v>
+        <v>10.53333333333333</v>
       </c>
       <c r="BM67" t="n">
-        <v>10.53333333333333</v>
+        <v>0.2999999999999989</v>
       </c>
       <c r="BN67" t="n">
-        <v>0.2999999999999989</v>
+        <v>4.09</v>
       </c>
       <c r="BO67" t="n">
-        <v>4.09</v>
+        <v>-6.609999999999999</v>
       </c>
       <c r="BP67" t="n">
-        <v>-6.609999999999999</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BQ67" t="n">
-        <v>1.789999999999999</v>
+        <v>12.5318512898331</v>
+      </c>
+      <c r="BR67" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BS67" t="n">
+        <v>6.557175598771352</v>
       </c>
     </row>
     <row r="68">
@@ -14695,25 +15101,31 @@
         <v>20.26690140845083</v>
       </c>
       <c r="BK68" t="n">
-        <v>12.94911987860401</v>
+        <v>24.7471971496438</v>
       </c>
       <c r="BL68" t="n">
-        <v>24.7471971496438</v>
+        <v>8.133333333333333</v>
       </c>
       <c r="BM68" t="n">
-        <v>8.133333333333333</v>
+        <v>1.41</v>
       </c>
       <c r="BN68" t="n">
-        <v>1.41</v>
+        <v>4</v>
       </c>
       <c r="BO68" t="n">
-        <v>4</v>
+        <v>-5.609999999999999</v>
       </c>
       <c r="BP68" t="n">
-        <v>-5.609999999999999</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ68" t="n">
-        <v>2.199999999999999</v>
+        <v>12.253899848255</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="BS68" t="n">
+        <v>8.013001560195834</v>
       </c>
     </row>
     <row r="69">
@@ -14904,25 +15316,31 @@
         <v>20.26482714468646</v>
       </c>
       <c r="BK69" t="n">
-        <v>12.27496206373298</v>
+        <v>24.26161520190031</v>
       </c>
       <c r="BL69" t="n">
-        <v>24.26161520190031</v>
+        <v>11.5</v>
       </c>
       <c r="BM69" t="n">
-        <v>11.5</v>
+        <v>0.4100000000000001</v>
       </c>
       <c r="BN69" t="n">
-        <v>0.4100000000000001</v>
+        <v>5.190000000000001</v>
       </c>
       <c r="BO69" t="n">
-        <v>5.190000000000001</v>
+        <v>-6.609999999999999</v>
       </c>
       <c r="BP69" t="n">
-        <v>-6.609999999999999</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ69" t="n">
-        <v>2.100000000000001</v>
+        <v>12.95503793626714</v>
+      </c>
+      <c r="BR69" t="n">
+        <v>0.2666666666666667</v>
+      </c>
+      <c r="BS69" t="n">
+        <v>7.309789208419323</v>
       </c>
     </row>
     <row r="70">
@@ -15113,25 +15531,31 @@
         <v>20.43451984635093</v>
       </c>
       <c r="BK70" t="n">
-        <v>14.1952503793627</v>
+        <v>23.96384798099768</v>
       </c>
       <c r="BL70" t="n">
-        <v>23.96384798099768</v>
+        <v>3.65</v>
       </c>
       <c r="BM70" t="n">
-        <v>3.65</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="BN70" t="n">
-        <v>0.5999999999999996</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BO70" t="n">
-        <v>3.600000000000001</v>
+        <v>-5.5</v>
       </c>
       <c r="BP70" t="n">
-        <v>-5.5</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BQ70" t="n">
-        <v>0.7899999999999991</v>
+        <v>15.40473444613051</v>
+      </c>
+      <c r="BR70" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BS70" t="n">
+        <v>5.029785400220417</v>
       </c>
     </row>
     <row r="71">
@@ -15322,25 +15746,31 @@
         <v>22.26655844155857</v>
       </c>
       <c r="BK71" t="n">
-        <v>16.24224582701073</v>
+        <v>24.83002439024395</v>
       </c>
       <c r="BL71" t="n">
-        <v>24.83002439024395</v>
+        <v>3.25</v>
       </c>
       <c r="BM71" t="n">
-        <v>3.25</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BN71" t="n">
-        <v>0.8000000000000007</v>
+        <v>2.190000000000001</v>
       </c>
       <c r="BO71" t="n">
-        <v>2.190000000000001</v>
+        <v>-4.9</v>
       </c>
       <c r="BP71" t="n">
-        <v>-4.9</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ71" t="n">
-        <v>2.100000000000001</v>
+        <v>18.16679331307</v>
+      </c>
+      <c r="BR71" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BS71" t="n">
+        <v>4.099765128488567</v>
       </c>
     </row>
     <row r="72">
@@ -15531,25 +15961,31 @@
         <v>19.0154172015406</v>
       </c>
       <c r="BK72" t="n">
-        <v>17.31401215805482</v>
+        <v>20.37199524940621</v>
       </c>
       <c r="BL72" t="n">
-        <v>20.37199524940621</v>
+        <v>0.6</v>
       </c>
       <c r="BM72" t="n">
-        <v>0.6</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="BN72" t="n">
-        <v>0.2100000000000009</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BO72" t="n">
-        <v>1.789999999999999</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BP72" t="n">
-        <v>0.1000000000000014</v>
+        <v>-1.710000000000001</v>
       </c>
       <c r="BQ72" t="n">
-        <v>-1.710000000000001</v>
+        <v>16.27644916540218</v>
+      </c>
+      <c r="BR72" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS72" t="n">
+        <v>2.738968036138417</v>
       </c>
     </row>
     <row r="73">
@@ -15740,25 +16176,31 @@
         <v>20.16416133162625</v>
       </c>
       <c r="BK73" t="n">
-        <v>15.10931714719275</v>
+        <v>22.42066508313549</v>
       </c>
       <c r="BL73" t="n">
-        <v>22.42066508313549</v>
+        <v>1.483333333333333</v>
       </c>
       <c r="BM73" t="n">
-        <v>1.483333333333333</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="BN73" t="n">
-        <v>0.5999999999999996</v>
+        <v>3.309999999999999</v>
       </c>
       <c r="BO73" t="n">
-        <v>3.309999999999999</v>
+        <v>-3.609999999999999</v>
       </c>
       <c r="BP73" t="n">
-        <v>-3.609999999999999</v>
+        <v>0</v>
       </c>
       <c r="BQ73" t="n">
-        <v>0</v>
+        <v>12.60776934749627</v>
+      </c>
+      <c r="BR73" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS73" t="n">
+        <v>7.556391984129975</v>
       </c>
     </row>
     <row r="74">
@@ -15949,25 +16391,31 @@
         <v>20.9657106274009</v>
       </c>
       <c r="BK74" t="n">
-        <v>13.13525037936271</v>
+        <v>24.41092636579582</v>
       </c>
       <c r="BL74" t="n">
-        <v>24.41092636579582</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="BM74" t="n">
-        <v>5.733333333333333</v>
+        <v>0.8100000000000005</v>
       </c>
       <c r="BN74" t="n">
-        <v>0.8100000000000005</v>
+        <v>4.599999999999998</v>
       </c>
       <c r="BO74" t="n">
-        <v>4.599999999999998</v>
+        <v>-6.81</v>
       </c>
       <c r="BP74" t="n">
-        <v>-6.81</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ74" t="n">
-        <v>2.100000000000001</v>
+        <v>13.85500758725345</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+      <c r="BS74" t="n">
+        <v>7.110703040147451</v>
       </c>
     </row>
     <row r="75">
@@ -16158,25 +16606,31 @@
         <v>16.0029487179488</v>
       </c>
       <c r="BK75" t="n">
-        <v>13.3931714719272</v>
+        <v>17.82952380952386</v>
       </c>
       <c r="BL75" t="n">
-        <v>17.82952380952386</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="BM75" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BN75" t="n">
-        <v>0.7999999999999989</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BO75" t="n">
-        <v>1.100000000000001</v>
+        <v>-5.609999999999999</v>
       </c>
       <c r="BP75" t="n">
-        <v>-5.609999999999999</v>
+        <v>-5.399999999999999</v>
       </c>
       <c r="BQ75" t="n">
-        <v>-5.399999999999999</v>
+        <v>14.52308042488627</v>
+      </c>
+      <c r="BR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS75" t="n">
+        <v>1.479868293062534</v>
       </c>
     </row>
     <row r="76">
@@ -16367,25 +16821,31 @@
         <v>16.35370038412294</v>
       </c>
       <c r="BK76" t="n">
-        <v>14.1607283763279</v>
+        <v>17.21356294536819</v>
       </c>
       <c r="BL76" t="n">
-        <v>17.21356294536819</v>
+        <v>0</v>
       </c>
       <c r="BM76" t="n">
-        <v>0</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="BN76" t="n">
-        <v>0.3899999999999988</v>
+        <v>1.389999999999999</v>
       </c>
       <c r="BO76" t="n">
-        <v>1.389999999999999</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BP76" t="n">
-        <v>-2.609999999999999</v>
+        <v>-5.710000000000001</v>
       </c>
       <c r="BQ76" t="n">
-        <v>-5.710000000000001</v>
+        <v>13.55755690440061</v>
+      </c>
+      <c r="BR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS76" t="n">
+        <v>2.796143479722332</v>
       </c>
     </row>
     <row r="77">
@@ -16576,25 +17036,31 @@
         <v>18.92494238156223</v>
       </c>
       <c r="BK77" t="n">
-        <v>13.81007587253416</v>
+        <v>20.37852731591455</v>
       </c>
       <c r="BL77" t="n">
-        <v>20.37852731591455</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="BM77" t="n">
-        <v>2.133333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="BN77" t="n">
-        <v>0.5</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BO77" t="n">
-        <v>2.109999999999999</v>
+        <v>-3.5</v>
       </c>
       <c r="BP77" t="n">
-        <v>-3.5</v>
+        <v>-1</v>
       </c>
       <c r="BQ77" t="n">
-        <v>-1</v>
+        <v>13.18696509863435</v>
+      </c>
+      <c r="BR77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS77" t="n">
+        <v>5.737977282927883</v>
       </c>
     </row>
     <row r="78">
@@ -16785,25 +17251,31 @@
         <v>14.39588988476315</v>
       </c>
       <c r="BK78" t="n">
-        <v>11.86094081942339</v>
+        <v>16.24938242280286</v>
       </c>
       <c r="BL78" t="n">
-        <v>16.24938242280286</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="BM78" t="n">
-        <v>1.733333333333333</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BN78" t="n">
-        <v>0.5899999999999999</v>
+        <v>1.609999999999999</v>
       </c>
       <c r="BO78" t="n">
-        <v>1.609999999999999</v>
+        <v>-5.31</v>
       </c>
       <c r="BP78" t="n">
-        <v>-5.31</v>
+        <v>-5</v>
       </c>
       <c r="BQ78" t="n">
-        <v>-5</v>
+        <v>11.19714719271629</v>
+      </c>
+      <c r="BR78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS78" t="n">
+        <v>3.19874269204686</v>
       </c>
     </row>
     <row r="79">
@@ -16994,25 +17466,31 @@
         <v>21.01859154929591</v>
       </c>
       <c r="BK79" t="n">
-        <v>12.26289833080432</v>
+        <v>24.27185273159155</v>
       </c>
       <c r="BL79" t="n">
-        <v>24.27185273159155</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="BM79" t="n">
-        <v>6.583333333333333</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BN79" t="n">
-        <v>0.9100000000000001</v>
+        <v>4.910000000000002</v>
       </c>
       <c r="BO79" t="n">
-        <v>4.910000000000002</v>
+        <v>-6.31</v>
       </c>
       <c r="BP79" t="n">
-        <v>-6.31</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BQ79" t="n">
-        <v>1.699999999999999</v>
+        <v>11.70326251896817</v>
+      </c>
+      <c r="BR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS79" t="n">
+        <v>9.315329030327737</v>
       </c>
     </row>
     <row r="80">
@@ -17203,25 +17681,31 @@
         <v>18.02481434058911</v>
       </c>
       <c r="BK80" t="n">
-        <v>11.84474962063736</v>
+        <v>21.1592874109264</v>
       </c>
       <c r="BL80" t="n">
-        <v>21.1592874109264</v>
+        <v>7.066666666666666</v>
       </c>
       <c r="BM80" t="n">
-        <v>7.066666666666666</v>
+        <v>1</v>
       </c>
       <c r="BN80" t="n">
-        <v>1</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="BO80" t="n">
-        <v>4.390000000000001</v>
+        <v>-7.609999999999999</v>
       </c>
       <c r="BP80" t="n">
-        <v>-7.609999999999999</v>
+        <v>-0.8000000000000007</v>
       </c>
       <c r="BQ80" t="n">
-        <v>-0.8000000000000007</v>
+        <v>12.40506828528079</v>
+      </c>
+      <c r="BR80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS80" t="n">
+        <v>5.619746055308315</v>
       </c>
     </row>
     <row r="81">
@@ -17412,25 +17896,31 @@
         <v>20.08355953905261</v>
       </c>
       <c r="BK81" t="n">
-        <v>12.92262518968135</v>
+        <v>23.26432304038012</v>
       </c>
       <c r="BL81" t="n">
-        <v>23.26432304038012</v>
+        <v>3.1</v>
       </c>
       <c r="BM81" t="n">
-        <v>3.1</v>
+        <v>0.8100000000000005</v>
       </c>
       <c r="BN81" t="n">
-        <v>0.8100000000000005</v>
+        <v>4.899999999999999</v>
       </c>
       <c r="BO81" t="n">
-        <v>4.899999999999999</v>
+        <v>-6.31</v>
       </c>
       <c r="BP81" t="n">
-        <v>-6.31</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ81" t="n">
-        <v>0.1000000000000014</v>
+        <v>14.48786039453721</v>
+      </c>
+      <c r="BR81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS81" t="n">
+        <v>5.595699144515397</v>
       </c>
     </row>
     <row r="82">
@@ -17621,25 +18111,31 @@
         <v>19.69056338028181</v>
       </c>
       <c r="BK82" t="n">
-        <v>14.53875569044007</v>
+        <v>22.85802850356303</v>
       </c>
       <c r="BL82" t="n">
-        <v>22.85802850356303</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="BM82" t="n">
-        <v>1.066666666666667</v>
+        <v>0.6100000000000012</v>
       </c>
       <c r="BN82" t="n">
-        <v>0.6100000000000012</v>
+        <v>4.710000000000001</v>
       </c>
       <c r="BO82" t="n">
-        <v>4.710000000000001</v>
+        <v>-3.31</v>
       </c>
       <c r="BP82" t="n">
-        <v>-3.31</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BQ82" t="n">
-        <v>0.8900000000000006</v>
+        <v>14.42148710166927</v>
+      </c>
+      <c r="BR82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS82" t="n">
+        <v>5.269076278612534</v>
       </c>
     </row>
     <row r="83">
@@ -17830,25 +18326,31 @@
         <v>20.29476804123728</v>
       </c>
       <c r="BK83" t="n">
-        <v>15.11610015174506</v>
+        <v>24.06704326923084</v>
       </c>
       <c r="BL83" t="n">
-        <v>24.06704326923084</v>
+        <v>1.4</v>
       </c>
       <c r="BM83" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="BN83" t="n">
-        <v>0.5</v>
+        <v>5.09</v>
       </c>
       <c r="BO83" t="n">
-        <v>5.09</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BP83" t="n">
-        <v>-3.199999999999999</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BQ83" t="n">
-        <v>0.7899999999999991</v>
+        <v>14.84347496206374</v>
+      </c>
+      <c r="BR83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS83" t="n">
+        <v>5.451293079173547</v>
       </c>
     </row>
     <row r="84">
@@ -18039,25 +18541,31 @@
         <v>21.57443021766977</v>
       </c>
       <c r="BK84" t="n">
-        <v>15.42078907435513</v>
+        <v>24.87546318289795</v>
       </c>
       <c r="BL84" t="n">
-        <v>24.87546318289795</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="BM84" t="n">
-        <v>2.666666666666667</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BN84" t="n">
-        <v>0.6999999999999993</v>
+        <v>4.289999999999999</v>
       </c>
       <c r="BO84" t="n">
-        <v>4.289999999999999</v>
+        <v>-4.699999999999999</v>
       </c>
       <c r="BP84" t="n">
-        <v>-4.699999999999999</v>
+        <v>2.390000000000001</v>
       </c>
       <c r="BQ84" t="n">
-        <v>2.390000000000001</v>
+        <v>16.19728376327769</v>
+      </c>
+      <c r="BR84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS84" t="n">
+        <v>5.377146454392083</v>
       </c>
     </row>
     <row r="85">
@@ -18248,25 +18756,31 @@
         <v>22.30842509603088</v>
       </c>
       <c r="BK85" t="n">
-        <v>16.40930197268599</v>
+        <v>26.04232779097399</v>
       </c>
       <c r="BL85" t="n">
-        <v>26.04232779097399</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="BM85" t="n">
-        <v>1.833333333333333</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BN85" t="n">
-        <v>0.8000000000000007</v>
+        <v>4.390000000000001</v>
       </c>
       <c r="BO85" t="n">
-        <v>4.390000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="BP85" t="n">
-        <v>-3.5</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BQ85" t="n">
-        <v>2.890000000000001</v>
+        <v>17.59376327769355</v>
+      </c>
+      <c r="BR85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS85" t="n">
+        <v>4.714661818337326</v>
       </c>
     </row>
     <row r="86">
@@ -18457,25 +18971,31 @@
         <v>22.66653008962879</v>
       </c>
       <c r="BK86" t="n">
-        <v>17.80133535660105</v>
+        <v>25.54672209026139</v>
       </c>
       <c r="BL86" t="n">
-        <v>25.54672209026139</v>
+        <v>3.216666666666667</v>
       </c>
       <c r="BM86" t="n">
-        <v>3.216666666666667</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BN86" t="n">
-        <v>0.3999999999999986</v>
+        <v>3.210000000000001</v>
       </c>
       <c r="BO86" t="n">
-        <v>3.210000000000001</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BP86" t="n">
-        <v>0.1000000000000014</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BQ86" t="n">
-        <v>1.789999999999999</v>
+        <v>17.90227617602445</v>
+      </c>
+      <c r="BR86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS86" t="n">
+        <v>4.764253913604332</v>
       </c>
     </row>
     <row r="87">
@@ -18666,25 +19186,31 @@
         <v>23.6237772087069</v>
       </c>
       <c r="BK87" t="n">
-        <v>17.96122913505318</v>
+        <v>26.49028503562956</v>
       </c>
       <c r="BL87" t="n">
-        <v>26.49028503562956</v>
+        <v>1.516666666666667</v>
       </c>
       <c r="BM87" t="n">
-        <v>1.516666666666667</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BN87" t="n">
-        <v>1.199999999999999</v>
+        <v>3.809999999999999</v>
       </c>
       <c r="BO87" t="n">
-        <v>3.809999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BP87" t="n">
-        <v>-0.5</v>
+        <v>3.390000000000001</v>
       </c>
       <c r="BQ87" t="n">
-        <v>3.390000000000001</v>
+        <v>17.68802731411233</v>
+      </c>
+      <c r="BR87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS87" t="n">
+        <v>5.935749894594579</v>
       </c>
     </row>
     <row r="88">
@@ -18875,25 +19401,31 @@
         <v>22.45790012804109</v>
       </c>
       <c r="BK88" t="n">
-        <v>17.54754172989388</v>
+        <v>25.39874109263666</v>
       </c>
       <c r="BL88" t="n">
-        <v>25.39874109263666</v>
+        <v>1.783333333333333</v>
       </c>
       <c r="BM88" t="n">
-        <v>1.783333333333333</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BN88" t="n">
-        <v>0.9100000000000001</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="BO88" t="n">
-        <v>3.800000000000001</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BP88" t="n">
-        <v>-1.609999999999999</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BQ88" t="n">
-        <v>1.199999999999999</v>
+        <v>17.45080424886193</v>
+      </c>
+      <c r="BR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS88" t="n">
+        <v>5.007095879179161</v>
       </c>
     </row>
     <row r="89">
@@ -19084,25 +19616,31 @@
         <v>22.2328681177978</v>
       </c>
       <c r="BK89" t="n">
-        <v>17.80942336874063</v>
+        <v>25.41465558194783</v>
       </c>
       <c r="BL89" t="n">
-        <v>25.41465558194783</v>
+        <v>2.1</v>
       </c>
       <c r="BM89" t="n">
-        <v>2.1</v>
+        <v>1.01</v>
       </c>
       <c r="BN89" t="n">
-        <v>1.01</v>
+        <v>2.900000000000002</v>
       </c>
       <c r="BO89" t="n">
-        <v>2.900000000000002</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BP89" t="n">
-        <v>-0.8100000000000005</v>
+        <v>2.699999999999999</v>
       </c>
       <c r="BQ89" t="n">
-        <v>2.699999999999999</v>
+        <v>18.24981790591815</v>
+      </c>
+      <c r="BR89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS89" t="n">
+        <v>3.983050211879647</v>
       </c>
     </row>
     <row r="90">
@@ -19293,25 +19831,31 @@
         <v>23.68790012804107</v>
       </c>
       <c r="BK90" t="n">
-        <v>18.51435508345989</v>
+        <v>26.64353919239916</v>
       </c>
       <c r="BL90" t="n">
-        <v>26.64353919239916</v>
+        <v>2.633333333333333</v>
       </c>
       <c r="BM90" t="n">
-        <v>2.633333333333333</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="BN90" t="n">
-        <v>0.5999999999999979</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="BO90" t="n">
-        <v>4.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="BP90" t="n">
-        <v>0</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BQ90" t="n">
-        <v>2.890000000000001</v>
+        <v>18.94251896813359</v>
+      </c>
+      <c r="BR90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS90" t="n">
+        <v>4.745381159907481</v>
       </c>
     </row>
     <row r="91">
@@ -19502,25 +20046,31 @@
         <v>24.13165172855326</v>
       </c>
       <c r="BK91" t="n">
-        <v>19.22056145675279</v>
+        <v>26.22133016627088</v>
       </c>
       <c r="BL91" t="n">
-        <v>26.22133016627088</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="BM91" t="n">
-        <v>2.583333333333333</v>
+        <v>0.3100000000000023</v>
       </c>
       <c r="BN91" t="n">
-        <v>0.3100000000000023</v>
+        <v>3.189999999999998</v>
       </c>
       <c r="BO91" t="n">
-        <v>3.189999999999998</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BP91" t="n">
-        <v>1.289999999999999</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BQ91" t="n">
-        <v>2.890000000000001</v>
+        <v>20.28723823975743</v>
+      </c>
+      <c r="BR91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS91" t="n">
+        <v>3.844413488795826</v>
       </c>
     </row>
     <row r="92">
@@ -19711,25 +20261,31 @@
         <v>22.12149807938556</v>
       </c>
       <c r="BK92" t="n">
-        <v>19.14405159332329</v>
+        <v>23.83142517814739</v>
       </c>
       <c r="BL92" t="n">
-        <v>23.83142517814739</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="BM92" t="n">
-        <v>2.433333333333333</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="BN92" t="n">
-        <v>0.6899999999999977</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BO92" t="n">
-        <v>1.399999999999999</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BP92" t="n">
-        <v>1.289999999999999</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BQ92" t="n">
-        <v>1.699999999999999</v>
+        <v>17.64675265553877</v>
+      </c>
+      <c r="BR92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS92" t="n">
+        <v>4.474745423846795</v>
       </c>
     </row>
     <row r="93">
@@ -19920,25 +20476,31 @@
         <v>16.74706786171584</v>
       </c>
       <c r="BK93" t="n">
-        <v>16.25904400606977</v>
+        <v>16.85114014251785</v>
       </c>
       <c r="BL93" t="n">
-        <v>16.85114014251785</v>
+        <v>0</v>
       </c>
       <c r="BM93" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN93" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="BO93" t="n">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="BP93" t="n">
-        <v>-1</v>
+        <v>-8.399999999999999</v>
       </c>
       <c r="BQ93" t="n">
-        <v>-8.399999999999999</v>
+        <v>15.21511380880114</v>
+      </c>
+      <c r="BR93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS93" t="n">
+        <v>1.531954052914697</v>
       </c>
     </row>
     <row r="94">
@@ -20129,25 +20691,31 @@
         <v>21.1228553137005</v>
       </c>
       <c r="BK94" t="n">
-        <v>15.32931714719272</v>
+        <v>23.61484560570079</v>
       </c>
       <c r="BL94" t="n">
-        <v>23.61484560570079</v>
+        <v>2.966666666666667</v>
       </c>
       <c r="BM94" t="n">
-        <v>2.966666666666667</v>
+        <v>0.2900000000000009</v>
       </c>
       <c r="BN94" t="n">
-        <v>0.2900000000000009</v>
+        <v>1.309999999999999</v>
       </c>
       <c r="BO94" t="n">
-        <v>1.309999999999999</v>
+        <v>-1.4</v>
       </c>
       <c r="BP94" t="n">
-        <v>-1.4</v>
+        <v>3.5</v>
       </c>
       <c r="BQ94" t="n">
-        <v>3.5</v>
+        <v>14.74701062215479</v>
+      </c>
+      <c r="BR94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS94" t="n">
+        <v>6.375844691545707</v>
       </c>
     </row>
     <row r="95">
@@ -20338,25 +20906,31 @@
         <v>22.50873239436628</v>
       </c>
       <c r="BK95" t="n">
-        <v>15.24983308042491</v>
+        <v>26.83731591448939</v>
       </c>
       <c r="BL95" t="n">
-        <v>26.83731591448939</v>
+        <v>2.55</v>
       </c>
       <c r="BM95" t="n">
-        <v>2.55</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="BN95" t="n">
-        <v>0.5899999999999999</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BO95" t="n">
-        <v>5.100000000000001</v>
+        <v>-3.199999999999999</v>
       </c>
       <c r="BP95" t="n">
-        <v>-3.199999999999999</v>
+        <v>7.200000000000003</v>
       </c>
       <c r="BQ95" t="n">
-        <v>7.200000000000003</v>
+        <v>14.65987860394537</v>
+      </c>
+      <c r="BR95" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BS95" t="n">
+        <v>7.848853790420909</v>
       </c>
     </row>
     <row r="96">
@@ -20547,25 +21121,31 @@
         <v>21.86937259923185</v>
       </c>
       <c r="BK96" t="n">
-        <v>15.41136570561465</v>
+        <v>25.73323040380057</v>
       </c>
       <c r="BL96" t="n">
-        <v>25.73323040380057</v>
+        <v>4.5</v>
       </c>
       <c r="BM96" t="n">
-        <v>4.5</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="BN96" t="n">
-        <v>0.9100000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="BO96" t="n">
-        <v>2.5</v>
+        <v>-5.31</v>
       </c>
       <c r="BP96" t="n">
-        <v>-5.31</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BQ96" t="n">
-        <v>3.100000000000001</v>
+        <v>16.61975720789074</v>
+      </c>
+      <c r="BR96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS96" t="n">
+        <v>5.249615391341113</v>
       </c>
     </row>
     <row r="97">
@@ -20756,25 +21336,31 @@
         <v>23.36042253521135</v>
       </c>
       <c r="BK97" t="n">
-        <v>16.62215477996977</v>
+        <v>27.35900237529706</v>
       </c>
       <c r="BL97" t="n">
-        <v>27.35900237529706</v>
+        <v>1.616666666666667</v>
       </c>
       <c r="BM97" t="n">
-        <v>1.616666666666667</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="BN97" t="n">
-        <v>0.9000000000000004</v>
+        <v>4.310000000000002</v>
       </c>
       <c r="BO97" t="n">
-        <v>4.310000000000002</v>
+        <v>-3.4</v>
       </c>
       <c r="BP97" t="n">
-        <v>-3.4</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="BQ97" t="n">
-        <v>5.289999999999999</v>
+        <v>16.25427921092567</v>
+      </c>
+      <c r="BR97" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BS97" t="n">
+        <v>7.106143324285686</v>
       </c>
     </row>
     <row r="98">
@@ -20965,25 +21551,31 @@
         <v>23.15960307298345</v>
       </c>
       <c r="BK98" t="n">
-        <v>17.71367223065262</v>
+        <v>26.77114014251791</v>
       </c>
       <c r="BL98" t="n">
-        <v>26.77114014251791</v>
+        <v>1.4</v>
       </c>
       <c r="BM98" t="n">
-        <v>1.4</v>
+        <v>0.7000000000000011</v>
       </c>
       <c r="BN98" t="n">
-        <v>0.7000000000000011</v>
+        <v>2</v>
       </c>
       <c r="BO98" t="n">
-        <v>2</v>
+        <v>-3.31</v>
       </c>
       <c r="BP98" t="n">
-        <v>-3.31</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="BQ98" t="n">
-        <v>4.600000000000001</v>
+        <v>20.44573596358136</v>
+      </c>
+      <c r="BR98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS98" t="n">
+        <v>2.713867109402095</v>
       </c>
     </row>
     <row r="99">
@@ -21174,25 +21766,31 @@
         <v>24.29606914212558</v>
       </c>
       <c r="BK99" t="n">
-        <v>19.02628224582714</v>
+        <v>26.73745843230411</v>
       </c>
       <c r="BL99" t="n">
-        <v>26.73745843230411</v>
+        <v>2.433333333333333</v>
       </c>
       <c r="BM99" t="n">
-        <v>2.433333333333333</v>
+        <v>1.400000000000002</v>
       </c>
       <c r="BN99" t="n">
-        <v>1.400000000000002</v>
+        <v>4.609999999999999</v>
       </c>
       <c r="BO99" t="n">
-        <v>4.609999999999999</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BP99" t="n">
-        <v>0.8900000000000006</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="BQ99" t="n">
-        <v>4.600000000000001</v>
+        <v>16.67044006069803</v>
+      </c>
+      <c r="BR99" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BS99" t="n">
+        <v>7.625629081427547</v>
       </c>
     </row>
     <row r="100">
@@ -21383,25 +21981,31 @@
         <v>23.31731113956476</v>
       </c>
       <c r="BK100" t="n">
-        <v>16.73306990881472</v>
+        <v>26.63135391924001</v>
       </c>
       <c r="BL100" t="n">
-        <v>26.63135391924001</v>
+        <v>1.816666666666667</v>
       </c>
       <c r="BM100" t="n">
-        <v>1.816666666666667</v>
+        <v>1</v>
       </c>
       <c r="BN100" t="n">
-        <v>1</v>
+        <v>5.210000000000001</v>
       </c>
       <c r="BO100" t="n">
-        <v>5.210000000000001</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BP100" t="n">
-        <v>-2.609999999999999</v>
+        <v>3.390000000000001</v>
       </c>
       <c r="BQ100" t="n">
-        <v>3.390000000000001</v>
+        <v>16.50007598784199</v>
+      </c>
+      <c r="BR100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS100" t="n">
+        <v>6.81723515172277</v>
       </c>
     </row>
     <row r="101">
@@ -21592,25 +22196,31 @@
         <v>21.15580025608207</v>
       </c>
       <c r="BK101" t="n">
-        <v>16.86731411229144</v>
+        <v>23.50463182897872</v>
       </c>
       <c r="BL101" t="n">
-        <v>23.50463182897872</v>
+        <v>4.216666666666667</v>
       </c>
       <c r="BM101" t="n">
-        <v>4.216666666666667</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BN101" t="n">
-        <v>0.7999999999999989</v>
+        <v>1.809999999999999</v>
       </c>
       <c r="BO101" t="n">
-        <v>1.809999999999999</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="BP101" t="n">
-        <v>-2.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="BQ101" t="n">
-        <v>1</v>
+        <v>18.17936267071327</v>
+      </c>
+      <c r="BR101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS101" t="n">
+        <v>2.976437585368796</v>
       </c>
     </row>
     <row r="102">
@@ -21801,25 +22411,31 @@
         <v>16.71482714468643</v>
       </c>
       <c r="BK102" t="n">
-        <v>16.53094081942338</v>
+        <v>17.86629453681712</v>
       </c>
       <c r="BL102" t="n">
-        <v>17.86629453681712</v>
+        <v>0</v>
       </c>
       <c r="BM102" t="n">
-        <v>0</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="BN102" t="n">
-        <v>0.6099999999999994</v>
+        <v>0.4000000000000021</v>
       </c>
       <c r="BO102" t="n">
-        <v>0.4000000000000021</v>
+        <v>-1.81</v>
       </c>
       <c r="BP102" t="n">
-        <v>-1.81</v>
+        <v>-6.109999999999999</v>
       </c>
       <c r="BQ102" t="n">
-        <v>-6.109999999999999</v>
+        <v>14.90253414264037</v>
+      </c>
+      <c r="BR102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS102" t="n">
+        <v>1.812293002046058</v>
       </c>
     </row>
     <row r="103">
@@ -22010,25 +22626,31 @@
         <v>20.78789743589756</v>
       </c>
       <c r="BK103" t="n">
-        <v>15.2108952959029</v>
+        <v>23.2098095238096</v>
       </c>
       <c r="BL103" t="n">
-        <v>23.2098095238096</v>
+        <v>2.816666666666667</v>
       </c>
       <c r="BM103" t="n">
-        <v>2.816666666666667</v>
+        <v>0.6899999999999995</v>
       </c>
       <c r="BN103" t="n">
-        <v>0.6899999999999995</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="BO103" t="n">
-        <v>3.699999999999999</v>
+        <v>-3.5</v>
       </c>
       <c r="BP103" t="n">
-        <v>-3.5</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BQ103" t="n">
-        <v>0.8900000000000006</v>
+        <v>14.62599393019731</v>
+      </c>
+      <c r="BR103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS103" t="n">
+        <v>6.16190350570025</v>
       </c>
     </row>
     <row r="104">
@@ -22219,25 +22841,31 @@
         <v>21.11025641025654</v>
       </c>
       <c r="BK104" t="n">
-        <v>15.38525037936275</v>
+        <v>24.35090261282666</v>
       </c>
       <c r="BL104" t="n">
-        <v>24.35090261282666</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="BM104" t="n">
-        <v>1.416666666666667</v>
+        <v>1.1</v>
       </c>
       <c r="BN104" t="n">
-        <v>1.1</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="BO104" t="n">
-        <v>4.100000000000001</v>
+        <v>-4.109999999999999</v>
       </c>
       <c r="BP104" t="n">
-        <v>-4.109999999999999</v>
+        <v>3</v>
       </c>
       <c r="BQ104" t="n">
-        <v>3</v>
+        <v>16.60619119878603</v>
+      </c>
+      <c r="BR104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS104" t="n">
+        <v>4.504065211470511</v>
       </c>
     </row>
     <row r="105">
@@ -22428,25 +23056,31 @@
         <v>21.56221794871811</v>
       </c>
       <c r="BK105" t="n">
-        <v>16.46890743550846</v>
+        <v>23.73171428571441</v>
       </c>
       <c r="BL105" t="n">
-        <v>23.73171428571441</v>
+        <v>2.05</v>
       </c>
       <c r="BM105" t="n">
-        <v>2.05</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BN105" t="n">
-        <v>0.8000000000000007</v>
+        <v>2.800000000000001</v>
       </c>
       <c r="BO105" t="n">
-        <v>2.800000000000001</v>
+        <v>-2</v>
       </c>
       <c r="BP105" t="n">
-        <v>-2</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BQ105" t="n">
-        <v>1.600000000000001</v>
+        <v>15.94690440060697</v>
+      </c>
+      <c r="BR105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS105" t="n">
+        <v>5.615313548111137</v>
       </c>
     </row>
     <row r="106">
@@ -22637,25 +23271,31 @@
         <v>21.24028169014099</v>
       </c>
       <c r="BK106" t="n">
-        <v>15.79317147192722</v>
+        <v>23.02916864608082</v>
       </c>
       <c r="BL106" t="n">
-        <v>23.02916864608082</v>
+        <v>1.583333333333333</v>
       </c>
       <c r="BM106" t="n">
-        <v>1.583333333333333</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BN106" t="n">
-        <v>0.8000000000000007</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="BO106" t="n">
-        <v>4.100000000000001</v>
+        <v>-3.5</v>
       </c>
       <c r="BP106" t="n">
-        <v>-3.5</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ106" t="n">
-        <v>0.1000000000000014</v>
+        <v>15.38220030349012</v>
+      </c>
+      <c r="BR106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS106" t="n">
+        <v>5.858081386650872</v>
       </c>
     </row>
     <row r="107">
@@ -22846,25 +23486,31 @@
         <v>21.80895006402062</v>
       </c>
       <c r="BK107" t="n">
-        <v>15.87106221547809</v>
+        <v>24.27308788598585</v>
       </c>
       <c r="BL107" t="n">
-        <v>24.27308788598585</v>
+        <v>1.383333333333333</v>
       </c>
       <c r="BM107" t="n">
-        <v>1.383333333333333</v>
+        <v>0.7999999999999989</v>
       </c>
       <c r="BN107" t="n">
-        <v>0.7999999999999989</v>
+        <v>3</v>
       </c>
       <c r="BO107" t="n">
-        <v>3</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BP107" t="n">
-        <v>-4.199999999999999</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BQ107" t="n">
-        <v>0.1999999999999993</v>
+        <v>16.95660578386602</v>
+      </c>
+      <c r="BR107" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BS107" t="n">
+        <v>4.852344280154597</v>
       </c>
     </row>
     <row r="108">
@@ -23055,25 +23701,31 @@
         <v>25.05142125480165</v>
       </c>
       <c r="BK108" t="n">
-        <v>17.51821917808232</v>
+        <v>28.57546318289799</v>
       </c>
       <c r="BL108" t="n">
-        <v>28.57546318289799</v>
+        <v>1.483333333333333</v>
       </c>
       <c r="BM108" t="n">
-        <v>1.483333333333333</v>
+        <v>1.1</v>
       </c>
       <c r="BN108" t="n">
-        <v>1.1</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BO108" t="n">
-        <v>3.300000000000001</v>
+        <v>-2</v>
       </c>
       <c r="BP108" t="n">
-        <v>-2</v>
+        <v>6.590000000000003</v>
       </c>
       <c r="BQ108" t="n">
-        <v>6.590000000000003</v>
+        <v>18.09602427921098</v>
+      </c>
+      <c r="BR108" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BS108" t="n">
+        <v>6.955396975590677</v>
       </c>
     </row>
     <row r="109">
@@ -23264,25 +23916,31 @@
         <v>24.71157490396939</v>
       </c>
       <c r="BK109" t="n">
-        <v>18.20884673748112</v>
+        <v>26.97296912114025</v>
       </c>
       <c r="BL109" t="n">
-        <v>26.97296912114025</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="BM109" t="n">
-        <v>1.666666666666667</v>
+        <v>1.31</v>
       </c>
       <c r="BN109" t="n">
-        <v>1.31</v>
+        <v>0.8099999999999987</v>
       </c>
       <c r="BO109" t="n">
-        <v>0.8099999999999987</v>
+        <v>-1.31</v>
       </c>
       <c r="BP109" t="n">
-        <v>-1.31</v>
+        <v>4.5</v>
       </c>
       <c r="BQ109" t="n">
-        <v>4.5</v>
+        <v>19.12224582701082</v>
+      </c>
+      <c r="BR109" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="BS109" t="n">
+        <v>5.589329076958574</v>
       </c>
     </row>
     <row r="110">
@@ -23473,25 +24131,31 @@
         <v>21.3472215108836</v>
       </c>
       <c r="BK110" t="n">
-        <v>19.32619119878611</v>
+        <v>23.23923990498816</v>
       </c>
       <c r="BL110" t="n">
-        <v>23.23923990498816</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="BM110" t="n">
-        <v>2.866666666666667</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BN110" t="n">
-        <v>0.2899999999999991</v>
+        <v>0.8999999999999986</v>
       </c>
       <c r="BO110" t="n">
-        <v>0.8999999999999986</v>
+        <v>2</v>
       </c>
       <c r="BP110" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="BQ110" t="n">
-        <v>1.5</v>
+        <v>19.70373292867998</v>
+      </c>
+      <c r="BR110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS110" t="n">
+        <v>1.643488582203616</v>
       </c>
     </row>
     <row r="111">
@@ -23682,25 +24346,31 @@
         <v>17.38237179487195</v>
       </c>
       <c r="BK111" t="n">
-        <v>17.91613050075896</v>
+        <v>17.05397619047621</v>
       </c>
       <c r="BL111" t="n">
-        <v>17.05397619047621</v>
+        <v>0</v>
       </c>
       <c r="BM111" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN111" t="n">
-        <v>0.5</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BO111" t="n">
-        <v>1.199999999999999</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="BP111" t="n">
-        <v>-0.4000000000000004</v>
+        <v>-6.109999999999999</v>
       </c>
       <c r="BQ111" t="n">
-        <v>-6.109999999999999</v>
+        <v>16.63632776934753</v>
+      </c>
+      <c r="BR111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS111" t="n">
+        <v>0.7460440255244194</v>
       </c>
     </row>
     <row r="112">
@@ -23891,25 +24561,31 @@
         <v>20.73612035851484</v>
       </c>
       <c r="BK112" t="n">
-        <v>17.46003034901375</v>
+        <v>22.50878859857489</v>
       </c>
       <c r="BL112" t="n">
-        <v>22.50878859857489</v>
+        <v>0</v>
       </c>
       <c r="BM112" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BN112" t="n">
-        <v>0.5</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BO112" t="n">
-        <v>1.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="BP112" t="n">
-        <v>0</v>
+        <v>-2.300000000000001</v>
       </c>
       <c r="BQ112" t="n">
-        <v>-2.300000000000001</v>
+        <v>16.21579027355624</v>
+      </c>
+      <c r="BR112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS112" t="n">
+        <v>4.520330084958591</v>
       </c>
     </row>
     <row r="113">
@@ -24100,25 +24776,31 @@
         <v>22.27167733674784</v>
       </c>
       <c r="BK113" t="n">
-        <v>15.86019786910207</v>
+        <v>24.72206650831358</v>
       </c>
       <c r="BL113" t="n">
-        <v>24.72206650831358</v>
+        <v>1.216666666666667</v>
       </c>
       <c r="BM113" t="n">
-        <v>1.216666666666667</v>
+        <v>2</v>
       </c>
       <c r="BN113" t="n">
-        <v>2</v>
+        <v>3.810000000000002</v>
       </c>
       <c r="BO113" t="n">
-        <v>3.810000000000002</v>
+        <v>-4.199999999999999</v>
       </c>
       <c r="BP113" t="n">
-        <v>-4.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="BQ113" t="n">
-        <v>2.5</v>
+        <v>16.26951367781152</v>
+      </c>
+      <c r="BR113" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="BS113" t="n">
+        <v>6.002163658936311</v>
       </c>
     </row>
     <row r="114">
@@ -24309,25 +24991,31 @@
         <v>22.61852752880936</v>
       </c>
       <c r="BK114" t="n">
-        <v>16.38597875569053</v>
+        <v>24.71456057007134</v>
       </c>
       <c r="BL114" t="n">
-        <v>24.71456057007134</v>
+        <v>1.883333333333333</v>
       </c>
       <c r="BM114" t="n">
-        <v>1.883333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="BN114" t="n">
-        <v>1.4</v>
+        <v>4.099999999999998</v>
       </c>
       <c r="BO114" t="n">
-        <v>4.099999999999998</v>
+        <v>-2.4</v>
       </c>
       <c r="BP114" t="n">
-        <v>-2.4</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BQ114" t="n">
-        <v>0.8900000000000006</v>
+        <v>16.3150227617603</v>
+      </c>
+      <c r="BR114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS114" t="n">
+        <v>6.303504767049059</v>
       </c>
     </row>
     <row r="115">
@@ -24518,25 +25206,31 @@
         <v>22.5215000000001</v>
       </c>
       <c r="BK115" t="n">
-        <v>16.66425531914904</v>
+        <v>24.53779097387179</v>
       </c>
       <c r="BL115" t="n">
-        <v>24.53779097387179</v>
+        <v>1.483333333333333</v>
       </c>
       <c r="BM115" t="n">
-        <v>1.483333333333333</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BN115" t="n">
+        <v>3.210000000000001</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="BP115" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="BO115" t="n">
-        <v>3.210000000000001</v>
-      </c>
-      <c r="BP115" t="n">
-        <v>-2.199999999999999</v>
-      </c>
       <c r="BQ115" t="n">
-        <v>1.199999999999999</v>
+        <v>16.97132218844982</v>
+      </c>
+      <c r="BR115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS115" t="n">
+        <v>5.550177811550281</v>
       </c>
     </row>
     <row r="116">
@@ -24727,25 +25421,31 @@
         <v>22.29257362355965</v>
       </c>
       <c r="BK116" t="n">
-        <v>16.44470409711693</v>
+        <v>24.42517814726847</v>
       </c>
       <c r="BL116" t="n">
-        <v>24.42517814726847</v>
+        <v>1.716666666666667</v>
       </c>
       <c r="BM116" t="n">
-        <v>1.716666666666667</v>
+        <v>1</v>
       </c>
       <c r="BN116" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="BO116" t="n">
-        <v>3.5</v>
+        <v>-1.609999999999999</v>
       </c>
       <c r="BP116" t="n">
-        <v>-1.609999999999999</v>
+        <v>0.8900000000000006</v>
       </c>
       <c r="BQ116" t="n">
-        <v>0.8900000000000006</v>
+        <v>15.36392097264438</v>
+      </c>
+      <c r="BR116" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BS116" t="n">
+        <v>6.92865265091527</v>
       </c>
     </row>
     <row r="117">
@@ -24936,25 +25636,31 @@
         <v>24.04763124199756</v>
       </c>
       <c r="BK117" t="n">
-        <v>16.0024164133739</v>
+        <v>26.56057007125901</v>
       </c>
       <c r="BL117" t="n">
-        <v>26.56057007125901</v>
+        <v>0.9833333333333333</v>
       </c>
       <c r="BM117" t="n">
-        <v>0.9833333333333333</v>
+        <v>2.200000000000001</v>
       </c>
       <c r="BN117" t="n">
-        <v>2.200000000000001</v>
+        <v>2</v>
       </c>
       <c r="BO117" t="n">
-        <v>2</v>
+        <v>-4.31</v>
       </c>
       <c r="BP117" t="n">
-        <v>-4.31</v>
+        <v>3.890000000000001</v>
       </c>
       <c r="BQ117" t="n">
-        <v>3.890000000000001</v>
+        <v>18.17640364188169</v>
+      </c>
+      <c r="BR117" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="BS117" t="n">
+        <v>5.871227600115869</v>
       </c>
     </row>
     <row r="118">
@@ -25145,25 +25851,31 @@
         <v>24.89650448143416</v>
       </c>
       <c r="BK118" t="n">
-        <v>19.12660091047056</v>
+        <v>26.32826603325424</v>
       </c>
       <c r="BL118" t="n">
-        <v>26.32826603325424</v>
+        <v>7.716666666666667</v>
       </c>
       <c r="BM118" t="n">
-        <v>7.716666666666667</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BN118" t="n">
-        <v>0.6000000000000014</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="BO118" t="n">
-        <v>3.199999999999999</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BP118" t="n">
-        <v>1.100000000000001</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BQ118" t="n">
-        <v>2.789999999999999</v>
+        <v>20.55054628224595</v>
+      </c>
+      <c r="BR118" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="BS118" t="n">
+        <v>4.345958199188207</v>
       </c>
     </row>
     <row r="119">
@@ -25354,25 +26066,31 @@
         <v>24.10044814340597</v>
       </c>
       <c r="BK119" t="n">
-        <v>20.4286635944702</v>
+        <v>26.09878859857488</v>
       </c>
       <c r="BL119" t="n">
-        <v>26.09878859857488</v>
+        <v>8.983333333333333</v>
       </c>
       <c r="BM119" t="n">
-        <v>8.983333333333333</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BN119" t="n">
-        <v>1.390000000000001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BO119" t="n">
-        <v>2.600000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="BP119" t="n">
-        <v>1.5</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BQ119" t="n">
-        <v>2.100000000000001</v>
+        <v>20.17658461538457</v>
+      </c>
+      <c r="BR119" t="n">
+        <v>0.1166666666666667</v>
+      </c>
+      <c r="BS119" t="n">
+        <v>3.9238635280214</v>
       </c>
     </row>
     <row r="120">
@@ -25563,25 +26281,31 @@
         <v>23.20208706786184</v>
       </c>
       <c r="BK120" t="n">
-        <v>18.25984802431619</v>
+        <v>23.71752969121147</v>
       </c>
       <c r="BL120" t="n">
-        <v>23.71752969121147</v>
+        <v>3.716666666666667</v>
       </c>
       <c r="BM120" t="n">
-        <v>3.716666666666667</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="BN120" t="n">
-        <v>0.2100000000000009</v>
+        <v>4</v>
       </c>
       <c r="BO120" t="n">
-        <v>4</v>
+        <v>-1.4</v>
       </c>
       <c r="BP120" t="n">
-        <v>-1.4</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BQ120" t="n">
-        <v>0.3900000000000006</v>
+        <v>14.68414264036419</v>
+      </c>
+      <c r="BR120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS120" t="n">
+        <v>8.517944427497653</v>
       </c>
     </row>
     <row r="121">
@@ -25772,25 +26496,31 @@
         <v>20.5826025641027</v>
       </c>
       <c r="BK121" t="n">
-        <v>15.66779969650992</v>
+        <v>22.22235154394305</v>
       </c>
       <c r="BL121" t="n">
-        <v>22.22235154394305</v>
+        <v>1.216666666666667</v>
       </c>
       <c r="BM121" t="n">
-        <v>1.216666666666667</v>
+        <v>3.299999999999999</v>
       </c>
       <c r="BN121" t="n">
-        <v>3.299999999999999</v>
+        <v>4.41</v>
       </c>
       <c r="BO121" t="n">
-        <v>4.41</v>
+        <v>-4.609999999999999</v>
       </c>
       <c r="BP121" t="n">
-        <v>-4.609999999999999</v>
+        <v>-0.3999999999999986</v>
       </c>
       <c r="BQ121" t="n">
-        <v>-0.3999999999999986</v>
+        <v>17.72522003034907</v>
+      </c>
+      <c r="BR121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS121" t="n">
+        <v>2.857382533753633</v>
       </c>
     </row>
     <row r="122">
@@ -25981,25 +26711,31 @@
         <v>22.69475578406183</v>
       </c>
       <c r="BK122" t="n">
-        <v>17.31283763277704</v>
+        <v>24.08902612826611</v>
       </c>
       <c r="BL122" t="n">
-        <v>24.08902612826611</v>
+        <v>1.05</v>
       </c>
       <c r="BM122" t="n">
-        <v>1.05</v>
+        <v>1.489999999999998</v>
       </c>
       <c r="BN122" t="n">
-        <v>1.489999999999998</v>
+        <v>4.190000000000001</v>
       </c>
       <c r="BO122" t="n">
-        <v>4.190000000000001</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="BP122" t="n">
-        <v>-0.1999999999999993</v>
+        <v>2</v>
       </c>
       <c r="BQ122" t="n">
-        <v>2</v>
+        <v>16.2965857359636</v>
+      </c>
+      <c r="BR122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS122" t="n">
+        <v>6.398170048098233</v>
       </c>
     </row>
     <row r="123">
@@ -26190,25 +26926,31 @@
         <v>22.7237483953788</v>
       </c>
       <c r="BK123" t="n">
-        <v>17.24191198786051</v>
+        <v>24.67033412887835</v>
       </c>
       <c r="BL123" t="n">
-        <v>24.67033412887835</v>
+        <v>5.55</v>
       </c>
       <c r="BM123" t="n">
-        <v>5.55</v>
+        <v>2.109999999999999</v>
       </c>
       <c r="BN123" t="n">
-        <v>2.109999999999999</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="BO123" t="n">
-        <v>2.599999999999998</v>
+        <v>-2.609999999999999</v>
       </c>
       <c r="BP123" t="n">
-        <v>-2.609999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="BQ123" t="n">
-        <v>1.5</v>
+        <v>19.080151975684</v>
+      </c>
+      <c r="BR123" t="n">
+        <v>4.183333333333334</v>
+      </c>
+      <c r="BS123" t="n">
+        <v>3.643596419694802</v>
       </c>
     </row>
     <row r="124">
@@ -26399,25 +27141,31 @@
         <v>20.12397419354853</v>
       </c>
       <c r="BK124" t="n">
-        <v>18.43735562310041</v>
+        <v>21.09101204819284</v>
       </c>
       <c r="BL124" t="n">
-        <v>21.09101204819284</v>
+        <v>0</v>
       </c>
       <c r="BM124" t="n">
-        <v>0</v>
+        <v>0.4000000000000021</v>
       </c>
       <c r="BN124" t="n">
-        <v>0.4000000000000021</v>
+        <v>1.210000000000001</v>
       </c>
       <c r="BO124" t="n">
-        <v>1.210000000000001</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="BP124" t="n">
-        <v>1.600000000000001</v>
+        <v>-3.899999999999999</v>
       </c>
       <c r="BQ124" t="n">
-        <v>-3.899999999999999</v>
+        <v>18.28683641975316</v>
+      </c>
+      <c r="BR124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS124" t="n">
+        <v>1.837137773795369</v>
       </c>
     </row>
     <row r="125">
@@ -26608,25 +27356,31 @@
         <v>21.49709844559594</v>
       </c>
       <c r="BK125" t="n">
-        <v>18.19146604938281</v>
+        <v>23.42313397129191</v>
       </c>
       <c r="BL125" t="n">
-        <v>23.42313397129191</v>
+        <v>6.316666666666666</v>
       </c>
       <c r="BM125" t="n">
-        <v>6.316666666666666</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BN125" t="n">
-        <v>0.1999999999999993</v>
+        <v>3.91</v>
       </c>
       <c r="BO125" t="n">
-        <v>3.91</v>
+        <v>0.7899999999999991</v>
       </c>
       <c r="BP125" t="n">
-        <v>0.7899999999999991</v>
+        <v>-1.210000000000001</v>
       </c>
       <c r="BQ125" t="n">
-        <v>-1.210000000000001</v>
+        <v>17.84896813353586</v>
+      </c>
+      <c r="BR125" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS125" t="n">
+        <v>3.648130312060083</v>
       </c>
     </row>
     <row r="126">
@@ -26817,25 +27571,31 @@
         <v>22.87490932642498</v>
       </c>
       <c r="BK126" t="n">
-        <v>17.79784522003045</v>
+        <v>25.31299516908222</v>
       </c>
       <c r="BL126" t="n">
-        <v>25.31299516908222</v>
+        <v>2.95</v>
       </c>
       <c r="BM126" t="n">
-        <v>2.95</v>
+        <v>1.189999999999998</v>
       </c>
       <c r="BN126" t="n">
-        <v>1.189999999999998</v>
+        <v>3.599999999999998</v>
       </c>
       <c r="BO126" t="n">
-        <v>3.599999999999998</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BP126" t="n">
-        <v>0.6000000000000014</v>
+        <v>3</v>
       </c>
       <c r="BQ126" t="n">
-        <v>3</v>
+        <v>17.46869300911865</v>
+      </c>
+      <c r="BR126" t="n">
+        <v>0.3833333333333334</v>
+      </c>
+      <c r="BS126" t="n">
+        <v>5.406216317306338</v>
       </c>
     </row>
     <row r="127">
@@ -27026,25 +27786,31 @@
         <v>23.07133247089275</v>
       </c>
       <c r="BK127" t="n">
-        <v>17.65495440729491</v>
+        <v>24.89394230769245</v>
       </c>
       <c r="BL127" t="n">
-        <v>24.89394230769245</v>
+        <v>2.383333333333333</v>
       </c>
       <c r="BM127" t="n">
-        <v>2.383333333333333</v>
+        <v>1.609999999999999</v>
       </c>
       <c r="BN127" t="n">
-        <v>1.609999999999999</v>
+        <v>3.400000000000002</v>
       </c>
       <c r="BO127" t="n">
-        <v>3.400000000000002</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BP127" t="n">
-        <v>-0.6099999999999994</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BQ127" t="n">
-        <v>2.199999999999999</v>
+        <v>17.76993930197269</v>
+      </c>
+      <c r="BR127" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BS127" t="n">
+        <v>5.301393168920054</v>
       </c>
     </row>
     <row r="128">
@@ -27235,25 +28001,31 @@
         <v>22.41103359173136</v>
       </c>
       <c r="BK128" t="n">
-        <v>17.71825493171485</v>
+        <v>24.55325415676967</v>
       </c>
       <c r="BL128" t="n">
-        <v>24.55325415676967</v>
+        <v>3.6</v>
       </c>
       <c r="BM128" t="n">
-        <v>3.6</v>
+        <v>0.8100000000000023</v>
       </c>
       <c r="BN128" t="n">
-        <v>0.8100000000000023</v>
+        <v>3</v>
       </c>
       <c r="BO128" t="n">
-        <v>3</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BP128" t="n">
-        <v>0.1999999999999993</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BQ128" t="n">
-        <v>1.199999999999999</v>
+        <v>17.71297420333845</v>
+      </c>
+      <c r="BR128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS128" t="n">
+        <v>4.698059388392913</v>
       </c>
     </row>
     <row r="129">
@@ -27444,25 +28216,31 @@
         <v>22.92987063389403</v>
       </c>
       <c r="BK129" t="n">
-        <v>17.67091324200922</v>
+        <v>25.11846889952161</v>
       </c>
       <c r="BL129" t="n">
-        <v>25.11846889952161</v>
+        <v>2.55</v>
       </c>
       <c r="BM129" t="n">
-        <v>2.55</v>
+        <v>0.4000000000000021</v>
       </c>
       <c r="BN129" t="n">
-        <v>0.4000000000000021</v>
+        <v>3</v>
       </c>
       <c r="BO129" t="n">
-        <v>3</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BP129" t="n">
-        <v>0.1999999999999993</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BQ129" t="n">
-        <v>1.890000000000001</v>
+        <v>17.51222222222245</v>
+      </c>
+      <c r="BR129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS129" t="n">
+        <v>5.417648411671578</v>
       </c>
     </row>
     <row r="130">
@@ -27653,25 +28431,31 @@
         <v>18.86197164948468</v>
       </c>
       <c r="BK130" t="n">
-        <v>17.31374429223754</v>
+        <v>20.2004285714286</v>
       </c>
       <c r="BL130" t="n">
-        <v>20.2004285714286</v>
+        <v>0</v>
       </c>
       <c r="BM130" t="n">
-        <v>0</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="BN130" t="n">
-        <v>1.399999999999999</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BO130" t="n">
-        <v>0.8000000000000007</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BP130" t="n">
-        <v>-0.6099999999999994</v>
+        <v>-2.800000000000001</v>
       </c>
       <c r="BQ130" t="n">
-        <v>-2.800000000000001</v>
+        <v>17.53654490106555</v>
+      </c>
+      <c r="BR130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS130" t="n">
+        <v>1.32542674841913</v>
       </c>
     </row>
     <row r="131">
@@ -27862,25 +28646,31 @@
         <v>21.90696542893737</v>
       </c>
       <c r="BK131" t="n">
-        <v>17.389742033384</v>
+        <v>23.76332541567703</v>
       </c>
       <c r="BL131" t="n">
-        <v>23.76332541567703</v>
+        <v>7.866666666666666</v>
       </c>
       <c r="BM131" t="n">
-        <v>7.866666666666666</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BN131" t="n">
-        <v>1.390000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="BO131" t="n">
-        <v>3.5</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BP131" t="n">
-        <v>-0.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="BQ131" t="n">
-        <v>0</v>
+        <v>16.93010638297889</v>
+      </c>
+      <c r="BR131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS131" t="n">
+        <v>4.976859045958481</v>
       </c>
     </row>
     <row r="132">
@@ -28071,25 +28861,31 @@
         <v>24.09564102564111</v>
       </c>
       <c r="BK132" t="n">
-        <v>17.87641337386025</v>
+        <v>27.78869047619061</v>
       </c>
       <c r="BL132" t="n">
-        <v>27.78869047619061</v>
+        <v>4.233333333333333</v>
       </c>
       <c r="BM132" t="n">
-        <v>4.233333333333333</v>
+        <v>1.609999999999999</v>
       </c>
       <c r="BN132" t="n">
-        <v>1.609999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="BO132" t="n">
-        <v>4.5</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="BP132" t="n">
-        <v>-0.6999999999999993</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="BQ132" t="n">
-        <v>4.789999999999999</v>
+        <v>18.15843702579679</v>
+      </c>
+      <c r="BR132" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="BS132" t="n">
+        <v>5.937203999844318</v>
       </c>
     </row>
     <row r="133">
@@ -28280,25 +29076,31 @@
         <v>25.68074705111413</v>
       </c>
       <c r="BK133" t="n">
-        <v>19.83725341426418</v>
+        <v>28.33212871287135</v>
       </c>
       <c r="BL133" t="n">
-        <v>28.33212871287135</v>
+        <v>4.3</v>
       </c>
       <c r="BM133" t="n">
-        <v>4.3</v>
+        <v>2.210000000000001</v>
       </c>
       <c r="BN133" t="n">
-        <v>2.210000000000001</v>
+        <v>2.300000000000001</v>
       </c>
       <c r="BO133" t="n">
-        <v>2.300000000000001</v>
+        <v>-0.6099999999999994</v>
       </c>
       <c r="BP133" t="n">
-        <v>-0.6099999999999994</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BQ133" t="n">
-        <v>5.100000000000001</v>
+        <v>23.59538694992425</v>
+      </c>
+      <c r="BR133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS133" t="n">
+        <v>2.085360101189881</v>
       </c>
     </row>
     <row r="134">
@@ -28489,25 +29291,31 @@
         <v>25.51139175257749</v>
       </c>
       <c r="BK134" t="n">
-        <v>24.07845220030371</v>
+        <v>25.60401442307706</v>
       </c>
       <c r="BL134" t="n">
-        <v>25.60401442307706</v>
+        <v>0</v>
       </c>
       <c r="BM134" t="n">
-        <v>0</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="BN134" t="n">
-        <v>0.9000000000000021</v>
+        <v>0.3900000000000006</v>
       </c>
       <c r="BO134" t="n">
-        <v>0.3900000000000006</v>
+        <v>6.890000000000001</v>
       </c>
       <c r="BP134" t="n">
-        <v>6.890000000000001</v>
+        <v>0.6000000000000014</v>
       </c>
       <c r="BQ134" t="n">
-        <v>0.6000000000000014</v>
+        <v>24.70684370257981</v>
+      </c>
+      <c r="BR134" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS134" t="n">
+        <v>0.8045480499976811</v>
       </c>
     </row>
     <row r="135">
@@ -28698,25 +29506,31 @@
         <v>25.56968750000007</v>
       </c>
       <c r="BK135" t="n">
-        <v>24.15338391502279</v>
+        <v>25.91703163017043</v>
       </c>
       <c r="BL135" t="n">
-        <v>25.91703163017043</v>
+        <v>0</v>
       </c>
       <c r="BM135" t="n">
-        <v>0</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="BN135" t="n">
-        <v>0.3000000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="BO135" t="n">
-        <v>0.5</v>
+        <v>6.289999999999999</v>
       </c>
       <c r="BP135" t="n">
-        <v>6.289999999999999</v>
+        <v>2</v>
       </c>
       <c r="BQ135" t="n">
-        <v>2</v>
+        <v>21.81376327769362</v>
+      </c>
+      <c r="BR135" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS135" t="n">
+        <v>3.755924222306444</v>
       </c>
     </row>
     <row r="136">
@@ -28907,25 +29721,31 @@
         <v>22.38141388174819</v>
       </c>
       <c r="BK136" t="n">
-        <v>20.40010670731715</v>
+        <v>22.99007177033504</v>
       </c>
       <c r="BL136" t="n">
-        <v>22.99007177033504</v>
+        <v>0</v>
       </c>
       <c r="BM136" t="n">
-        <v>0</v>
+        <v>0.6899999999999977</v>
       </c>
       <c r="BN136" t="n">
-        <v>0.6899999999999977</v>
+        <v>1.289999999999999</v>
       </c>
       <c r="BO136" t="n">
-        <v>1.289999999999999</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BP136" t="n">
-        <v>2.600000000000001</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BQ136" t="n">
-        <v>0.1000000000000014</v>
+        <v>18.6919571865445</v>
+      </c>
+      <c r="BR136" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS136" t="n">
+        <v>3.689456695203685</v>
       </c>
     </row>
     <row r="137">
@@ -29116,25 +29936,31 @@
         <v>23.29130091984245</v>
       </c>
       <c r="BK137" t="n">
-        <v>17.95767912772596</v>
+        <v>26.40758706467674</v>
       </c>
       <c r="BL137" t="n">
-        <v>26.40758706467674</v>
+        <v>4.283333333333333</v>
       </c>
       <c r="BM137" t="n">
-        <v>4.283333333333333</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BN137" t="n">
-        <v>0.8000000000000007</v>
+        <v>3.5</v>
       </c>
       <c r="BO137" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="BP137" t="n">
-        <v>0</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="BQ137" t="n">
-        <v>3.699999999999999</v>
+        <v>16.55686427457098</v>
+      </c>
+      <c r="BR137" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BS137" t="n">
+        <v>6.734436645271476</v>
       </c>
     </row>
     <row r="138">
@@ -29325,25 +30151,31 @@
         <v>22.58006418485251</v>
       </c>
       <c r="BK138" t="n">
-        <v>16.30460342146201</v>
+        <v>23.68453681710221</v>
       </c>
       <c r="BL138" t="n">
-        <v>23.68453681710221</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="BM138" t="n">
-        <v>1.916666666666667</v>
+        <v>4.01</v>
       </c>
       <c r="BN138" t="n">
-        <v>4.01</v>
+        <v>3.900000000000002</v>
       </c>
       <c r="BO138" t="n">
-        <v>3.900000000000002</v>
+        <v>-2.31</v>
       </c>
       <c r="BP138" t="n">
-        <v>-2.31</v>
+        <v>1.100000000000001</v>
       </c>
       <c r="BQ138" t="n">
-        <v>1.100000000000001</v>
+        <v>16.560207253886</v>
+      </c>
+      <c r="BR138" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+      <c r="BS138" t="n">
+        <v>6.019856930966519</v>
       </c>
     </row>
     <row r="139">
@@ -29534,25 +30366,31 @@
         <v>24.28588615782673</v>
       </c>
       <c r="BK139" t="n">
-        <v>17.19373942470398</v>
+        <v>26.56893111638967</v>
       </c>
       <c r="BL139" t="n">
-        <v>26.56893111638967</v>
+        <v>3.516666666666667</v>
       </c>
       <c r="BM139" t="n">
-        <v>3.516666666666667</v>
+        <v>3.410000000000002</v>
       </c>
       <c r="BN139" t="n">
-        <v>3.410000000000002</v>
+        <v>3</v>
       </c>
       <c r="BO139" t="n">
-        <v>3</v>
+        <v>-2.31</v>
       </c>
       <c r="BP139" t="n">
-        <v>-2.31</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="BQ139" t="n">
-        <v>3.199999999999999</v>
+        <v>18.18047112462014</v>
+      </c>
+      <c r="BR139" t="n">
+        <v>0.5166666666666667</v>
+      </c>
+      <c r="BS139" t="n">
+        <v>6.105415033206587</v>
       </c>
     </row>
     <row r="140">
@@ -29743,25 +30581,31 @@
         <v>23.11815147625166</v>
       </c>
       <c r="BK140" t="n">
-        <v>18.50456752655545</v>
+        <v>23.73800000000011</v>
       </c>
       <c r="BL140" t="n">
-        <v>23.73800000000011</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="BM140" t="n">
-        <v>6.833333333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BN140" t="n">
+        <v>1.899999999999999</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>0.7899999999999991</v>
+      </c>
+      <c r="BP140" t="n">
         <v>1.5</v>
       </c>
-      <c r="BO140" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="BP140" t="n">
-        <v>0.7899999999999991</v>
-      </c>
       <c r="BQ140" t="n">
-        <v>1.5</v>
+        <v>19.22364741641344</v>
+      </c>
+      <c r="BR140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS140" t="n">
+        <v>3.894504059838219</v>
       </c>
     </row>
     <row r="141">
@@ -29952,25 +30796,31 @@
         <v>25.39390909090915</v>
       </c>
       <c r="BK141" t="n">
-        <v>18.67196048632231</v>
+        <v>27.56610705596117</v>
       </c>
       <c r="BL141" t="n">
-        <v>27.56610705596117</v>
+        <v>2.616666666666667</v>
       </c>
       <c r="BM141" t="n">
-        <v>2.616666666666667</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BN141" t="n">
-        <v>0.3999999999999986</v>
+        <v>3.5</v>
       </c>
       <c r="BO141" t="n">
-        <v>3.5</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="BP141" t="n">
-        <v>0.1999999999999993</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="BQ141" t="n">
-        <v>5.199999999999999</v>
+        <v>16.38622154779973</v>
+      </c>
+      <c r="BR141" t="n">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="BS141" t="n">
+        <v>9.007687543109423</v>
       </c>
     </row>
     <row r="142">
@@ -30161,25 +31011,31 @@
         <v>24.38251302083336</v>
       </c>
       <c r="BK142" t="n">
-        <v>16.30863429438553</v>
+        <v>26.88665853658547</v>
       </c>
       <c r="BL142" t="n">
-        <v>26.88665853658547</v>
+        <v>2.516666666666667</v>
       </c>
       <c r="BM142" t="n">
-        <v>2.516666666666667</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="BN142" t="n">
-        <v>3.399999999999999</v>
+        <v>3.199999999999999</v>
       </c>
       <c r="BO142" t="n">
-        <v>3.199999999999999</v>
+        <v>-2.699999999999999</v>
       </c>
       <c r="BP142" t="n">
-        <v>-2.699999999999999</v>
+        <v>4.5</v>
       </c>
       <c r="BQ142" t="n">
-        <v>4.5</v>
+        <v>16.93500000000005</v>
+      </c>
+      <c r="BR142" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BS142" t="n">
+        <v>7.447513020833306</v>
       </c>
     </row>
     <row r="143">
@@ -30370,25 +31226,31 @@
         <v>24.53911311053989</v>
       </c>
       <c r="BK143" t="n">
-        <v>16.80482014388494</v>
+        <v>26.86940476190488</v>
       </c>
       <c r="BL143" t="n">
-        <v>26.86940476190488</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="BM143" t="n">
-        <v>2.333333333333333</v>
+        <v>3.300000000000001</v>
       </c>
       <c r="BN143" t="n">
-        <v>3.300000000000001</v>
+        <v>3.289999999999999</v>
       </c>
       <c r="BO143" t="n">
+        <v>-1.699999999999999</v>
+      </c>
+      <c r="BP143" t="n">
         <v>3.289999999999999</v>
       </c>
-      <c r="BP143" t="n">
-        <v>-1.699999999999999</v>
-      </c>
       <c r="BQ143" t="n">
-        <v>3.289999999999999</v>
+        <v>17.43435452793839</v>
+      </c>
+      <c r="BR143" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="BS143" t="n">
+        <v>7.104758582601498</v>
       </c>
     </row>
     <row r="144">
@@ -30579,25 +31441,31 @@
         <v>27.07413971539458</v>
       </c>
       <c r="BK144" t="n">
-        <v>18.43724193548395</v>
+        <v>30.06137767220914</v>
       </c>
       <c r="BL144" t="n">
-        <v>30.06137767220914</v>
+        <v>1.9</v>
       </c>
       <c r="BM144" t="n">
-        <v>1.9</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BN144" t="n">
-        <v>2.789999999999999</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="BO144" t="n">
-        <v>5.289999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="BP144" t="n">
-        <v>-0.5</v>
+        <v>6.700000000000003</v>
       </c>
       <c r="BQ144" t="n">
-        <v>6.700000000000003</v>
+        <v>18.867340425532</v>
+      </c>
+      <c r="BR144" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="BS144" t="n">
+        <v>8.206799289862584</v>
       </c>
     </row>
     <row r="145">
@@ -30788,25 +31656,31 @@
         <v>22.87362113402081</v>
       </c>
       <c r="BK145" t="n">
-        <v>18.17873239436633</v>
+        <v>24.31409090909103</v>
       </c>
       <c r="BL145" t="n">
-        <v>24.31409090909103</v>
+        <v>7.483333333333333</v>
       </c>
       <c r="BM145" t="n">
-        <v>7.483333333333333</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="BN145" t="n">
-        <v>0.6099999999999994</v>
+        <v>1.5</v>
       </c>
       <c r="BO145" t="n">
-        <v>1.5</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BP145" t="n">
-        <v>0.6999999999999993</v>
+        <v>-0.1099999999999994</v>
       </c>
       <c r="BQ145" t="n">
-        <v>-0.1099999999999994</v>
+        <v>18.10332810047101</v>
+      </c>
+      <c r="BR145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS145" t="n">
+        <v>4.770293033549798</v>
       </c>
     </row>
     <row r="146">
@@ -30997,25 +31871,31 @@
         <v>26.73951570680639</v>
       </c>
       <c r="BK146" t="n">
-        <v>19.11902587519042</v>
+        <v>29.27971153846166</v>
       </c>
       <c r="BL146" t="n">
-        <v>29.27971153846166</v>
+        <v>6.516666666666667</v>
       </c>
       <c r="BM146" t="n">
-        <v>6.516666666666667</v>
+        <v>1.390000000000001</v>
       </c>
       <c r="BN146" t="n">
-        <v>1.390000000000001</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BO146" t="n">
-        <v>3.600000000000001</v>
+        <v>1</v>
       </c>
       <c r="BP146" t="n">
-        <v>1</v>
+        <v>6.090000000000003</v>
       </c>
       <c r="BQ146" t="n">
-        <v>6.090000000000003</v>
+        <v>19.68911987860409</v>
+      </c>
+      <c r="BR146" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BS146" t="n">
+        <v>7.050395828202298</v>
       </c>
     </row>
     <row r="147">
@@ -31206,25 +32086,31 @@
         <v>26.4642416452443</v>
       </c>
       <c r="BK147" t="n">
-        <v>19.85932411674349</v>
+        <v>28.51819047619061</v>
       </c>
       <c r="BL147" t="n">
-        <v>28.51819047619061</v>
+        <v>7.716666666666667</v>
       </c>
       <c r="BM147" t="n">
-        <v>7.716666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BN147" t="n">
+        <v>2.099999999999998</v>
+      </c>
+      <c r="BO147" t="n">
         <v>1.5</v>
       </c>
-      <c r="BO147" t="n">
-        <v>2.099999999999998</v>
-      </c>
       <c r="BP147" t="n">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="BQ147" t="n">
-        <v>6</v>
+        <v>21.17192012288816</v>
+      </c>
+      <c r="BR147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS147" t="n">
+        <v>5.292321522356147</v>
       </c>
     </row>
     <row r="148">
@@ -31415,25 +32301,31 @@
         <v>24.49612694300524</v>
       </c>
       <c r="BK148" t="n">
-        <v>19.94711684370272</v>
+        <v>26.17886746987959</v>
       </c>
       <c r="BL148" t="n">
-        <v>26.17886746987959</v>
+        <v>3.633333333333333</v>
       </c>
       <c r="BM148" t="n">
-        <v>3.633333333333333</v>
+        <v>0.6999999999999993</v>
       </c>
       <c r="BN148" t="n">
-        <v>0.6999999999999993</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BO148" t="n">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="BP148" t="n">
         <v>3.100000000000001</v>
       </c>
-      <c r="BP148" t="n">
-        <v>0.6000000000000014</v>
-      </c>
       <c r="BQ148" t="n">
-        <v>3.100000000000001</v>
+        <v>17.38833080424883</v>
+      </c>
+      <c r="BR148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS148" t="n">
+        <v>7.107796138756417</v>
       </c>
     </row>
     <row r="149">
@@ -31624,25 +32516,31 @@
         <v>25.84994871794883</v>
       </c>
       <c r="BK149" t="n">
-        <v>18.14124430956007</v>
+        <v>29.11359523809536</v>
       </c>
       <c r="BL149" t="n">
-        <v>29.11359523809536</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="BM149" t="n">
-        <v>5.083333333333333</v>
+        <v>2.910000000000002</v>
       </c>
       <c r="BN149" t="n">
-        <v>2.910000000000002</v>
+        <v>3.899999999999999</v>
       </c>
       <c r="BO149" t="n">
-        <v>3.899999999999999</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BP149" t="n">
-        <v>-0.8100000000000005</v>
+        <v>5.390000000000001</v>
       </c>
       <c r="BQ149" t="n">
-        <v>5.390000000000001</v>
+        <v>18.61558421851304</v>
+      </c>
+      <c r="BR149" t="n">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="BS149" t="n">
+        <v>7.234364499435795</v>
       </c>
     </row>
     <row r="150">
@@ -31833,25 +32731,31 @@
         <v>28.31158770806668</v>
       </c>
       <c r="BK150" t="n">
-        <v>18.85400606980283</v>
+        <v>32.07603325415688</v>
       </c>
       <c r="BL150" t="n">
-        <v>32.07603325415688</v>
+        <v>3.1</v>
       </c>
       <c r="BM150" t="n">
-        <v>3.1</v>
+        <v>2.31</v>
       </c>
       <c r="BN150" t="n">
-        <v>2.31</v>
+        <v>5.59</v>
       </c>
       <c r="BO150" t="n">
-        <v>5.59</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BP150" t="n">
-        <v>-0.3100000000000005</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="BQ150" t="n">
-        <v>8.289999999999999</v>
+        <v>18.41907435508349</v>
+      </c>
+      <c r="BR150" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS150" t="n">
+        <v>9.892513352983187</v>
       </c>
     </row>
     <row r="151">
@@ -32042,25 +32946,31 @@
         <v>28.99775641025652</v>
       </c>
       <c r="BK151" t="n">
-        <v>18.74792109256462</v>
+        <v>32.81235714285728</v>
       </c>
       <c r="BL151" t="n">
-        <v>32.81235714285728</v>
+        <v>3.1</v>
       </c>
       <c r="BM151" t="n">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="BN151" t="n">
-        <v>3.01</v>
+        <v>5.399999999999999</v>
       </c>
       <c r="BO151" t="n">
-        <v>5.399999999999999</v>
+        <v>-0.8100000000000005</v>
       </c>
       <c r="BP151" t="n">
-        <v>-0.8100000000000005</v>
+        <v>10.79</v>
       </c>
       <c r="BQ151" t="n">
-        <v>10.79</v>
+        <v>19.09585735963588</v>
+      </c>
+      <c r="BR151" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="BS151" t="n">
+        <v>9.901899050620646</v>
       </c>
     </row>
     <row r="152">
@@ -32251,25 +33161,31 @@
         <v>27.70752880921905</v>
       </c>
       <c r="BK152" t="n">
-        <v>19.15453717754185</v>
+        <v>31.65363420427561</v>
       </c>
       <c r="BL152" t="n">
-        <v>31.65363420427561</v>
+        <v>6.266666666666667</v>
       </c>
       <c r="BM152" t="n">
-        <v>6.266666666666667</v>
+        <v>3.01</v>
       </c>
       <c r="BN152" t="n">
-        <v>3.01</v>
+        <v>8</v>
       </c>
       <c r="BO152" t="n">
-        <v>8</v>
+        <v>-0.3100000000000005</v>
       </c>
       <c r="BP152" t="n">
-        <v>-0.3100000000000005</v>
+        <v>7.5</v>
       </c>
       <c r="BQ152" t="n">
-        <v>7.5</v>
+        <v>19.49209408194249</v>
+      </c>
+      <c r="BR152" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BS152" t="n">
+        <v>8.215434727276559</v>
       </c>
     </row>
     <row r="153">
@@ -32460,25 +33376,31 @@
         <v>26.11029449423824</v>
       </c>
       <c r="BK153" t="n">
-        <v>19.29420333839154</v>
+        <v>28.35969121140152</v>
       </c>
       <c r="BL153" t="n">
-        <v>28.35969121140152</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="BM153" t="n">
-        <v>5.333333333333333</v>
+        <v>1.689999999999998</v>
       </c>
       <c r="BN153" t="n">
-        <v>1.689999999999998</v>
+        <v>2.710000000000001</v>
       </c>
       <c r="BO153" t="n">
-        <v>2.710000000000001</v>
+        <v>0.1000000000000014</v>
       </c>
       <c r="BP153" t="n">
-        <v>0.1000000000000014</v>
+        <v>10.4</v>
       </c>
       <c r="BQ153" t="n">
-        <v>10.4</v>
+        <v>20.47233687405179</v>
+      </c>
+      <c r="BR153" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="BS153" t="n">
+        <v>5.637957620186455</v>
       </c>
     </row>
     <row r="154">
@@ -32669,25 +33591,31 @@
         <v>27.00167733674782</v>
       </c>
       <c r="BK154" t="n">
-        <v>20.54690440060711</v>
+        <v>28.60038004750607</v>
       </c>
       <c r="BL154" t="n">
-        <v>28.60038004750607</v>
+        <v>7.466666666666667</v>
       </c>
       <c r="BM154" t="n">
-        <v>7.466666666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BN154" t="n">
-        <v>1.5</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BO154" t="n">
-        <v>2.890000000000001</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BP154" t="n">
-        <v>2.789999999999999</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BQ154" t="n">
-        <v>5.100000000000001</v>
+        <v>20.18936267071331</v>
+      </c>
+      <c r="BR154" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BS154" t="n">
+        <v>6.812314666034514</v>
       </c>
     </row>
     <row r="155">
@@ -32878,25 +33806,31 @@
         <v>27.32211538461547</v>
       </c>
       <c r="BK155" t="n">
-        <v>20.42065250379373</v>
+        <v>30.03033333333342</v>
       </c>
       <c r="BL155" t="n">
-        <v>30.03033333333342</v>
+        <v>7.55</v>
       </c>
       <c r="BM155" t="n">
-        <v>7.55</v>
+        <v>1.5</v>
       </c>
       <c r="BN155" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="BO155" t="n">
-        <v>4</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BP155" t="n">
-        <v>1.890000000000001</v>
+        <v>6.590000000000003</v>
       </c>
       <c r="BQ155" t="n">
-        <v>6.590000000000003</v>
+        <v>20.87813353566025</v>
+      </c>
+      <c r="BR155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS155" t="n">
+        <v>6.443981848955218</v>
       </c>
     </row>
     <row r="156">
@@ -33087,25 +34021,31 @@
         <v>26.79337179487185</v>
       </c>
       <c r="BK156" t="n">
-        <v>20.91110773899859</v>
+        <v>30.27605700712603</v>
       </c>
       <c r="BL156" t="n">
-        <v>30.27605700712603</v>
+        <v>6.516666666666667</v>
       </c>
       <c r="BM156" t="n">
-        <v>6.516666666666667</v>
+        <v>0.5999999999999979</v>
       </c>
       <c r="BN156" t="n">
-        <v>0.5999999999999979</v>
+        <v>4.710000000000001</v>
       </c>
       <c r="BO156" t="n">
-        <v>4.710000000000001</v>
+        <v>3.100000000000001</v>
       </c>
       <c r="BP156" t="n">
-        <v>3.100000000000001</v>
+        <v>5.699999999999999</v>
       </c>
       <c r="BQ156" t="n">
-        <v>5.699999999999999</v>
+        <v>20.8631411229136</v>
+      </c>
+      <c r="BR156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS156" t="n">
+        <v>5.930230671958249</v>
       </c>
     </row>
     <row r="157">
@@ -33296,25 +34236,31 @@
         <v>25.14580025608202</v>
       </c>
       <c r="BK157" t="n">
-        <v>20.39494688922619</v>
+        <v>27.35760095011889</v>
       </c>
       <c r="BL157" t="n">
-        <v>27.35760095011889</v>
+        <v>5.066666666666666</v>
       </c>
       <c r="BM157" t="n">
-        <v>5.066666666666666</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BN157" t="n">
-        <v>0.3999999999999986</v>
+        <v>3.710000000000001</v>
       </c>
       <c r="BO157" t="n">
-        <v>3.710000000000001</v>
+        <v>3</v>
       </c>
       <c r="BP157" t="n">
-        <v>3</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="BQ157" t="n">
-        <v>3.699999999999999</v>
+        <v>19.62380880121411</v>
+      </c>
+      <c r="BR157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS157" t="n">
+        <v>5.521991454867901</v>
       </c>
     </row>
     <row r="158">
@@ -33505,25 +34451,31 @@
         <v>27.09520512820522</v>
       </c>
       <c r="BK158" t="n">
-        <v>20.09995447647958</v>
+        <v>28.98742857142874</v>
       </c>
       <c r="BL158" t="n">
-        <v>28.98742857142874</v>
+        <v>5.4</v>
       </c>
       <c r="BM158" t="n">
-        <v>5.4</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BN158" t="n">
-        <v>1.890000000000001</v>
+        <v>2.689999999999998</v>
       </c>
       <c r="BO158" t="n">
-        <v>2.689999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="BP158" t="n">
-        <v>1.5</v>
+        <v>7.590000000000003</v>
       </c>
       <c r="BQ158" t="n">
-        <v>7.590000000000003</v>
+        <v>20.55341945288772</v>
+      </c>
+      <c r="BR158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS158" t="n">
+        <v>6.541785675317499</v>
       </c>
     </row>
     <row r="159">
@@ -33714,25 +34666,31 @@
         <v>25.24057618437904</v>
       </c>
       <c r="BK159" t="n">
-        <v>20.27788753799404</v>
+        <v>26.39755344418063</v>
       </c>
       <c r="BL159" t="n">
-        <v>26.39755344418063</v>
+        <v>9.066666666666666</v>
       </c>
       <c r="BM159" t="n">
-        <v>9.066666666666666</v>
+        <v>2.400000000000002</v>
       </c>
       <c r="BN159" t="n">
-        <v>2.400000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="BO159" t="n">
-        <v>1.5</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BP159" t="n">
-        <v>2.199999999999999</v>
+        <v>3.289999999999999</v>
       </c>
       <c r="BQ159" t="n">
-        <v>3.289999999999999</v>
+        <v>20.59273141122924</v>
+      </c>
+      <c r="BR159" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="BS159" t="n">
+        <v>4.647844773149796</v>
       </c>
     </row>
     <row r="160">
@@ -33923,25 +34881,31 @@
         <v>24.39199743918064</v>
       </c>
       <c r="BK160" t="n">
-        <v>20.34682852807288</v>
+        <v>25.75641330166282</v>
       </c>
       <c r="BL160" t="n">
-        <v>25.75641330166282</v>
+        <v>4.183333333333334</v>
       </c>
       <c r="BM160" t="n">
-        <v>4.183333333333334</v>
+        <v>0.3999999999999986</v>
       </c>
       <c r="BN160" t="n">
-        <v>0.3999999999999986</v>
+        <v>2.41</v>
       </c>
       <c r="BO160" t="n">
-        <v>2.41</v>
+        <v>2.890000000000001</v>
       </c>
       <c r="BP160" t="n">
-        <v>2.890000000000001</v>
+        <v>3.289999999999999</v>
       </c>
       <c r="BQ160" t="n">
-        <v>3.289999999999999</v>
+        <v>20.35379362670722</v>
+      </c>
+      <c r="BR160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS160" t="n">
+        <v>4.038203812473423</v>
       </c>
     </row>
     <row r="161">
@@ -34132,25 +35096,31 @@
         <v>24.18800256081953</v>
       </c>
       <c r="BK161" t="n">
-        <v>19.84203338391517</v>
+        <v>25.58068883610459</v>
       </c>
       <c r="BL161" t="n">
-        <v>25.58068883610459</v>
+        <v>3.233333333333333</v>
       </c>
       <c r="BM161" t="n">
-        <v>3.233333333333333</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BN161" t="n">
-        <v>0.8000000000000007</v>
+        <v>2.599999999999998</v>
       </c>
       <c r="BO161" t="n">
-        <v>2.599999999999998</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BP161" t="n">
-        <v>2.199999999999999</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BQ161" t="n">
-        <v>1.789999999999999</v>
+        <v>18.7112898330805</v>
+      </c>
+      <c r="BR161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS161" t="n">
+        <v>5.476712727739031</v>
       </c>
     </row>
     <row r="162">
@@ -34341,25 +35311,31 @@
         <v>25.41047375160061</v>
       </c>
       <c r="BK162" t="n">
-        <v>19.33003034901368</v>
+        <v>27.88532066508326</v>
       </c>
       <c r="BL162" t="n">
-        <v>27.88532066508326</v>
+        <v>5.1</v>
       </c>
       <c r="BM162" t="n">
-        <v>5.1</v>
+        <v>0.8100000000000023</v>
       </c>
       <c r="BN162" t="n">
-        <v>0.8100000000000023</v>
+        <v>2.689999999999998</v>
       </c>
       <c r="BO162" t="n">
-        <v>2.689999999999998</v>
+        <v>1.199999999999999</v>
       </c>
       <c r="BP162" t="n">
-        <v>1.199999999999999</v>
+        <v>4.289999999999999</v>
       </c>
       <c r="BQ162" t="n">
-        <v>4.289999999999999</v>
+        <v>20.75397572078905</v>
+      </c>
+      <c r="BR162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS162" t="n">
+        <v>4.656498030811559</v>
       </c>
     </row>
     <row r="163">
@@ -34550,25 +35526,31 @@
         <v>26.78692701664542</v>
       </c>
       <c r="BK163" t="n">
-        <v>21.6914871016693</v>
+        <v>29.90045130641342</v>
       </c>
       <c r="BL163" t="n">
-        <v>29.90045130641342</v>
+        <v>6.4</v>
       </c>
       <c r="BM163" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="BN163" t="n">
-        <v>0.5</v>
+        <v>3.310000000000002</v>
       </c>
       <c r="BO163" t="n">
-        <v>3.310000000000002</v>
+        <v>3.789999999999999</v>
       </c>
       <c r="BP163" t="n">
-        <v>3.789999999999999</v>
+        <v>6.5</v>
       </c>
       <c r="BQ163" t="n">
-        <v>6.5</v>
+        <v>21.5666767830047</v>
+      </c>
+      <c r="BR163" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BS163" t="n">
+        <v>5.22025023364073</v>
       </c>
     </row>
     <row r="164">
@@ -34759,25 +35741,31 @@
         <v>26.56770806658139</v>
       </c>
       <c r="BK164" t="n">
-        <v>20.54308042488632</v>
+        <v>29.10655581947754</v>
       </c>
       <c r="BL164" t="n">
-        <v>29.10655581947754</v>
+        <v>10.33333333333333</v>
       </c>
       <c r="BM164" t="n">
-        <v>10.33333333333333</v>
+        <v>1.310000000000002</v>
       </c>
       <c r="BN164" t="n">
-        <v>1.310000000000002</v>
+        <v>3.400000000000002</v>
       </c>
       <c r="BO164" t="n">
-        <v>3.400000000000002</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BP164" t="n">
-        <v>2.289999999999999</v>
+        <v>5.199999999999999</v>
       </c>
       <c r="BQ164" t="n">
-        <v>5.199999999999999</v>
+        <v>19.16655538695008</v>
+      </c>
+      <c r="BR164" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="BS164" t="n">
+        <v>7.401152679631313</v>
       </c>
     </row>
     <row r="165">
@@ -34968,25 +35956,31 @@
         <v>26.41145966709355</v>
       </c>
       <c r="BK165" t="n">
-        <v>19.21676783004565</v>
+        <v>29.24106888361057</v>
       </c>
       <c r="BL165" t="n">
-        <v>29.24106888361057</v>
+        <v>6.2</v>
       </c>
       <c r="BM165" t="n">
-        <v>6.2</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="BN165" t="n">
-        <v>2.100000000000001</v>
+        <v>3.399999999999999</v>
       </c>
       <c r="BO165" t="n">
-        <v>3.399999999999999</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BP165" t="n">
-        <v>0.2899999999999991</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BQ165" t="n">
-        <v>5.100000000000001</v>
+        <v>19.64644916540225</v>
+      </c>
+      <c r="BR165" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS165" t="n">
+        <v>6.765010501691293</v>
       </c>
     </row>
     <row r="166">
@@ -35177,25 +36171,31 @@
         <v>25.36710256410268</v>
       </c>
       <c r="BK166" t="n">
-        <v>20.033550834598</v>
+        <v>27.70561904761915</v>
       </c>
       <c r="BL166" t="n">
-        <v>27.70561904761915</v>
+        <v>1.183333333333333</v>
       </c>
       <c r="BM166" t="n">
-        <v>1.183333333333333</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="BN166" t="n">
-        <v>1.300000000000001</v>
+        <v>2.289999999999999</v>
       </c>
       <c r="BO166" t="n">
-        <v>2.289999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="BP166" t="n">
-        <v>1.5</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="BQ166" t="n">
-        <v>4.100000000000001</v>
+        <v>21.09103186646457</v>
+      </c>
+      <c r="BR166" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS166" t="n">
+        <v>4.276070697638108</v>
       </c>
     </row>
     <row r="167">
@@ -35386,25 +36386,31 @@
         <v>27.48119078105001</v>
       </c>
       <c r="BK167" t="n">
-        <v>21.13033383915028</v>
+        <v>29.36738717339674</v>
       </c>
       <c r="BL167" t="n">
-        <v>29.36738717339674</v>
+        <v>5.55</v>
       </c>
       <c r="BM167" t="n">
-        <v>5.55</v>
+        <v>1.5</v>
       </c>
       <c r="BN167" t="n">
-        <v>1.5</v>
+        <v>3.189999999999998</v>
       </c>
       <c r="BO167" t="n">
-        <v>3.189999999999998</v>
+        <v>3.600000000000001</v>
       </c>
       <c r="BP167" t="n">
-        <v>3.600000000000001</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="BQ167" t="n">
-        <v>5.289999999999999</v>
+        <v>20.3289681335358</v>
+      </c>
+      <c r="BR167" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="BS167" t="n">
+        <v>7.152222647514204</v>
       </c>
     </row>
     <row r="168">
@@ -35595,25 +36601,31 @@
         <v>22.90439180537788</v>
       </c>
       <c r="BK168" t="n">
-        <v>19.77878603945379</v>
+        <v>24.47434679334919</v>
       </c>
       <c r="BL168" t="n">
-        <v>24.47434679334919</v>
+        <v>0</v>
       </c>
       <c r="BM168" t="n">
-        <v>0</v>
+        <v>1.109999999999999</v>
       </c>
       <c r="BN168" t="n">
-        <v>1.109999999999999</v>
+        <v>2.690000000000001</v>
       </c>
       <c r="BO168" t="n">
-        <v>2.690000000000001</v>
+        <v>1.890000000000001</v>
       </c>
       <c r="BP168" t="n">
-        <v>1.890000000000001</v>
+        <v>-0.7100000000000009</v>
       </c>
       <c r="BQ168" t="n">
-        <v>-0.7100000000000009</v>
+        <v>20.07148710166929</v>
+      </c>
+      <c r="BR168" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS168" t="n">
+        <v>2.832904703708586</v>
       </c>
     </row>
     <row r="169">
@@ -35804,25 +36816,31 @@
         <v>25.96204865556994</v>
       </c>
       <c r="BK169" t="n">
-        <v>20.28819423368754</v>
+        <v>27.86954869358679</v>
       </c>
       <c r="BL169" t="n">
-        <v>27.86954869358679</v>
+        <v>0</v>
       </c>
       <c r="BM169" t="n">
-        <v>0</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="BN169" t="n">
-        <v>0.9000000000000021</v>
+        <v>3.190000000000001</v>
       </c>
       <c r="BO169" t="n">
-        <v>3.190000000000001</v>
+        <v>2.789999999999999</v>
       </c>
       <c r="BP169" t="n">
-        <v>2.789999999999999</v>
+        <v>3.699999999999999</v>
       </c>
       <c r="BQ169" t="n">
-        <v>3.699999999999999</v>
+        <v>19.65901365705632</v>
+      </c>
+      <c r="BR169" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS169" t="n">
+        <v>6.30303499851362</v>
       </c>
     </row>
     <row r="170">
@@ -36013,25 +37031,31 @@
         <v>26.61162612035862</v>
       </c>
       <c r="BK170" t="n">
-        <v>19.70969650986358</v>
+        <v>29.4778859857483</v>
       </c>
       <c r="BL170" t="n">
-        <v>29.4778859857483</v>
+        <v>3.5</v>
       </c>
       <c r="BM170" t="n">
-        <v>3.5</v>
+        <v>1.789999999999999</v>
       </c>
       <c r="BN170" t="n">
-        <v>1.789999999999999</v>
+        <v>4.400000000000002</v>
       </c>
       <c r="BO170" t="n">
-        <v>4.400000000000002</v>
+        <v>1</v>
       </c>
       <c r="BP170" t="n">
-        <v>1</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="BQ170" t="n">
-        <v>4.789999999999999</v>
+        <v>19.36429438543264</v>
+      </c>
+      <c r="BR170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS170" t="n">
+        <v>7.247331734925982</v>
       </c>
     </row>
     <row r="171">
@@ -36222,25 +37246,31 @@
         <v>25.5656722151089</v>
       </c>
       <c r="BK171" t="n">
-        <v>19.46957511380892</v>
+        <v>27.97223277909754</v>
       </c>
       <c r="BL171" t="n">
-        <v>27.97223277909754</v>
+        <v>3.183333333333333</v>
       </c>
       <c r="BM171" t="n">
-        <v>3.183333333333333</v>
+        <v>1.710000000000001</v>
       </c>
       <c r="BN171" t="n">
-        <v>1.710000000000001</v>
+        <v>2.710000000000001</v>
       </c>
       <c r="BO171" t="n">
-        <v>2.710000000000001</v>
+        <v>0.2899999999999991</v>
       </c>
       <c r="BP171" t="n">
-        <v>0.2899999999999991</v>
+        <v>5.100000000000001</v>
       </c>
       <c r="BQ171" t="n">
-        <v>5.100000000000001</v>
+        <v>20.34773556231012</v>
+      </c>
+      <c r="BR171" t="n">
+        <v>0.4666666666666667</v>
+      </c>
+      <c r="BS171" t="n">
+        <v>5.217936652798787</v>
       </c>
     </row>
     <row r="172">
@@ -36431,25 +37461,31 @@
         <v>26.60622279129332</v>
       </c>
       <c r="BK172" t="n">
-        <v>20.4181914893618</v>
+        <v>29.31916864608086</v>
       </c>
       <c r="BL172" t="n">
-        <v>29.31916864608086</v>
+        <v>6.3</v>
       </c>
       <c r="BM172" t="n">
-        <v>6.3</v>
+        <v>0.9000000000000021</v>
       </c>
       <c r="BN172" t="n">
-        <v>0.9000000000000021</v>
+        <v>3.91</v>
       </c>
       <c r="BO172" t="n">
-        <v>3.91</v>
+        <v>2.199999999999999</v>
       </c>
       <c r="BP172" t="n">
-        <v>2.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="BQ172" t="n">
-        <v>5.5</v>
+        <v>20.8017450682854</v>
+      </c>
+      <c r="BR172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS172" t="n">
+        <v>5.804477723007924</v>
       </c>
     </row>
     <row r="173">
@@ -36640,25 +37676,31 @@
         <v>30.09993597951366</v>
       </c>
       <c r="BK173" t="n">
-        <v>21.47273141122926</v>
+        <v>33.63375296912122</v>
       </c>
       <c r="BL173" t="n">
-        <v>33.63375296912122</v>
+        <v>9.183333333333334</v>
       </c>
       <c r="BM173" t="n">
-        <v>9.183333333333334</v>
+        <v>1.599999999999998</v>
       </c>
       <c r="BN173" t="n">
-        <v>1.599999999999998</v>
+        <v>6.100000000000001</v>
       </c>
       <c r="BO173" t="n">
-        <v>6.100000000000001</v>
+        <v>2.600000000000001</v>
       </c>
       <c r="BP173" t="n">
-        <v>2.600000000000001</v>
+        <v>10.59</v>
       </c>
       <c r="BQ173" t="n">
-        <v>10.59</v>
+        <v>20.98547112462025</v>
+      </c>
+      <c r="BR173" t="n">
+        <v>0.7166666666666667</v>
+      </c>
+      <c r="BS173" t="n">
+        <v>9.114464854893406</v>
       </c>
     </row>
     <row r="174">
@@ -36849,234 +37891,31 @@
         <v>34.07613316261232</v>
       </c>
       <c r="BK174" t="n">
-        <v>22.1999391171995</v>
+        <v>39.88004750593834</v>
       </c>
       <c r="BL174" t="n">
-        <v>39.88004750593834</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="BM174" t="n">
-        <v>2.266666666666667</v>
+        <v>2.09</v>
       </c>
       <c r="BN174" t="n">
-        <v>2.09</v>
+        <v>9</v>
       </c>
       <c r="BO174" t="n">
-        <v>9</v>
+        <v>1.699999999999999</v>
       </c>
       <c r="BP174" t="n">
-        <v>1.699999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="BQ174" t="n">
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>20180626</v>
-      </c>
-      <c r="B175" t="n">
-        <v>25.08916527545914</v>
-      </c>
-      <c r="C175" t="n">
-        <v>99.38819699498963</v>
-      </c>
-      <c r="D175" t="n">
-        <v>24.98512542091097</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.1285225795946671</v>
-      </c>
-      <c r="F175" t="n">
-        <v>9.274642165959249e-05</v>
-      </c>
-      <c r="G175" t="n">
-        <v>3218.591044606961</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0.02030776438648282</v>
-      </c>
-      <c r="I175" t="n">
-        <v>76.96755650065685</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0.8726780876415023</v>
-      </c>
-      <c r="K175" t="n">
-        <v>1.146113963941438</v>
-      </c>
-      <c r="L175" t="n">
-        <v>3200.99902234651</v>
-      </c>
-      <c r="M175" t="n">
-        <v>23.22632082110394</v>
-      </c>
-      <c r="N175" t="n">
-        <v>23.35484340069847</v>
-      </c>
-      <c r="O175" t="n">
-        <v>2.545492874211443</v>
-      </c>
-      <c r="P175" t="n">
-        <v>1.367468896372907</v>
-      </c>
-      <c r="Q175" t="n">
-        <v>2.617775736400561</v>
-      </c>
-      <c r="R175" t="n">
-        <v>0.2802496881722708</v>
-      </c>
-      <c r="S175" t="n">
-        <v>0.0001437113388389413</v>
-      </c>
-      <c r="T175" t="n">
-        <v>499.7691448734529</v>
-      </c>
-      <c r="U175" t="n">
-        <v>0.003363074835191842</v>
-      </c>
-      <c r="V175" t="n">
-        <v>11.21885497630002</v>
-      </c>
-      <c r="W175" t="n">
-        <v>0.01202565793113241</v>
-      </c>
-      <c r="X175" t="n">
-        <v>0.01569225301876536</v>
-      </c>
-      <c r="Y175" t="n">
-        <v>512.3801037604725</v>
-      </c>
-      <c r="Z175" t="n">
-        <v>3.510351744723201</v>
-      </c>
-      <c r="AA175" t="n">
-        <v>3.417137920695825</v>
-      </c>
-      <c r="AB175" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="AC175" t="n">
-        <v>94.09</v>
-      </c>
-      <c r="AD175" t="n">
-        <v>22.01947930327267</v>
-      </c>
-      <c r="AE175" t="n">
-        <v>0.01952810627023993</v>
-      </c>
-      <c r="AF175" t="n">
-        <v>9.082521383024825e-21</v>
-      </c>
-      <c r="AG175" t="n">
-        <v>2660.928551584723</v>
-      </c>
-      <c r="AH175" t="n">
-        <v>0.01668185598360455</v>
-      </c>
-      <c r="AI175" t="n">
-        <v>64.81279773486392</v>
-      </c>
-      <c r="AJ175" t="n">
-        <v>0.8591175181179657</v>
-      </c>
-      <c r="AK175" t="n">
-        <v>1.115457517984087</v>
-      </c>
-      <c r="AL175" t="n">
-        <v>2646.610317654736</v>
-      </c>
-      <c r="AM175" t="n">
-        <v>19.37119568366136</v>
-      </c>
-      <c r="AN175" t="n">
-        <v>19.52810627023967</v>
-      </c>
-      <c r="AO175" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP175" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="AQ175" t="n">
-        <v>29.96743933981045</v>
-      </c>
-      <c r="AR175" t="n">
-        <v>1.242604315231656</v>
-      </c>
-      <c r="AS175" t="n">
-        <v>0.0005788248201153436</v>
-      </c>
-      <c r="AT175" t="n">
-        <v>4246.030243592574</v>
-      </c>
-      <c r="AU175" t="n">
-        <v>0.02717570615724873</v>
-      </c>
-      <c r="AV175" t="n">
-        <v>99.62398424304868</v>
-      </c>
-      <c r="AW175" t="n">
-        <v>0.8964931284942629</v>
-      </c>
-      <c r="AX175" t="n">
-        <v>1.163985111362483</v>
-      </c>
-      <c r="AY175" t="n">
-        <v>4241.784213348981</v>
-      </c>
-      <c r="AZ175" t="n">
-        <v>30.31850772107023</v>
-      </c>
-      <c r="BA175" t="n">
-        <v>30.34885657764788</v>
-      </c>
-      <c r="BB175" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC175" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD175" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE175" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF175" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="BG175" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH175" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="BI175" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ175" t="n">
-        <v>26.07693982074272</v>
-      </c>
-      <c r="BK175" t="n">
-        <v>23.23916067146289</v>
-      </c>
-      <c r="BL175" t="n">
-        <v>27.96933491686469</v>
-      </c>
-      <c r="BM175" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN175" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="BO175" t="n">
-        <v>1.710000000000001</v>
-      </c>
-      <c r="BP175" t="n">
-        <v>6.100000000000001</v>
-      </c>
-      <c r="BQ175" t="n">
-        <v>4</v>
+        <v>24.2721732522797</v>
+      </c>
+      <c r="BR174" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BS174" t="n">
+        <v>9.803959910332612</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/2nd_data/myeong/myeong_env_detail_data.xlsx
+++ b/dataset/2nd_data/myeong/myeong_env_detail_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS174"/>
+  <dimension ref="A1:BT174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,11 @@
           <t>주야간온도차이</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>주야간온도차8도이상인날수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -937,6 +942,9 @@
       <c r="BS2" t="n">
         <v>7.092828209427628</v>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1152,6 +1160,9 @@
       <c r="BS3" t="n">
         <v>6.464822326148976</v>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1367,6 +1378,9 @@
       <c r="BS4" t="n">
         <v>2.013210661402509</v>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1582,6 +1596,9 @@
       <c r="BS5" t="n">
         <v>6.04403173628611</v>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1797,6 +1814,9 @@
       <c r="BS6" t="n">
         <v>3.410582246409964</v>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -2012,6 +2032,9 @@
       <c r="BS7" t="n">
         <v>6.269797450973826</v>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2227,6 +2250,9 @@
       <c r="BS8" t="n">
         <v>6.233844087964012</v>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2442,6 +2468,9 @@
       <c r="BS9" t="n">
         <v>1.580239314213275</v>
       </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2657,6 +2686,9 @@
       <c r="BS10" t="n">
         <v>2.372380299176806</v>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2872,6 +2904,9 @@
       <c r="BS11" t="n">
         <v>3.027639033261474</v>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -3087,6 +3122,9 @@
       <c r="BS12" t="n">
         <v>2.051319948938957</v>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -3302,6 +3340,9 @@
       <c r="BS13" t="n">
         <v>3.762921957181089</v>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -3517,6 +3558,9 @@
       <c r="BS14" t="n">
         <v>6.097402186605775</v>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3732,6 +3776,9 @@
       <c r="BS15" t="n">
         <v>6.861651592546053</v>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -3947,6 +3994,9 @@
       <c r="BS16" t="n">
         <v>5.334498318369365</v>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -4162,6 +4212,9 @@
       <c r="BS17" t="n">
         <v>9.042781500702413</v>
       </c>
+      <c r="BT17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -4377,6 +4430,9 @@
       <c r="BS18" t="n">
         <v>1.439833644605162</v>
       </c>
+      <c r="BT18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -4592,6 +4648,9 @@
       <c r="BS19" t="n">
         <v>5.596256287899907</v>
       </c>
+      <c r="BT19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -4807,6 +4866,9 @@
       <c r="BS20" t="n">
         <v>5.425714863050596</v>
       </c>
+      <c r="BT20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -5022,6 +5084,9 @@
       <c r="BS21" t="n">
         <v>4.919959839045374</v>
       </c>
+      <c r="BT21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -5237,6 +5302,9 @@
       <c r="BS22" t="n">
         <v>5.066955558707518</v>
       </c>
+      <c r="BT22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -5452,6 +5520,9 @@
       <c r="BS23" t="n">
         <v>3.523196944114792</v>
       </c>
+      <c r="BT23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -5667,6 +5738,9 @@
       <c r="BS24" t="n">
         <v>3.851907247041314</v>
       </c>
+      <c r="BT24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -5882,6 +5956,9 @@
       <c r="BS25" t="n">
         <v>4.792955725801914</v>
       </c>
+      <c r="BT25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -6097,6 +6174,9 @@
       <c r="BS26" t="n">
         <v>5.026346965778645</v>
       </c>
+      <c r="BT26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -6312,6 +6392,9 @@
       <c r="BS27" t="n">
         <v>4.585645285702292</v>
       </c>
+      <c r="BT27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -6527,6 +6610,9 @@
       <c r="BS28" t="n">
         <v>5.666326797868209</v>
       </c>
+      <c r="BT28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -6742,6 +6828,9 @@
       <c r="BS29" t="n">
         <v>3.671608439435028</v>
       </c>
+      <c r="BT29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -6957,6 +7046,9 @@
       <c r="BS30" t="n">
         <v>4.958040701097215</v>
       </c>
+      <c r="BT30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -7172,6 +7264,9 @@
       <c r="BS31" t="n">
         <v>4.065024840726009</v>
       </c>
+      <c r="BT31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -7387,6 +7482,9 @@
       <c r="BS32" t="n">
         <v>5.436499778588749</v>
       </c>
+      <c r="BT32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -7602,6 +7700,9 @@
       <c r="BS33" t="n">
         <v>7.676285723722996</v>
       </c>
+      <c r="BT33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -7817,6 +7918,9 @@
       <c r="BS34" t="n">
         <v>6.440330470438587</v>
       </c>
+      <c r="BT34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -8032,6 +8136,9 @@
       <c r="BS35" t="n">
         <v>7.207352194280361</v>
       </c>
+      <c r="BT35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -8247,6 +8354,9 @@
       <c r="BS36" t="n">
         <v>7.813233432877622</v>
       </c>
+      <c r="BT36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -8462,6 +8572,9 @@
       <c r="BS37" t="n">
         <v>6.697711991357863</v>
       </c>
+      <c r="BT37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -8677,6 +8790,9 @@
       <c r="BS38" t="n">
         <v>6.689276228484209</v>
       </c>
+      <c r="BT38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -8892,6 +9008,9 @@
       <c r="BS39" t="n">
         <v>6.577952685071757</v>
       </c>
+      <c r="BT39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -9107,6 +9226,9 @@
       <c r="BS40" t="n">
         <v>6.09832779266311</v>
       </c>
+      <c r="BT40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -9322,6 +9444,9 @@
       <c r="BS41" t="n">
         <v>4.466458394455602</v>
       </c>
+      <c r="BT41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -9537,6 +9662,9 @@
       <c r="BS42" t="n">
         <v>8.719419968563059</v>
       </c>
+      <c r="BT42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -9752,6 +9880,9 @@
       <c r="BS43" t="n">
         <v>7.040997709251911</v>
       </c>
+      <c r="BT43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -9967,6 +10098,9 @@
       <c r="BS44" t="n">
         <v>8.760918494829008</v>
       </c>
+      <c r="BT44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -10182,6 +10316,9 @@
       <c r="BS45" t="n">
         <v>8.791221071774878</v>
       </c>
+      <c r="BT45" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -10397,6 +10534,9 @@
       <c r="BS46" t="n">
         <v>8.61568321225468</v>
       </c>
+      <c r="BT46" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -10612,6 +10752,9 @@
       <c r="BS47" t="n">
         <v>6.161428560325994</v>
       </c>
+      <c r="BT47" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -10827,6 +10970,9 @@
       <c r="BS48" t="n">
         <v>7.910395333790712</v>
       </c>
+      <c r="BT48" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -11042,6 +11188,9 @@
       <c r="BS49" t="n">
         <v>6.818467627395037</v>
       </c>
+      <c r="BT49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -11257,6 +11406,9 @@
       <c r="BS50" t="n">
         <v>6.710399686017967</v>
       </c>
+      <c r="BT50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -11472,6 +11624,9 @@
       <c r="BS51" t="n">
         <v>8.303116097606503</v>
       </c>
+      <c r="BT51" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -11687,6 +11842,9 @@
       <c r="BS52" t="n">
         <v>5.629979657223275</v>
       </c>
+      <c r="BT52" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -11902,6 +12060,9 @@
       <c r="BS53" t="n">
         <v>6.781068238649878</v>
       </c>
+      <c r="BT53" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -12117,6 +12278,9 @@
       <c r="BS54" t="n">
         <v>6.9556428764337</v>
       </c>
+      <c r="BT54" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -12332,6 +12496,9 @@
       <c r="BS55" t="n">
         <v>9.323732986968659</v>
       </c>
+      <c r="BT55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -12547,6 +12714,9 @@
       <c r="BS56" t="n">
         <v>7.380740811262967</v>
       </c>
+      <c r="BT56" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -12762,6 +12932,9 @@
       <c r="BS57" t="n">
         <v>0.9414270551108892</v>
       </c>
+      <c r="BT57" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -12977,6 +13150,9 @@
       <c r="BS58" t="n">
         <v>7.045522160414606</v>
       </c>
+      <c r="BT58" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -13192,6 +13368,9 @@
       <c r="BS59" t="n">
         <v>8.823883371965838</v>
       </c>
+      <c r="BT59" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -13407,6 +13586,9 @@
       <c r="BS60" t="n">
         <v>5.901475663160227</v>
       </c>
+      <c r="BT60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -13622,6 +13804,9 @@
       <c r="BS61" t="n">
         <v>3.480934699103727</v>
       </c>
+      <c r="BT61" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -13837,6 +14022,9 @@
       <c r="BS62" t="n">
         <v>6.950375962493199</v>
       </c>
+      <c r="BT62" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -14052,6 +14240,9 @@
       <c r="BS63" t="n">
         <v>7.851185826505525</v>
       </c>
+      <c r="BT63" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -14267,6 +14458,9 @@
       <c r="BS64" t="n">
         <v>5.661858770223905</v>
       </c>
+      <c r="BT64" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -14482,6 +14676,9 @@
       <c r="BS65" t="n">
         <v>5.623550329428625</v>
       </c>
+      <c r="BT65" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -14697,6 +14894,9 @@
       <c r="BS66" t="n">
         <v>6.562475290423791</v>
       </c>
+      <c r="BT66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -14912,6 +15112,9 @@
       <c r="BS67" t="n">
         <v>6.557175598771352</v>
       </c>
+      <c r="BT67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -15127,6 +15330,9 @@
       <c r="BS68" t="n">
         <v>8.013001560195834</v>
       </c>
+      <c r="BT68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -15342,6 +15548,9 @@
       <c r="BS69" t="n">
         <v>7.309789208419323</v>
       </c>
+      <c r="BT69" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -15557,6 +15766,9 @@
       <c r="BS70" t="n">
         <v>5.029785400220417</v>
       </c>
+      <c r="BT70" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -15772,6 +15984,9 @@
       <c r="BS71" t="n">
         <v>4.099765128488567</v>
       </c>
+      <c r="BT71" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -15987,6 +16202,9 @@
       <c r="BS72" t="n">
         <v>2.738968036138417</v>
       </c>
+      <c r="BT72" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -16202,6 +16420,9 @@
       <c r="BS73" t="n">
         <v>7.556391984129975</v>
       </c>
+      <c r="BT73" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -16417,6 +16638,9 @@
       <c r="BS74" t="n">
         <v>7.110703040147451</v>
       </c>
+      <c r="BT74" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -16632,6 +16856,9 @@
       <c r="BS75" t="n">
         <v>1.479868293062534</v>
       </c>
+      <c r="BT75" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -16847,6 +17074,9 @@
       <c r="BS76" t="n">
         <v>2.796143479722332</v>
       </c>
+      <c r="BT76" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -17062,6 +17292,9 @@
       <c r="BS77" t="n">
         <v>5.737977282927883</v>
       </c>
+      <c r="BT77" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -17277,6 +17510,9 @@
       <c r="BS78" t="n">
         <v>3.19874269204686</v>
       </c>
+      <c r="BT78" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -17492,6 +17728,9 @@
       <c r="BS79" t="n">
         <v>9.315329030327737</v>
       </c>
+      <c r="BT79" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -17707,6 +17946,9 @@
       <c r="BS80" t="n">
         <v>5.619746055308315</v>
       </c>
+      <c r="BT80" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -17922,6 +18164,9 @@
       <c r="BS81" t="n">
         <v>5.595699144515397</v>
       </c>
+      <c r="BT81" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -18137,6 +18382,9 @@
       <c r="BS82" t="n">
         <v>5.269076278612534</v>
       </c>
+      <c r="BT82" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -18352,6 +18600,9 @@
       <c r="BS83" t="n">
         <v>5.451293079173547</v>
       </c>
+      <c r="BT83" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -18567,6 +18818,9 @@
       <c r="BS84" t="n">
         <v>5.377146454392083</v>
       </c>
+      <c r="BT84" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -18782,6 +19036,9 @@
       <c r="BS85" t="n">
         <v>4.714661818337326</v>
       </c>
+      <c r="BT85" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -18997,6 +19254,9 @@
       <c r="BS86" t="n">
         <v>4.764253913604332</v>
       </c>
+      <c r="BT86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -19212,6 +19472,9 @@
       <c r="BS87" t="n">
         <v>5.935749894594579</v>
       </c>
+      <c r="BT87" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -19427,6 +19690,9 @@
       <c r="BS88" t="n">
         <v>5.007095879179161</v>
       </c>
+      <c r="BT88" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -19642,6 +19908,9 @@
       <c r="BS89" t="n">
         <v>3.983050211879647</v>
       </c>
+      <c r="BT89" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -19857,6 +20126,9 @@
       <c r="BS90" t="n">
         <v>4.745381159907481</v>
       </c>
+      <c r="BT90" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -20072,6 +20344,9 @@
       <c r="BS91" t="n">
         <v>3.844413488795826</v>
       </c>
+      <c r="BT91" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -20287,6 +20562,9 @@
       <c r="BS92" t="n">
         <v>4.474745423846795</v>
       </c>
+      <c r="BT92" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -20502,6 +20780,9 @@
       <c r="BS93" t="n">
         <v>1.531954052914697</v>
       </c>
+      <c r="BT93" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -20717,6 +20998,9 @@
       <c r="BS94" t="n">
         <v>6.375844691545707</v>
       </c>
+      <c r="BT94" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -20932,6 +21216,9 @@
       <c r="BS95" t="n">
         <v>7.848853790420909</v>
       </c>
+      <c r="BT95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -21147,6 +21434,9 @@
       <c r="BS96" t="n">
         <v>5.249615391341113</v>
       </c>
+      <c r="BT96" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -21362,6 +21652,9 @@
       <c r="BS97" t="n">
         <v>7.106143324285686</v>
       </c>
+      <c r="BT97" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -21577,6 +21870,9 @@
       <c r="BS98" t="n">
         <v>2.713867109402095</v>
       </c>
+      <c r="BT98" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -21792,6 +22088,9 @@
       <c r="BS99" t="n">
         <v>7.625629081427547</v>
       </c>
+      <c r="BT99" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -22007,6 +22306,9 @@
       <c r="BS100" t="n">
         <v>6.81723515172277</v>
       </c>
+      <c r="BT100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -22222,6 +22524,9 @@
       <c r="BS101" t="n">
         <v>2.976437585368796</v>
       </c>
+      <c r="BT101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -22437,6 +22742,9 @@
       <c r="BS102" t="n">
         <v>1.812293002046058</v>
       </c>
+      <c r="BT102" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -22652,6 +22960,9 @@
       <c r="BS103" t="n">
         <v>6.16190350570025</v>
       </c>
+      <c r="BT103" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -22867,6 +23178,9 @@
       <c r="BS104" t="n">
         <v>4.504065211470511</v>
       </c>
+      <c r="BT104" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -23082,6 +23396,9 @@
       <c r="BS105" t="n">
         <v>5.615313548111137</v>
       </c>
+      <c r="BT105" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -23297,6 +23614,9 @@
       <c r="BS106" t="n">
         <v>5.858081386650872</v>
       </c>
+      <c r="BT106" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -23512,6 +23832,9 @@
       <c r="BS107" t="n">
         <v>4.852344280154597</v>
       </c>
+      <c r="BT107" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -23727,6 +24050,9 @@
       <c r="BS108" t="n">
         <v>6.955396975590677</v>
       </c>
+      <c r="BT108" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -23942,6 +24268,9 @@
       <c r="BS109" t="n">
         <v>5.589329076958574</v>
       </c>
+      <c r="BT109" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -24157,6 +24486,9 @@
       <c r="BS110" t="n">
         <v>1.643488582203616</v>
       </c>
+      <c r="BT110" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -24372,6 +24704,9 @@
       <c r="BS111" t="n">
         <v>0.7460440255244194</v>
       </c>
+      <c r="BT111" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -24587,6 +24922,9 @@
       <c r="BS112" t="n">
         <v>4.520330084958591</v>
       </c>
+      <c r="BT112" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -24802,6 +25140,9 @@
       <c r="BS113" t="n">
         <v>6.002163658936311</v>
       </c>
+      <c r="BT113" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -25017,6 +25358,9 @@
       <c r="BS114" t="n">
         <v>6.303504767049059</v>
       </c>
+      <c r="BT114" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -25232,6 +25576,9 @@
       <c r="BS115" t="n">
         <v>5.550177811550281</v>
       </c>
+      <c r="BT115" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -25447,6 +25794,9 @@
       <c r="BS116" t="n">
         <v>6.92865265091527</v>
       </c>
+      <c r="BT116" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -25662,6 +26012,9 @@
       <c r="BS117" t="n">
         <v>5.871227600115869</v>
       </c>
+      <c r="BT117" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -25877,6 +26230,9 @@
       <c r="BS118" t="n">
         <v>4.345958199188207</v>
       </c>
+      <c r="BT118" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -26092,6 +26448,9 @@
       <c r="BS119" t="n">
         <v>3.9238635280214</v>
       </c>
+      <c r="BT119" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -26307,6 +26666,9 @@
       <c r="BS120" t="n">
         <v>8.517944427497653</v>
       </c>
+      <c r="BT120" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -26522,6 +26884,9 @@
       <c r="BS121" t="n">
         <v>2.857382533753633</v>
       </c>
+      <c r="BT121" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -26737,6 +27102,9 @@
       <c r="BS122" t="n">
         <v>6.398170048098233</v>
       </c>
+      <c r="BT122" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -26952,6 +27320,9 @@
       <c r="BS123" t="n">
         <v>3.643596419694802</v>
       </c>
+      <c r="BT123" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -27167,6 +27538,9 @@
       <c r="BS124" t="n">
         <v>1.837137773795369</v>
       </c>
+      <c r="BT124" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -27382,6 +27756,9 @@
       <c r="BS125" t="n">
         <v>3.648130312060083</v>
       </c>
+      <c r="BT125" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -27597,6 +27974,9 @@
       <c r="BS126" t="n">
         <v>5.406216317306338</v>
       </c>
+      <c r="BT126" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -27812,6 +28192,9 @@
       <c r="BS127" t="n">
         <v>5.301393168920054</v>
       </c>
+      <c r="BT127" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -28027,6 +28410,9 @@
       <c r="BS128" t="n">
         <v>4.698059388392913</v>
       </c>
+      <c r="BT128" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -28242,6 +28628,9 @@
       <c r="BS129" t="n">
         <v>5.417648411671578</v>
       </c>
+      <c r="BT129" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -28457,6 +28846,9 @@
       <c r="BS130" t="n">
         <v>1.32542674841913</v>
       </c>
+      <c r="BT130" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -28672,6 +29064,9 @@
       <c r="BS131" t="n">
         <v>4.976859045958481</v>
       </c>
+      <c r="BT131" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -28887,6 +29282,9 @@
       <c r="BS132" t="n">
         <v>5.937203999844318</v>
       </c>
+      <c r="BT132" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -29102,6 +29500,9 @@
       <c r="BS133" t="n">
         <v>2.085360101189881</v>
       </c>
+      <c r="BT133" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -29317,6 +29718,9 @@
       <c r="BS134" t="n">
         <v>0.8045480499976811</v>
       </c>
+      <c r="BT134" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -29532,6 +29936,9 @@
       <c r="BS135" t="n">
         <v>3.755924222306444</v>
       </c>
+      <c r="BT135" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -29747,6 +30154,9 @@
       <c r="BS136" t="n">
         <v>3.689456695203685</v>
       </c>
+      <c r="BT136" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -29962,6 +30372,9 @@
       <c r="BS137" t="n">
         <v>6.734436645271476</v>
       </c>
+      <c r="BT137" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -30177,6 +30590,9 @@
       <c r="BS138" t="n">
         <v>6.019856930966519</v>
       </c>
+      <c r="BT138" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -30392,6 +30808,9 @@
       <c r="BS139" t="n">
         <v>6.105415033206587</v>
       </c>
+      <c r="BT139" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -30607,6 +31026,9 @@
       <c r="BS140" t="n">
         <v>3.894504059838219</v>
       </c>
+      <c r="BT140" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -30822,6 +31244,9 @@
       <c r="BS141" t="n">
         <v>9.007687543109423</v>
       </c>
+      <c r="BT141" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -31037,6 +31462,9 @@
       <c r="BS142" t="n">
         <v>7.447513020833306</v>
       </c>
+      <c r="BT142" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -31252,6 +31680,9 @@
       <c r="BS143" t="n">
         <v>7.104758582601498</v>
       </c>
+      <c r="BT143" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -31467,6 +31898,9 @@
       <c r="BS144" t="n">
         <v>8.206799289862584</v>
       </c>
+      <c r="BT144" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -31682,6 +32116,9 @@
       <c r="BS145" t="n">
         <v>4.770293033549798</v>
       </c>
+      <c r="BT145" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -31897,6 +32334,9 @@
       <c r="BS146" t="n">
         <v>7.050395828202298</v>
       </c>
+      <c r="BT146" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -32112,6 +32552,9 @@
       <c r="BS147" t="n">
         <v>5.292321522356147</v>
       </c>
+      <c r="BT147" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -32327,6 +32770,9 @@
       <c r="BS148" t="n">
         <v>7.107796138756417</v>
       </c>
+      <c r="BT148" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -32542,6 +32988,9 @@
       <c r="BS149" t="n">
         <v>7.234364499435795</v>
       </c>
+      <c r="BT149" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -32757,6 +33206,9 @@
       <c r="BS150" t="n">
         <v>9.892513352983187</v>
       </c>
+      <c r="BT150" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -32972,6 +33424,9 @@
       <c r="BS151" t="n">
         <v>9.901899050620646</v>
       </c>
+      <c r="BT151" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -33187,6 +33642,9 @@
       <c r="BS152" t="n">
         <v>8.215434727276559</v>
       </c>
+      <c r="BT152" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -33402,6 +33860,9 @@
       <c r="BS153" t="n">
         <v>5.637957620186455</v>
       </c>
+      <c r="BT153" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -33617,6 +34078,9 @@
       <c r="BS154" t="n">
         <v>6.812314666034514</v>
       </c>
+      <c r="BT154" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -33832,6 +34296,9 @@
       <c r="BS155" t="n">
         <v>6.443981848955218</v>
       </c>
+      <c r="BT155" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -34047,6 +34514,9 @@
       <c r="BS156" t="n">
         <v>5.930230671958249</v>
       </c>
+      <c r="BT156" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -34262,6 +34732,9 @@
       <c r="BS157" t="n">
         <v>5.521991454867901</v>
       </c>
+      <c r="BT157" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -34477,6 +34950,9 @@
       <c r="BS158" t="n">
         <v>6.541785675317499</v>
       </c>
+      <c r="BT158" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -34692,6 +35168,9 @@
       <c r="BS159" t="n">
         <v>4.647844773149796</v>
       </c>
+      <c r="BT159" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -34907,6 +35386,9 @@
       <c r="BS160" t="n">
         <v>4.038203812473423</v>
       </c>
+      <c r="BT160" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -35122,6 +35604,9 @@
       <c r="BS161" t="n">
         <v>5.476712727739031</v>
       </c>
+      <c r="BT161" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -35337,6 +35822,9 @@
       <c r="BS162" t="n">
         <v>4.656498030811559</v>
       </c>
+      <c r="BT162" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -35552,6 +36040,9 @@
       <c r="BS163" t="n">
         <v>5.22025023364073</v>
       </c>
+      <c r="BT163" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -35767,6 +36258,9 @@
       <c r="BS164" t="n">
         <v>7.401152679631313</v>
       </c>
+      <c r="BT164" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -35982,6 +36476,9 @@
       <c r="BS165" t="n">
         <v>6.765010501691293</v>
       </c>
+      <c r="BT165" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -36197,6 +36694,9 @@
       <c r="BS166" t="n">
         <v>4.276070697638108</v>
       </c>
+      <c r="BT166" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -36412,6 +36912,9 @@
       <c r="BS167" t="n">
         <v>7.152222647514204</v>
       </c>
+      <c r="BT167" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -36627,6 +37130,9 @@
       <c r="BS168" t="n">
         <v>2.832904703708586</v>
       </c>
+      <c r="BT168" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -36842,6 +37348,9 @@
       <c r="BS169" t="n">
         <v>6.30303499851362</v>
       </c>
+      <c r="BT169" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -37057,6 +37566,9 @@
       <c r="BS170" t="n">
         <v>7.247331734925982</v>
       </c>
+      <c r="BT170" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -37272,6 +37784,9 @@
       <c r="BS171" t="n">
         <v>5.217936652798787</v>
       </c>
+      <c r="BT171" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -37487,6 +38002,9 @@
       <c r="BS172" t="n">
         <v>5.804477723007924</v>
       </c>
+      <c r="BT172" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -37702,6 +38220,9 @@
       <c r="BS173" t="n">
         <v>9.114464854893406</v>
       </c>
+      <c r="BT173" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -37916,6 +38437,9 @@
       </c>
       <c r="BS174" t="n">
         <v>9.803959910332612</v>
+      </c>
+      <c r="BT174" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
